--- a/allPages/allPagesUK-SEO.xlsx
+++ b/allPages/allPagesUK-SEO.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="250">
   <si>
     <t>Date</t>
   </si>
@@ -737,6 +737,30 @@
   </si>
   <si>
     <t>Одеса, порти, експорт, агропродукція, зерно, Україна, продовольство</t>
+  </si>
+  <si>
+    <t>18/05/2023</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>superblogs.com.ua</t>
+  </si>
+  <si>
+    <t>https:/superblogs.com.ua/post2.html</t>
+  </si>
+  <si>
+    <t>таможенне оформления 3</t>
+  </si>
+  <si>
+    <t>15/03/2023</t>
+  </si>
+  <si>
+    <t>https:/superblogs.com.ua/post3.html</t>
+  </si>
+  <si>
+    <t>таможенне оформления 4</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K79"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="11" width="20" customWidth="1"/>
@@ -3787,24 +3811,24 @@
         <v>241</v>
       </c>
       <c r="E77" t="s">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="G77" t="s">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="H77" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="I77" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="J77" t="s">
-        <v>12</v>
-      </c>
-      <c r="K77" t="s">
+        <v>246</v>
+      </c>
+      <c r="K77">
         <v>12</v>
       </c>
     </row>
@@ -3822,24 +3846,59 @@
         <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="G78" t="s">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="H78" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="I78" t="s">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="J78" t="s">
-        <v>12</v>
-      </c>
-      <c r="K78" t="s">
+        <v>249</v>
+      </c>
+      <c r="K78">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" t="s">
+        <v>12</v>
+      </c>
+      <c r="J79" t="s">
+        <v>12</v>
+      </c>
+      <c r="K79" t="s">
         <v>12</v>
       </c>
     </row>

--- a/allPages/allPagesUK-SEO.xlsx
+++ b/allPages/allPagesUK-SEO.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="601">
   <si>
     <t>Date</t>
   </si>
@@ -52,6 +52,450 @@
     <t/>
   </si>
   <si>
+    <t>05.11.2024</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/</t>
+  </si>
+  <si>
+    <t>mainPage</t>
+  </si>
+  <si>
+    <t>25/07/2024</t>
+  </si>
+  <si>
+    <t>Sabmit</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>deviantart.com</t>
+  </si>
+  <si>
+    <t>https://www.deviantart.com/oscardalado/journal/Carrier-998947539</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>quora.com</t>
+  </si>
+  <si>
+    <t>https://www.quora.com/What-is-your-favorite-mode-of-transportation-and-why/answer/Tarra-Waite?prompt_topic_bio=1</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>noranetworks.io</t>
+  </si>
+  <si>
+    <t>https://www.noranetworks.io/community/profile/kelah/</t>
+  </si>
+  <si>
+    <t>earthpeopletechnology.com</t>
+  </si>
+  <si>
+    <t>https://earthpeopletechnology.com/forums/profile/tyresd</t>
+  </si>
+  <si>
+    <t>manilla-cycling.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.manilla-cycling.co.uk/community/profile/kelah14/</t>
+  </si>
+  <si>
+    <t>hotfrog.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.hotfrog.co.uk/company/834516937bae82811f632d1f814963ab/transholdua/london/mass-public-transportation</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>merchantcircle.com</t>
+  </si>
+  <si>
+    <t>https://www.merchantcircle.com/logisticsuaservices-erie-pa</t>
+  </si>
+  <si>
+    <t>sketchfab.com</t>
+  </si>
+  <si>
+    <t>https://sketchfab.com/Airtransportationgoods</t>
+  </si>
+  <si>
+    <t>guestlist.co</t>
+  </si>
+  <si>
+    <t>https://guestlist.co/u/Logisticsinua</t>
+  </si>
+  <si>
+    <t>favor.com.ua</t>
+  </si>
+  <si>
+    <t>https://favor.com.ua/ru/blogs/39275.html</t>
+  </si>
+  <si>
+    <t>esurveyspro.com</t>
+  </si>
+  <si>
+    <t>https://www.esurveyspro.com/Survey.aspx?id=680aa6af-a8a1-4693-b1bf-575cd8f4410c</t>
+  </si>
+  <si>
+    <t>penzu.com</t>
+  </si>
+  <si>
+    <t>https://penzu.com/public/886f2feb632bf837</t>
+  </si>
+  <si>
+    <t>hackmd.io</t>
+  </si>
+  <si>
+    <t>https://hackmd.io/@ke6DBcX3ThGQuGpwyy3H5w/ry3bKFHe1g</t>
+  </si>
+  <si>
+    <t>vocal.com.ua</t>
+  </si>
+  <si>
+    <t>https://www.vocal.com.ua/node/64277</t>
+  </si>
+  <si>
+    <t>20/06/2024</t>
+  </si>
+  <si>
+    <t>Forum</t>
+  </si>
+  <si>
+    <t>autoriginal.com.ua</t>
+  </si>
+  <si>
+    <t>https://www.autoriginal.com.ua/forum/tryop/4746-pracyu-mo-z-kita-m.html</t>
+  </si>
+  <si>
+    <t>Forms of ownership in Ukraine</t>
+  </si>
+  <si>
+    <t>getrejoin.com</t>
+  </si>
+  <si>
+    <t>https://getrejoin.com/ua/question/tovaroobig-z-yevropoyu-1678941.html</t>
+  </si>
+  <si>
+    <t>forum.osvita.od.ua</t>
+  </si>
+  <si>
+    <t>http://forum.osvita.od.ua/viewtopic.php?f=2&amp;t=34897</t>
+  </si>
+  <si>
+    <t>hero.izmail-city.com</t>
+  </si>
+  <si>
+    <t>https://hero.izmail-city.com/forum/read.php?6,22183</t>
+  </si>
+  <si>
+    <t>krasnoselka.od.ua</t>
+  </si>
+  <si>
+    <t>http://krasnoselka.od.ua/forum/viewtopic.php?id=2447</t>
+  </si>
+  <si>
+    <t>forum.anime.org.ua</t>
+  </si>
+  <si>
+    <t>http://forum.anime.org.ua/bbs/showthread.php?t=37283</t>
+  </si>
+  <si>
+    <t>footwear.ua</t>
+  </si>
+  <si>
+    <t>http://footwear.ua/forum/index.php?act=morelist&amp;id_parent=84281&amp;id_group=7&amp;offset_detail=0</t>
+  </si>
+  <si>
+    <t>medium.com</t>
+  </si>
+  <si>
+    <t>https://medium.com/@tampiclukrus/%D0%BF%D0%BE%D1%81%D0%BE%D0%B2%D0%B5%D1%82%D1%83%D0%B9%D1%82%D0%B5-%D0%BA%D0%BE%D0%BC%D0%BF%D0%B0%D0%BD%D0%B8%D1%8E-%D0%BF%D0%BE-%D0%B3%D1%80%D1%83%D0%B7%D0%BE%D0%BF%D0%B5%D1%80%D0%B5%D0%B2%D0%BE%D0%B7%D0%BA%D0%B0%D0%BC-311efbbaa4af</t>
+  </si>
+  <si>
+    <t>20/05/2024</t>
+  </si>
+  <si>
+    <t>http://footwear.ua/forum/index.php?act=morelist&amp;id_parent=81065&amp;id_group=7&amp;offset_detail=0</t>
+  </si>
+  <si>
+    <t>Sea container transportation port Odessa</t>
+  </si>
+  <si>
+    <t>20/04/2024</t>
+  </si>
+  <si>
+    <t>uin.in.ua/forum</t>
+  </si>
+  <si>
+    <t>https://uin.in.ua/forum/viewtopic.php?f=4&amp;t=47372&amp;sid=1b0a2b9509713a037b8efba7152f8473</t>
+  </si>
+  <si>
+    <t>контейнерні перевезення з Китаю</t>
+  </si>
+  <si>
+    <t>agropravda.com</t>
+  </si>
+  <si>
+    <t>https://agropravda.com/forum/topic3936-dostavki-vantazhu.html</t>
+  </si>
+  <si>
+    <t>Портове експедирування в Україні</t>
+  </si>
+  <si>
+    <t>gorod.kr.ua</t>
+  </si>
+  <si>
+    <t>https://gorod.kr.ua/forum/showthread.php?t=113177</t>
+  </si>
+  <si>
+    <t>Митний брокер</t>
+  </si>
+  <si>
+    <t>17/03/2024</t>
+  </si>
+  <si>
+    <t>webwiki.com</t>
+  </si>
+  <si>
+    <t>https://www.webwiki.com/t-h-logistics.com</t>
+  </si>
+  <si>
+    <t>Tax reporting in Ukraine</t>
+  </si>
+  <si>
+    <t>pastebin.com</t>
+  </si>
+  <si>
+    <t>https://pastebin.com/u/PedroSilv</t>
+  </si>
+  <si>
+    <t>Starting a company in Ukraine</t>
+  </si>
+  <si>
+    <t>linktr.ee</t>
+  </si>
+  <si>
+    <t>https://linktr.ee/jameswilso</t>
+  </si>
+  <si>
+    <t>rent legal address in Ukraine</t>
+  </si>
+  <si>
+    <t>hanson.net</t>
+  </si>
+  <si>
+    <t>https://hanson.net/users/RicardoBarbosa</t>
+  </si>
+  <si>
+    <t>інтермодальні перевезення</t>
+  </si>
+  <si>
+    <t>leetcode.com</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/ThiagoFernandes/</t>
+  </si>
+  <si>
+    <t>послуги митного брокер</t>
+  </si>
+  <si>
+    <t>issuu.com</t>
+  </si>
+  <si>
+    <t>https://issuu.com/t-h-logistics.com</t>
+  </si>
+  <si>
+    <t>Авіаперевезення з Китаю</t>
+  </si>
+  <si>
+    <t>wakelet.com</t>
+  </si>
+  <si>
+    <t>https://wakelet.com/@JamesWilson71358</t>
+  </si>
+  <si>
+    <t>Переваги фрахту контейнера</t>
+  </si>
+  <si>
+    <t>taplink.cc</t>
+  </si>
+  <si>
+    <t>https://taplink.cc/avidaylor</t>
+  </si>
+  <si>
+    <t>морской фрахт контеййнера</t>
+  </si>
+  <si>
+    <t>26/02/2024</t>
+  </si>
+  <si>
+    <t>odessaforum.biz.ua</t>
+  </si>
+  <si>
+    <t>https://odessaforum.biz.ua/viewtopic.php?f=4&amp;t=4878</t>
+  </si>
+  <si>
+    <t>airfreight costs</t>
+  </si>
+  <si>
+    <t>acm.lviv.ua</t>
+  </si>
+  <si>
+    <t>http://acm.lviv.ua/fusion/forum/viewthread.php?forum_id=85&amp;thread_id=6845</t>
+  </si>
+  <si>
+    <t>ferdinand.com.ua</t>
+  </si>
+  <si>
+    <t>https://ferdinand.com.ua/forum/topics/profesijne-mitne-oformlennja-z-trans-hope-u-kijevi.12723/</t>
+  </si>
+  <si>
+    <t>морские контейнерные перевозки</t>
+  </si>
+  <si>
+    <t>dom.zeleniymis.com.ua</t>
+  </si>
+  <si>
+    <t>https://dom.zeleniymis.com.ua/topic/2357-%D1%83%D0%B2%D0%B5%D1%80%D0%B5%D0%BD%D0%BD%D0%BE%D0%B5-%D0%BF%D0%B0%D1%80%D1%82%D0%BD%D0%B5%D1%80%D1%81%D1%82%D0%B2%D0%BE-%D0%B2-%D1%82%D0%B0%D0%BC%D0%BE%D0%B6%D0%B5%D0%BD%D0%BD%D1%8B%D1%85-%D1%83%D1%81%D0%BB%D1%83%D0%B3%D0%B0%D1%85-%D1%81-trans-hope-%D0%BE%D1%82%D0%B7%D1%8B%D0%B2-%D0%BE-%D0%BA%D0%B0%D1%87%D0%B5%D1%81%D1%82%D0%B2%D0%B5%D0%BD%D0%BD%D0%BE%D0%B9-%D0%BB%D0%BE%D0%B3%D0%B8%D1%81%D1%82%D0%B8%D0%BA%D0%B5-%D0%B2-%D0%BA%D0%B8%D0%B5%D0%B2%D0%B5/</t>
+  </si>
+  <si>
+    <t>Таможня, полезные материалы</t>
+  </si>
+  <si>
+    <t>https://agropravda.com/forum/post11323.html</t>
+  </si>
+  <si>
+    <t>Документы для экспорта товаров</t>
+  </si>
+  <si>
+    <t>eno.one</t>
+  </si>
+  <si>
+    <t>https://eno.one/dominique.borcy/forums?t=5376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таможенные режимы в Украине </t>
+  </si>
+  <si>
+    <t>pokupki.bestforums.org</t>
+  </si>
+  <si>
+    <t>http://pokupki.bestforums.org/viewtopic.php?f=12&amp;t=14840</t>
+  </si>
+  <si>
+    <t>письмо китайскому  поставщику</t>
+  </si>
+  <si>
+    <t>20/01/2024</t>
+  </si>
+  <si>
+    <t>goldkeys.forum.cool</t>
+  </si>
+  <si>
+    <t>https://goldkeys.forum.cool/viewtopic.php?id=1382</t>
+  </si>
+  <si>
+    <t>лицензия таможенного брокера</t>
+  </si>
+  <si>
+    <t>10/01/2024</t>
+  </si>
+  <si>
+    <t>mistik.rolka.me</t>
+  </si>
+  <si>
+    <t>https://mistik.rolka.me/viewtopic.php?id=1028</t>
+  </si>
+  <si>
+    <t>експедирування вантажів у порту</t>
+  </si>
+  <si>
+    <t>aidablago.rolka.me</t>
+  </si>
+  <si>
+    <t>https://aidablago.rolka.me/viewtopic.php?id=1257</t>
+  </si>
+  <si>
+    <t>Митне оформлення в Україні</t>
+  </si>
+  <si>
+    <t>high.tforums.org</t>
+  </si>
+  <si>
+    <t>http://high.tforums.org/viewtopic.php?f=11&amp;t=2947&amp;p=6597</t>
+  </si>
+  <si>
+    <t>Cookies registration of a legal entity in Ukraine</t>
+  </si>
+  <si>
+    <t>30/12/2023</t>
+  </si>
+  <si>
+    <t>ternopilcars.pp.net.ua</t>
+  </si>
+  <si>
+    <t>http://ternopilcars.pp.net.ua/forum/19-2683-1</t>
+  </si>
+  <si>
+    <t>страхование грузов</t>
+  </si>
+  <si>
+    <t>20/12/2023</t>
+  </si>
+  <si>
+    <t>http://forum.osvita.od.ua/viewtopic.php?f=1&amp;t=11033&amp;p=87414</t>
+  </si>
+  <si>
+    <t>Растаможка</t>
+  </si>
+  <si>
+    <t>familyportal.forumrom.com</t>
+  </si>
+  <si>
+    <t>https://familyportal.forumrom.com/viewtopic.php?id=15633</t>
+  </si>
+  <si>
+    <t>консультации ВЭД</t>
+  </si>
+  <si>
+    <t>setka.pp.net.ua</t>
+  </si>
+  <si>
+    <t>http://setka.pp.net.ua/forum/50-1861-1</t>
+  </si>
+  <si>
+    <t>портовая логистика в Одессе</t>
+  </si>
+  <si>
+    <t>10/12/2023</t>
+  </si>
+  <si>
+    <t>superjackson.ukrbb.net</t>
+  </si>
+  <si>
+    <t>http://superjackson.ukrbb.net/viewtopic.php?f=28&amp;t=5902&amp;p=31088</t>
+  </si>
+  <si>
+    <t>Rent legal address in Ukraine</t>
+  </si>
+  <si>
     <t>03.11.2024</t>
   </si>
   <si>
@@ -199,6 +643,30 @@
     <t>реєстрація фірми, бізнес в Україні, стартап в Україні, підприємництво в Україні, заснувати компанію, податкове законодавство, правила реєстрації, документи для бізнесу, стартап в Україні</t>
   </si>
   <si>
+    <t>tapatalk.com</t>
+  </si>
+  <si>
+    <t>https://www.tapatalk.com/groups/ukraineforum/-t2106.html</t>
+  </si>
+  <si>
+    <t>интермодальная перевозка</t>
+  </si>
+  <si>
+    <t>forum.ostroyke.com.ua</t>
+  </si>
+  <si>
+    <t>https://forum.ostroyke.com.ua/threads/%D0%92%D1%81%D0%B5-%D0%BF%D1%80%D0%BE-%D0%B1%D1%96%D0%B7%D0%BD%D0%B5%D1%81.22596/</t>
+  </si>
+  <si>
+    <t>dibiz.com</t>
+  </si>
+  <si>
+    <t>https://www.dibiz.com/filippvaslyaev</t>
+  </si>
+  <si>
+    <t>доставка грузов из Европы в Украину</t>
+  </si>
+  <si>
     <t>22.10.2023</t>
   </si>
   <si>
@@ -208,6 +676,48 @@
     <t>Торговий Агент в Україні: Ефективна Підтримка вашого ЗЕД Бізнесу</t>
   </si>
   <si>
+    <t>rolandus.org</t>
+  </si>
+  <si>
+    <t>https://www.rolandus.org/forum/viewtopic.php?t=66776</t>
+  </si>
+  <si>
+    <t>27/05/2024</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>repo.getmonero.org</t>
+  </si>
+  <si>
+    <t>https://tablo.com/genres/classics/discussions/8666</t>
+  </si>
+  <si>
+    <t>Консолидация грузов</t>
+  </si>
+  <si>
+    <t>forum.i.ua</t>
+  </si>
+  <si>
+    <t>https://forum.i.ua/topic/18964</t>
+  </si>
+  <si>
+    <t>delivery of goods from China to Ukraine</t>
+  </si>
+  <si>
+    <t>30/01/2024</t>
+  </si>
+  <si>
+    <t>chernihov.moy.su</t>
+  </si>
+  <si>
+    <t>https://chernihov.moy.su/forum/45-854-1</t>
+  </si>
+  <si>
+    <t>Delivery to Ukraine</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/uk/foreign_trade_consulting</t>
   </si>
   <si>
@@ -217,6 +727,27 @@
     <t>консалтинг ЗЕД, ЗЕД послуги, експортно-імпортні консультації, митне консультування, міжнародна торгівля, експортні процедури, імпортні правила, ЗЕД експерт, зовнішньоекономічна діяльність</t>
   </si>
   <si>
+    <t>list.ly</t>
+  </si>
+  <si>
+    <t>https://list.ly/logical-transhope</t>
+  </si>
+  <si>
+    <t>velodnepr.dp.ua</t>
+  </si>
+  <si>
+    <t>https://velodnepr.dp.ua/forum/viewtopic.php?f=18&amp;t=31448</t>
+  </si>
+  <si>
+    <t>hashnode.com</t>
+  </si>
+  <si>
+    <t>https://hashnode.com/@JenniferClark</t>
+  </si>
+  <si>
+    <t>Cargo delivery</t>
+  </si>
+  <si>
     <t>21.10.2023</t>
   </si>
   <si>
@@ -229,6 +760,30 @@
     <t>мультимодальна логістика, комбіновані перевезення, перевезення вантажів через різні види транспорту, глобальні мультимодальні рішення, оптимізація вантажоперевезень, мультимодальні перевезення в Європі, мультимодальні перевезення вантажів, мультимодальні перевезення всередині країни, мультимодальна доставка, мультимодальний транспорт</t>
   </si>
   <si>
+    <t>https://www.deviantart.com/aposta-cassino/journal/Carrier-company-995008257</t>
+  </si>
+  <si>
+    <t>https://www.deviantart.com/markovichcargo</t>
+  </si>
+  <si>
+    <t>snapped.mn.co</t>
+  </si>
+  <si>
+    <t>https://snapped.mn.co/members/22630413</t>
+  </si>
+  <si>
+    <t>Customs clearance Ukraine</t>
+  </si>
+  <si>
+    <t>fileua.forum.cool</t>
+  </si>
+  <si>
+    <t>https://fileua.forum.cool/viewtopic.php?id=5789</t>
+  </si>
+  <si>
+    <t>Контракт импорт товаров образец</t>
+  </si>
+  <si>
     <t>19.10.2023</t>
   </si>
   <si>
@@ -241,6 +796,21 @@
     <t>вартість вантажоперевезення авіатранспортом, тарифи на авіаперевезення, ціни на авіадоставку, витрати на авіаперевезення, вартість авіатранспортування, бюджет для авіаперевезення, економія на авіадоставці, вартість авіаперевезення вантажів</t>
   </si>
   <si>
+    <t>http://forum.anime.org.ua/bbs/showthread.php?t=33797</t>
+  </si>
+  <si>
+    <t>cost of transportation by sea</t>
+  </si>
+  <si>
+    <t>odessaflower.ukrbb.net</t>
+  </si>
+  <si>
+    <t>http://odessaflower.ukrbb.net/viewtopic.php?f=67&amp;t=23071&amp;p=139286</t>
+  </si>
+  <si>
+    <t>Регистрация Фирмы в Украине</t>
+  </si>
+  <si>
     <t>15.10.2023</t>
   </si>
   <si>
@@ -265,6 +835,51 @@
     <t>морське експедирування, портові послуги, експедирування вантажів у порту, портова логістика, обробка вантажів у порту, морські термінали, портова інфраструктура, вантажі в порту, морські перевезення</t>
   </si>
   <si>
+    <t>500px.com</t>
+  </si>
+  <si>
+    <t>https://500px.com/photo/1080967280/mul%D1%8Ctimodal%D1%8Cnyh-perevozki-by-tara-waite</t>
+  </si>
+  <si>
+    <t>evernote.com</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s339/sh/bbc2a091-53b7-fdab-a688-2a1ff2a4ef5b/OAGedar9W4CUcpzSCrfTMeENr9BIoBH72oWZO6Dopj2zNaMxSin4I8aZTw</t>
+  </si>
+  <si>
+    <t>disqus.com</t>
+  </si>
+  <si>
+    <t>https://disqus.com/home/discussion/itinua/c8c8ca3440a84fcb90059c31abae8ba6/newest/</t>
+  </si>
+  <si>
+    <t>kievisp.com</t>
+  </si>
+  <si>
+    <t>http://www.kievisp.com/forum/index.php?showtopic=105159</t>
+  </si>
+  <si>
+    <t>https://getrejoin.com/ua/question/morski-vantazhoperevezennya-1679457.html</t>
+  </si>
+  <si>
+    <t>shooter.org.ua</t>
+  </si>
+  <si>
+    <t>https://shooter.org.ua/viewtopic.php?f=2&amp;t=172711</t>
+  </si>
+  <si>
+    <t>Intermodal transportation</t>
+  </si>
+  <si>
+    <t>4yo.us</t>
+  </si>
+  <si>
+    <t>https://www.4yo.us/Martinez</t>
+  </si>
+  <si>
+    <t>Auto Transportation</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/uk/customs_brokerage_services_cost</t>
   </si>
   <si>
@@ -274,6 +889,33 @@
     <t>послуги митного брокера, вартість митного брокера, митний брокер Київ, митний брокер Одеса, митний брокер Львів, послуги митного оформлення, вартість митних послуг, митне оформлення вантажів, митні брокери Україна</t>
   </si>
   <si>
+    <t>us.enrollbusiness.com</t>
+  </si>
+  <si>
+    <t>https://us.enrollbusiness.com/BusinessProfile/6721969/UALogisticsCompany</t>
+  </si>
+  <si>
+    <t>arma.at.ua</t>
+  </si>
+  <si>
+    <t>https://arma.at.ua/forum/29-13056-1</t>
+  </si>
+  <si>
+    <t>https://odessaforum.biz.ua/viewtopic.php?f=7&amp;t=5352</t>
+  </si>
+  <si>
+    <t>25/04/2024</t>
+  </si>
+  <si>
+    <t>pubhtml5.com</t>
+  </si>
+  <si>
+    <t>https://pubhtml5.com/homepage/ikixi/</t>
+  </si>
+  <si>
+    <t>авиа доставка</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/uk/customs_broker</t>
   </si>
   <si>
@@ -283,6 +925,54 @@
     <t>митний брокер, послуги митного брокера, митне оформлення, митний брокер Київ, митний брокер Одеса, митний брокер Львів, митні послуги, міжнародна торгівля, імпорт та експорт, митне декларування, митні послуги, митні послуги</t>
   </si>
   <si>
+    <t>petsinform.com</t>
+  </si>
+  <si>
+    <t>http://www.petsinform.com/forum/viewtopic.php?f=31&amp;t=33761</t>
+  </si>
+  <si>
+    <t>forum.ginecologkiev.com.ua</t>
+  </si>
+  <si>
+    <t>https://forum.ginecologkiev.com.ua/viewtopic.php?f=49&amp;t=25236</t>
+  </si>
+  <si>
+    <t>mazdaclub.ua</t>
+  </si>
+  <si>
+    <t>http://www.mazdaclub.ua/forum/index.php?showtopic=121846</t>
+  </si>
+  <si>
+    <t>Cargo delivery from Europe to Ukraine</t>
+  </si>
+  <si>
+    <t>provenexpert.com</t>
+  </si>
+  <si>
+    <t>https://www.provenexpert.com/jameswilson/</t>
+  </si>
+  <si>
+    <t>растаможка грузов</t>
+  </si>
+  <si>
+    <t>aveo.com.ua</t>
+  </si>
+  <si>
+    <t>https://aveo.com.ua/smf/index.php?topic=183708.new</t>
+  </si>
+  <si>
+    <t>Политика Конфиденциальности при доставке грущов</t>
+  </si>
+  <si>
+    <t>deformation.pp.net.ua</t>
+  </si>
+  <si>
+    <t>http://deformation.pp.net.ua/forum/6-741-1</t>
+  </si>
+  <si>
+    <t>Сертификат происхождения EUR 1 образец</t>
+  </si>
+  <si>
     <t>12.10.2023</t>
   </si>
   <si>
@@ -295,6 +985,12 @@
     <t>FAQ запитання та відповіді, Інформація для клієнтів, Пояснення послуг, Типові запитання, Посібник для користувачів, Часті запити, Детальні відповіді, Допомога та поради, Клієнтська підтримка</t>
   </si>
   <si>
+    <t>domestika.org</t>
+  </si>
+  <si>
+    <t>https://www.domestika.org/en/logisticsua</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/uk/help</t>
   </si>
   <si>
@@ -310,6 +1006,12 @@
     <t>Cookies</t>
   </si>
   <si>
+    <t>prosvadby.com</t>
+  </si>
+  <si>
+    <t>http://www.prosvadby.com/forum/viewtopic.php?f=10&amp;t=980950</t>
+  </si>
+  <si>
     <t>05.10.2023</t>
   </si>
   <si>
@@ -322,6 +1024,24 @@
     <t>умови використання, умови обслуговування, політика використання, угода про користування, правила користування, угода про послуги, правила користування сайтом, користувацька угода, умови забезпечення безпеки, правила безпеки, умови доставки, угода про розмитнення, правила обробки даних</t>
   </si>
   <si>
+    <t>https://www.quora.com/profile/Jenny-Taylor-535/%D0%A0%D0%BE%D0%BB%D1%8C-%D1%82%D0%B0-%D0%B2%D1%96%D0%B4%D0%BF%D0%BE%D0%B2%D1%96%D0%B4%D0%B0%D0%BB%D1%8C%D0%BD%D1%96%D1%81%D1%82%D1%8C-%D0%BC%D0%B8%D1%82%D0%BD%D0%BE%D0%B3%D0%BE-%D0%B1%D1%80%D0%BE%D0%BA%D0%B5%D1%80%D0%B0-%D0%B2-%D1%81%D1%83%D1%87%D0%B0%D1%81%D0%BD%D1%96%D0%B9-%D0%BB%D0%BE%D0%B3%D1%96%D1%81%D1%82%D0%B8%D1%86%D1%96</t>
+  </si>
+  <si>
+    <t>https://aveo.com.ua/smf/index.php?topic=188947.0</t>
+  </si>
+  <si>
+    <t>Forms of taxation in Ukraine</t>
+  </si>
+  <si>
+    <t>forum.dneprcity.net</t>
+  </si>
+  <si>
+    <t>https://forum.dneprcity.net/showthread.php?t=332352</t>
+  </si>
+  <si>
+    <t>Консультації ЗЕД</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/uk/privacy_policy</t>
   </si>
   <si>
@@ -331,6 +1051,12 @@
     <t>Конфіденційність даних, захист особистих даних, обробка персональних даних, політика конфіденційності сайту, згода на обробку даних, правила конфіденційності, GDPR, захист конфіденційності, захист конфіденційності, інформаційна безпека, забезпечення конфіденційності, політика конфіденційності клієнтів</t>
   </si>
   <si>
+    <t>freeboard.com.ua</t>
+  </si>
+  <si>
+    <t>https://www.freeboard.com.ua/forum/viewtopic.php?id=103759</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/uk/about_us</t>
   </si>
   <si>
@@ -340,12 +1066,27 @@
     <t>Про нас</t>
   </si>
   <si>
+    <t>bittogether.com</t>
+  </si>
+  <si>
+    <t>https://bittogether.com/index.php?topic=16672.0</t>
+  </si>
+  <si>
+    <t>Customs broker Kiev</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/uk/customs_clearance</t>
   </si>
   <si>
     <t>Професійне Митне Оформлення Київ, Одеса, Львів. Швидко і Надійно</t>
   </si>
   <si>
+    <t>pandora.ukrbb.net</t>
+  </si>
+  <si>
+    <t>http://pandora.ukrbb.net/viewtopic.php?f=2&amp;t=5495&amp;p=11433</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/uk/container_delivery</t>
   </si>
   <si>
@@ -355,6 +1096,39 @@
     <t>морські контейнерні перевезення, морські перевезення, морська логістика, контейнерні перевезення, вантажоперевезення морем, міжнародні морські перевезення, контейнерні морські перевезення, морський транспорт, вантажоперевезення контейнерами, морська експедиція, морські лінії, морські перевезення товарів, морська доставка, морські вантажні перевезення, контейнерна логістика, морське транспортування, морські вантажні послуги</t>
   </si>
   <si>
+    <t>flickr.com</t>
+  </si>
+  <si>
+    <t>https://www.flickr.com/photos/127037282@N06/15234815915/in/dateposted/</t>
+  </si>
+  <si>
+    <t>ukrom.in.ua</t>
+  </si>
+  <si>
+    <t>https://ukrom.in.ua/blogs/103146-morsk-konteinern-perevezennja-nad-inii-shljah-do-globalnogo-rinku.html</t>
+  </si>
+  <si>
+    <t>forum.santechnik.org.ua</t>
+  </si>
+  <si>
+    <t>http://forum.santechnik.org.ua/viewtopic.php?f=14&amp;t=3353</t>
+  </si>
+  <si>
+    <t>gitlab.com</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/growth-hormone-supplement/moving-company/-/issues/1</t>
+  </si>
+  <si>
+    <t>https://www.flickr.com/photos/142297319@N06/45781011651/</t>
+  </si>
+  <si>
+    <t>https://forum.dneprcity.net/showthread.php?t=307091&amp;highlight=%EB%EE%E3%E8%F1%F2%E8%EA%E0</t>
+  </si>
+  <si>
+    <t>Услуги от компании Транс-Хоуп</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/uk/truck_delivery</t>
   </si>
   <si>
@@ -364,6 +1138,42 @@
     <t>Автомобільні вантажоперевезення, Вантажні перевезення дорогою, Логістика автоперевезень, Вантажівки для перевезення вантажів, Автотранспортні послуги, Доставка вантажів автомобілем, Автодоставка вантажів, Транспортування товарів автотранспортом, Доставка вантажів країною, Дорожні перевезення, Автомобільні логістичні послуги, Перевезення товарів дорогою, Вантажоперевезення автомобілем, Автофургони для перевезення вантажів, Професійні авто перевезення, Професійні авто перевезення, Автофургони для перевезення вантажів</t>
   </si>
   <si>
+    <t>https://wakelet.com/wake/PdTdBFSGtyhBpkGrF_LgT</t>
+  </si>
+  <si>
+    <t>https://www.rolandus.org/forum/viewtopic.php?t=65815</t>
+  </si>
+  <si>
+    <t>Документы для импорта товаров</t>
+  </si>
+  <si>
+    <t>forum.javabox.net</t>
+  </si>
+  <si>
+    <t>https://forum.javabox.net/viewtopic.php?f=8&amp;t=417015</t>
+  </si>
+  <si>
+    <t>http://www.prosvadby.com/forum/viewtopic.php?f=10&amp;t=981247</t>
+  </si>
+  <si>
+    <t>boryslav.do.am</t>
+  </si>
+  <si>
+    <t>https://boryslav.do.am/forum/33-17904-1</t>
+  </si>
+  <si>
+    <t>10/02/2024</t>
+  </si>
+  <si>
+    <t>shimko.rolka.me</t>
+  </si>
+  <si>
+    <t>https://shimko.rolka.me/viewtopic.php?id=556</t>
+  </si>
+  <si>
+    <t>брокерські послуги Київ</t>
+  </si>
+  <si>
     <t>04.09.2023</t>
   </si>
   <si>
@@ -376,6 +1186,54 @@
     <t>Авіаперевезення, Вантажні авіаперевезення, Міжнародні авіаперевезення, Перевезення вантажів повітрям, Логістика авіаперевезень, Експрес-доставка авіа, Авіафрахт, Авіаперевезення вантажів, Авіалогістика, Авіаперевезення вантажів, Авіаперевезення з Китаю, Авіаперевезення до Європи, Авіаперевезення вантажів з Китаю, Авіаперевезення до Європи, Авіаперевезення небезпечних вантажів, Авіаперевезення небезпечних вантажів, Вантажна авіадоставка</t>
   </si>
   <si>
+    <t>pbase.com</t>
+  </si>
+  <si>
+    <t>https://pbase.com/charleneadkins/image/174990515</t>
+  </si>
+  <si>
+    <t>realtycomfort.kiev.ua</t>
+  </si>
+  <si>
+    <t>https://www.realtycomfort.kiev.ua/forum/discussion/161092/shvidk%D1%96sn%D1%96-perevezennya-vantazh%D1%96v</t>
+  </si>
+  <si>
+    <t>Стоимость авиаперевозки</t>
+  </si>
+  <si>
+    <t>kvitka.ukrbb.net</t>
+  </si>
+  <si>
+    <t>http://kvitka.ukrbb.net/viewtopic.php?f=58&amp;t=23059</t>
+  </si>
+  <si>
+    <t>ukraineforum.com.ua</t>
+  </si>
+  <si>
+    <t>https://ukraineforum.com.ua/index.php?threads/%D0%90%D0%B2%D1%96%D0%B0%D0%BF%D0%B5%D1%80%D0%B5%D0%B2%D0%B5%D0%B7%D0%B5%D0%BD%D0%BD%D1%8F-%D0%B2%D0%B0%D0%BD%D1%82%D0%B0%D0%B6%D1%96%D0%B2.23202/</t>
+  </si>
+  <si>
+    <t>Послуга імпортера</t>
+  </si>
+  <si>
+    <t>biz.rusff.me</t>
+  </si>
+  <si>
+    <t>https://biz.rusff.me/viewtopic.php?id=13185</t>
+  </si>
+  <si>
+    <t>Cargo delivery in Ukraine</t>
+  </si>
+  <si>
+    <t>gov.ukrbb.net</t>
+  </si>
+  <si>
+    <t>http://gov.ukrbb.net/viewtopic.php?f=3&amp;t=4091</t>
+  </si>
+  <si>
+    <t>Авто перевозки из Европы</t>
+  </si>
+  <si>
     <t>Page Seo</t>
   </si>
   <si>
@@ -451,6 +1309,15 @@
     <t>митна декларація, митні формальності, імпорт, експорт, митний контроль, митне оформлення, митні процедури, документи, митні правила</t>
   </si>
   <si>
+    <t>https://ferdinand.com.ua/forum/topics/mitna-deklaracija.14563/</t>
+  </si>
+  <si>
+    <t>bisound.com</t>
+  </si>
+  <si>
+    <t>http://www.bisound.com/forum/showthread.php?t=362280</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/uk/info/customs_control</t>
   </si>
   <si>
@@ -460,6 +1327,15 @@
     <t>митні формальності, митна перевірка, імпортний контроль, експортний контроль, митні процедури, митні правила, митне законодавство, митний режим, митне законодавство, регулювання митної діяльності</t>
   </si>
   <si>
+    <t>seaman.com.ua</t>
+  </si>
+  <si>
+    <t>https://www.seaman.com.ua/forum/index.php?threads/vse-pro-mitnij-kontrol.59254/</t>
+  </si>
+  <si>
+    <t>Container freight cost</t>
+  </si>
+  <si>
     <t>13.03.2024</t>
   </si>
   <si>
@@ -472,6 +1348,12 @@
     <t>ліцензія, митний брокер, отримання, умови, регулювання, законодавство, митні процедури, бізнес, експорт, імпорт, ліцензія, митний брокер</t>
   </si>
   <si>
+    <t>whodoyou.com</t>
+  </si>
+  <si>
+    <t>https://www.whodoyou.com/biz/1902714/licensesbrokerage-ny-us</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/uk/info/customs_regimes_in_ukraine</t>
   </si>
   <si>
@@ -481,6 +1363,12 @@
     <t>митні режими, Україна, митне оформлення, тимчасове ввезення, експорт, імпорт, митне законодавство, митні процедури, митні правила</t>
   </si>
   <si>
+    <t>journals.hnpu.edu.ua</t>
+  </si>
+  <si>
+    <t>http://journals.hnpu.edu.ua/index.php/literature/comment/view/4159/294/16412</t>
+  </si>
+  <si>
     <t>21.12.2023</t>
   </si>
   <si>
@@ -502,6 +1390,33 @@
     <t>сертифікат походження, EUR.1, міжнародні торговельні угоди, преференційне походження, мито, торговельні пільги, експортні документи, митні процедури, торгівля міжнародними партнерами, митне оформлення, митні процедури, сертифікат походження, EUR.1</t>
   </si>
   <si>
+    <t>yellow.place</t>
+  </si>
+  <si>
+    <t>https://yellow.place/en/%D1%81%D0%B5%D1%80%D1%82%D0%B8%D1%84%D1%96%D0%BA%D0%B0%D1%82-%D0%BF%D0%BE%D1%85%D0%BE%D0%B4%D0%B6%D0%B5%D0%BD%D0%BD%D1%8F-eur-1-kiev%C3%AB-kosovo</t>
+  </si>
+  <si>
+    <t>kharkov-balka.com</t>
+  </si>
+  <si>
+    <t>https://kharkov-balka.com/showthread.php?t=107821</t>
+  </si>
+  <si>
+    <t>https://snapped.mn.co/posts/sertif%D1%96kat-pohodzhennya-eur1-kluchovii-%D1%96nstrument-u-sv%D1%96t%D1%96-m%D1%96zhnarodnoyi-torg%D1%96vl%D1%96</t>
+  </si>
+  <si>
+    <t>авто доставка грузов</t>
+  </si>
+  <si>
+    <t>forum.sportmashina.com</t>
+  </si>
+  <si>
+    <t>https://forum.sportmashina.com/index.php?threads/maksimalnoe-udovletvorenie-s-trans-hope-otzyv-o-professionalnom-obespechenii-sertifikata-poxodzhenn.5057/</t>
+  </si>
+  <si>
+    <t>Консультации ВЭД</t>
+  </si>
+  <si>
     <t>16.12.2023</t>
   </si>
   <si>
@@ -514,6 +1429,27 @@
     <t>сертифікат, походження товарів, міжнародна торгівля, документація, експорт, визнання, тарифні преференції, торговельні угоди, експортер, митниця</t>
   </si>
   <si>
+    <t>semenivka.com.ua</t>
+  </si>
+  <si>
+    <t>https://semenivka.com.ua/%D1%84%D0%BE%D1%80%D1%83%D0%BC/%D1%80%D1%96%D0%B7%D0%BD%D0%B5/44513-%D1%81%D0%B5%D1%80%D1%82%D0%B8%D1%84%D1%96%D0%BA%D0%B0%D1%82-%D0%BF%D0%BE%D1%85%D0%BE%D0%B4%D0%B6%D0%B5%D0%BD%D0%BD%D1%8F-%D1%82%D0%BE%D0%B2%D0%B0%D1%80%D1%83</t>
+  </si>
+  <si>
+    <t>Авиа перевозки грузов</t>
+  </si>
+  <si>
+    <t>https://forum.javabox.net/viewtopic.php?f=8&amp;t=390483</t>
+  </si>
+  <si>
+    <t>таможенные брокеры Киева</t>
+  </si>
+  <si>
+    <t>https://forum.sportmashina.com/index.php?threads/maksimalnoe-udovletvorenie-s-trans-hope-otzyv-o-professionalizme-v-oblasti-sertifikatu-poxodzhennja.5056/</t>
+  </si>
+  <si>
+    <t>Доставка грузов из Европы</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/uk/info/example_of_foreign_economic_contract</t>
   </si>
   <si>
@@ -523,6 +1459,30 @@
     <t>міжнародні договори, торговельні контракти, експортно-імпортні угоди, світова торгівля, міжнародна комерція</t>
   </si>
   <si>
+    <t>offcourse.co</t>
+  </si>
+  <si>
+    <t>https://offcourse.co/users/profile/ethanfoster</t>
+  </si>
+  <si>
+    <t>Митний брокер Київ</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>https://sketchfab.com/thlogistics</t>
+  </si>
+  <si>
+    <t>підтвердження митної вартості</t>
+  </si>
+  <si>
+    <t>https://www.seaman.com.ua/forum/index.php?threads/optimizujte-svij-zovnishnij-biznes-z-trans-xoup-mitni-poslugi.31981/</t>
+  </si>
+  <si>
+    <t>Морские контейнерные перевозки</t>
+  </si>
+  <si>
     <t>15.12.2023</t>
   </si>
   <si>
@@ -535,6 +1495,39 @@
     <t>формальності ціноутворення на кордоні, митні сертифікати вартості товарів, документи для міжнародного митного оформлення, затвердження вартості під час ввезення, митні процедури і вартість, інвойс і пакувальні листи для митниці, сертифікати походження для митниці</t>
   </si>
   <si>
+    <t>https://www.4yo.us/blogs/107720/%D0%9E-%D0%BF%D1%96%D0%B4%D1%82%D0%B2%D0%B5%D1%80%D0%B4%D0%B6%D0%B5%D0%BD%D0%BD%D1%96-%D0%BC%D0%B8%D1%82%D0%BD%D0%BE%D1%97-%D0%B2%D0%B0%D1%80%D1%82%D0%BE%D1%81%D1%82%D1%96-%D0%9A%D0%BB%D1%8E%D1%87%D0%BE%D0%B2%D0%B8%D0%B9-%D0%B0%D1%81%D0%BF%D0%B5%D0%BA%D1%82-%D0%BC%D1%96%D0%B6%D0%BD%D0%B0%D1%80%D0%BE%D0%B4%D0%BD%D0%BE%D1%97-%D1%82%D0%BE%D1%80%D0%B3%D1%96%D0%B2%D0%BB%D1%96</t>
+  </si>
+  <si>
+    <t>How get legal address in Ukraine</t>
+  </si>
+  <si>
+    <t>redpah.com</t>
+  </si>
+  <si>
+    <t>https://redpah.com/profile/381950/ryanmartinez</t>
+  </si>
+  <si>
+    <t>Консолідація вантажів</t>
+  </si>
+  <si>
+    <t>peatix.com</t>
+  </si>
+  <si>
+    <t>https://peatix.com/user/20786641/view</t>
+  </si>
+  <si>
+    <t>контейнерные перевозки</t>
+  </si>
+  <si>
+    <t>poboltaem.foroactivo.com</t>
+  </si>
+  <si>
+    <t>https://poboltaem.foroactivo.com/t3135-topic#8153</t>
+  </si>
+  <si>
+    <t>Пакет документов при импорте товаров</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/uk/info/customs_clearance_package_export</t>
   </si>
   <si>
@@ -544,6 +1537,15 @@
     <t>експортна документація, формалізація експорту, документи для ввезення та вивезення, митна документація, експортні процедури, експортні форми, міжнародна торговельна документація, папери для глобальної торгівлі, експортні ліцензії, транспортні документи для експорту, документи для міжнародних перевезень, зовнішньоторговельна документація, митні форми для експорту.</t>
   </si>
   <si>
+    <t>https://www.evernote.com/shard/s463/client/snv?isnewsnv=true&amp;noteGuid=73482212-b82b-bcab-a32d-c36f787bc837&amp;noteKey=WTrOv0f7Np9yepmPeVoHmfFZuBiOTy3BcEV4cfwPbSNzjtB_Jv8uEY6jLA&amp;sn=https%3A%2F%2Fwww.evernote.com%2Fshard%2Fs463%2Fsh%2F73482212-b82b-bcab-a32d-c36f787bc837%2FWTrOv0f7Np9yepmPeVoHmfFZuBiOTy3BcEV4cfwPbSNzjtB_Jv8uEY6jLA&amp;title=%25D0%2594%25D0%25BE%25D0%25BA%25D1%2583%25D0%25BC%25D0%25B5%25D0%25BD%25D1%2582%25D0%25B8%2B%25D0%25B4%25D0%25BB%25D1%258F%2B%25D0%2595%25D0%25BA%25D1%2581%25D0%25BF%25D0%25BE%25D1%2580%25D1%2582%25D1%2583%2B%25D0%25A2%25D0%25BE%25D0%25B2%25D0%25B0%25D1%2580%25D1%2596%25D0%25B2</t>
+  </si>
+  <si>
+    <t>http://www.bisound.com/forum/showthread.php?p=647699</t>
+  </si>
+  <si>
+    <t>подбор таможенного кода</t>
+  </si>
+  <si>
     <t>https://t-h-logistics.com/uk/info/customs_clearance_package_import</t>
   </si>
   <si>
@@ -553,6 +1555,30 @@
     <t>імпортна документація, документи для ввезення товарів, митна документація, імпортні процедури, імпортні форми, міжнародна торговельна документація, імпортні ліцензії, транспортні документи для імпорту, документи для міжнародних перевезень, зовнішньоторговельна документація</t>
   </si>
   <si>
+    <t>mixcloud.com</t>
+  </si>
+  <si>
+    <t>https://www.mixcloud.com/thlogistics/%D0%B4%D0%BE%D0%BA%D1%83%D0%BC%D0%B5%D0%BD%D1%82%D0%B8-%D0%B4%D0%BB%D1%8F-%D1%96%D0%BC%D0%BF%D0%BE%D1%80%D1%82%D1%83-%D1%82%D0%BE%D0%B2%D0%B0%D1%80%D1%96%D0%B2/</t>
+  </si>
+  <si>
+    <t>Авто перевезення</t>
+  </si>
+  <si>
+    <t>vevioz.com</t>
+  </si>
+  <si>
+    <t>https://www.vevioz.com/read-blog/102382</t>
+  </si>
+  <si>
+    <t>услуга таможенного брокера</t>
+  </si>
+  <si>
+    <t>http://odessaflower.ukrbb.net/viewtopic.php?f=43&amp;t=27327</t>
+  </si>
+  <si>
+    <t>способы доставки контейнеров</t>
+  </si>
+  <si>
     <t>14.12.2023</t>
   </si>
   <si>
@@ -565,6 +1591,21 @@
     <t>Митниця корисне</t>
   </si>
   <si>
+    <t>globalcatalog.com</t>
+  </si>
+  <si>
+    <t>https://globalcatalog.com/logisticsuaservices.ua</t>
+  </si>
+  <si>
+    <t>odessamama.net</t>
+  </si>
+  <si>
+    <t>https://odessamama.net/forum.php?mod=viewthread&amp;tid=288848</t>
+  </si>
+  <si>
+    <t>air delivery to Kiev</t>
+  </si>
+  <si>
     <t>Blog</t>
   </si>
   <si>
@@ -622,6 +1663,18 @@
     <t>способи доставки контейнерів, види транспортування контейнерів, логістика контейнерних перевезень, методи перевезення контейнерів, транспортування вантажів у контейнерах, контейнерні перевезення, варіанти транспортування контейнерів, ефективні способи доставки контейнерів</t>
   </si>
   <si>
+    <t>about.me</t>
+  </si>
+  <si>
+    <t>https://about.me/logistics.company</t>
+  </si>
+  <si>
+    <t>forum.fxeuroclub.com</t>
+  </si>
+  <si>
+    <t>http://forum.fxeuroclub.com/viewtopic.php?p=274387&amp;amp;sid=3c0c94cb66fb19ea0fb2296eabfd4999</t>
+  </si>
+  <si>
     <t>03.06.2024</t>
   </si>
   <si>
@@ -646,6 +1699,18 @@
     <t>запит постачальнику, лист продавцю, китайські постачальники, закупівля в Китаї</t>
   </si>
   <si>
+    <t>askmap.net</t>
+  </si>
+  <si>
+    <t>http://www.askmap.net/location/6939711/ua/logistics-services</t>
+  </si>
+  <si>
+    <t>kievgid.org</t>
+  </si>
+  <si>
+    <t>https://kievgid.org/kievskiy-forum/%d0%bf%d0%b5%d1%81%d0%be%d1%87%d0%bd%d0%b8%d1%86%d0%b0-group1/%d0%b4%d0%bb%d1%8f-%d0%bd%d0%be%d0%b2%d0%b8%d1%87%d0%ba%d0%be%d0%b2-forum1/%d0%b7%d0%b0%d0%bf%d0%b8%d1%82-%d0%ba%d0%b8%d1%82%d0%b0%d0%b9%d1%81%d1%8c%d0%ba%d0%be%d0%bc%d1%83-%d0%bf%d0%be%d1%81%d1%82%d0%b0%d1%87%d0%b0%d0%bb%d1%8c%d0%bd%d0%b8%d0%ba%d1%83-thread14310.0/</t>
+  </si>
+  <si>
     <t>15.05.2024</t>
   </si>
   <si>
@@ -658,6 +1723,18 @@
     <t>пошук постачальників, alibaba.com, постачання товарів з Китаю, товари</t>
   </si>
   <si>
+    <t>brownbook.net</t>
+  </si>
+  <si>
+    <t>https://www.brownbook.net/business/52788994/logistic-services-in-ua/</t>
+  </si>
+  <si>
+    <t>vladmines.dn.ua</t>
+  </si>
+  <si>
+    <t>https://www.vladmines.dn.ua/forum/index.php/topic,39344.0.html</t>
+  </si>
+  <si>
     <t>News</t>
   </si>
   <si>
@@ -737,30 +1814,6 @@
   </si>
   <si>
     <t>Одеса, порти, експорт, агропродукція, зерно, Україна, продовольство</t>
-  </si>
-  <si>
-    <t>18/05/2023</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>superblogs.com.ua</t>
-  </si>
-  <si>
-    <t>https:/superblogs.com.ua/post2.html</t>
-  </si>
-  <si>
-    <t>таможенне оформления 3</t>
-  </si>
-  <si>
-    <t>15/03/2023</t>
-  </si>
-  <si>
-    <t>https:/superblogs.com.ua/post3.html</t>
-  </si>
-  <si>
-    <t>таможенне оформления 4</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +2190,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K188"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="11" width="20" customWidth="1"/>
@@ -1220,1146 +2273,1152 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
         <v>41</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
         <v>43</v>
       </c>
-      <c r="D12" t="s">
+      <c r="I12" t="s">
         <v>44</v>
       </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
+      <c r="I13" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="J14" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I15" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="J15" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K15" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" t="s">
         <v>52</v>
       </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" t="s">
-        <v>12</v>
-      </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I18" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="J18" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I19" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="J19" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I20" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="J20" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K20" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I21" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="J21" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K21" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I22" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="J22" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I23" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="J23" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I24" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="J24" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K24" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I25" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="J25" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="K25" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="K26" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="J28" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="K28" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I29" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H30" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I30" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="J30" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H31" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I31" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="J31" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="K31" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I32" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="J32" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="K32" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>98</v>
+      </c>
+      <c r="I33" t="s">
         <v>99</v>
       </c>
-      <c r="B33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" t="s">
-        <v>113</v>
-      </c>
-      <c r="E33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" t="s">
-        <v>12</v>
-      </c>
       <c r="J33" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="K33" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I34" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="J34" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="K34" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H35" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I35" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="J35" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="K35" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2376,30 +3435,30 @@
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I36" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="J36" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="K36" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
@@ -2411,200 +3470,200 @@
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H37" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I37" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="J37" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="K37" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H38" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I38" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="J38" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="K38" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H39" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I39" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="J39" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="K39" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H40" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I40" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="J40" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="K40" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="J41" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="K41" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H42" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="I42" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="J42" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="K42" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2621,30 +3680,30 @@
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H43" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I43" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="J43" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="K43" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
@@ -2656,319 +3715,313 @@
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H44" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I44" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="J44" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="K44" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H45" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I45" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="J45" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="K45" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>134</v>
+      </c>
+      <c r="F46" t="s">
+        <v>54</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>138</v>
+      </c>
+      <c r="I46" t="s">
         <v>139</v>
       </c>
-      <c r="B46" t="s">
-        <v>143</v>
-      </c>
-      <c r="C46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D46" t="s">
-        <v>145</v>
-      </c>
-      <c r="E46" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" t="s">
-        <v>12</v>
-      </c>
       <c r="J46" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="K46" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H47" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I47" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="J47" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="K47" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H48" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I48" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="J48" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="K48" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>148</v>
+      </c>
+      <c r="F49" t="s">
+        <v>54</v>
+      </c>
+      <c r="G49" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" t="s">
+        <v>60</v>
+      </c>
+      <c r="I49" t="s">
         <v>149</v>
       </c>
-      <c r="B49" t="s">
-        <v>153</v>
-      </c>
-      <c r="C49" t="s">
-        <v>154</v>
-      </c>
-      <c r="D49" t="s">
-        <v>155</v>
-      </c>
-      <c r="E49" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" t="s">
-        <v>12</v>
-      </c>
       <c r="J49" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="K49" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H50" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I50" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="J50" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="K50" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" t="s">
+        <v>54</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
+        <v>154</v>
+      </c>
+      <c r="I51" t="s">
+        <v>155</v>
+      </c>
+      <c r="J51" t="s">
         <v>156</v>
       </c>
-      <c r="B51" t="s">
-        <v>160</v>
-      </c>
-      <c r="C51" t="s">
-        <v>161</v>
-      </c>
-      <c r="D51" t="s">
-        <v>162</v>
-      </c>
-      <c r="E51" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" t="s">
-        <v>12</v>
-      </c>
       <c r="K51" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H52" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I52" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="J52" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="K52" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B53" t="s">
-        <v>167</v>
-      </c>
-      <c r="C53" t="s">
-        <v>168</v>
-      </c>
-      <c r="D53" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
@@ -2994,16 +4047,16 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B54" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C54" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D54" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E54" t="s">
         <v>12</v>
@@ -3029,16 +4082,16 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>167</v>
+      </c>
+      <c r="B55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" t="s">
         <v>170</v>
-      </c>
-      <c r="B55" t="s">
-        <v>174</v>
-      </c>
-      <c r="C55" t="s">
-        <v>175</v>
-      </c>
-      <c r="D55" t="s">
-        <v>176</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
@@ -3064,16 +4117,16 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B56" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C56" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D56" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E56" t="s">
         <v>12</v>
@@ -3099,16 +4152,16 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B57" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C57" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D57" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E57" t="s">
         <v>12</v>
@@ -3134,16 +4187,16 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
@@ -3169,16 +4222,16 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
@@ -3204,16 +4257,16 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="B60" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" t="s">
         <v>185</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>186</v>
-      </c>
-      <c r="D60" t="s">
-        <v>187</v>
       </c>
       <c r="E60" t="s">
         <v>12</v>
@@ -3239,16 +4292,16 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" t="s">
+        <v>187</v>
+      </c>
+      <c r="C61" t="s">
         <v>188</v>
       </c>
-      <c r="B61" t="s">
+      <c r="D61" t="s">
         <v>189</v>
-      </c>
-      <c r="C61" t="s">
-        <v>190</v>
-      </c>
-      <c r="D61" t="s">
-        <v>191</v>
       </c>
       <c r="E61" t="s">
         <v>12</v>
@@ -3274,16 +4327,16 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B62" t="s">
+        <v>190</v>
+      </c>
+      <c r="C62" t="s">
+        <v>191</v>
+      </c>
+      <c r="D62" t="s">
         <v>192</v>
-      </c>
-      <c r="C62" t="s">
-        <v>193</v>
-      </c>
-      <c r="D62" t="s">
-        <v>194</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
@@ -3309,16 +4362,16 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>193</v>
+      </c>
+      <c r="B63" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" t="s">
         <v>195</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63" t="s">
         <v>196</v>
-      </c>
-      <c r="C63" t="s">
-        <v>197</v>
-      </c>
-      <c r="D63" t="s">
-        <v>198</v>
       </c>
       <c r="E63" t="s">
         <v>12</v>
@@ -3344,16 +4397,16 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>193</v>
+      </c>
+      <c r="B64" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" t="s">
+        <v>198</v>
+      </c>
+      <c r="D64" t="s">
         <v>199</v>
-      </c>
-      <c r="B64" t="s">
-        <v>200</v>
-      </c>
-      <c r="C64" t="s">
-        <v>201</v>
-      </c>
-      <c r="D64" t="s">
-        <v>202</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
@@ -3379,16 +4432,16 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65" t="s">
         <v>203</v>
-      </c>
-      <c r="B65" t="s">
-        <v>204</v>
-      </c>
-      <c r="C65" t="s">
-        <v>205</v>
-      </c>
-      <c r="D65" t="s">
-        <v>206</v>
       </c>
       <c r="E65" t="s">
         <v>12</v>
@@ -3414,16 +4467,16 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B66" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C66" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D66" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
@@ -3449,37 +4502,37 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>200</v>
+      </c>
+      <c r="B67" t="s">
+        <v>207</v>
+      </c>
+      <c r="C67" t="s">
+        <v>208</v>
+      </c>
+      <c r="D67" t="s">
+        <v>209</v>
+      </c>
+      <c r="E67" t="s">
+        <v>72</v>
+      </c>
+      <c r="F67" t="s">
+        <v>54</v>
+      </c>
+      <c r="G67" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" t="s">
+        <v>210</v>
+      </c>
+      <c r="I67" t="s">
         <v>211</v>
       </c>
-      <c r="B67" t="s">
+      <c r="J67" t="s">
         <v>212</v>
       </c>
-      <c r="C67" t="s">
-        <v>213</v>
-      </c>
-      <c r="D67" t="s">
-        <v>214</v>
-      </c>
-      <c r="E67" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" t="s">
-        <v>12</v>
-      </c>
-      <c r="I67" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" t="s">
-        <v>12</v>
-      </c>
       <c r="K67" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3496,340 +4549,340 @@
         <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H68" t="s">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="I68" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="J68" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="K68" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" t="s">
+        <v>85</v>
+      </c>
+      <c r="F69" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" t="s">
         <v>215</v>
       </c>
-      <c r="B69" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" t="s">
-        <v>12</v>
-      </c>
       <c r="I69" t="s">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="J69" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="K69" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B70" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C70" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D70" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G70" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H70" t="s">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="I70" t="s">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="J70" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K70" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="G71" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H71" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="I71" t="s">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="J71" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="K71" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="E72" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G72" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H72" t="s">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="I72" t="s">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="J72" t="s">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="K72" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G73" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H73" t="s">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="I73" t="s">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="J73" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="K73" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B74" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C74" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D74" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G74" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H74" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="I74" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="J74" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K74" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G75" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H75" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="I75" t="s">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="J75" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K75" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G76" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H76" t="s">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="I76" t="s">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="J76" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="K76" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="B77" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C77" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D77" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E77" t="s">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="F77" t="s">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="G77" t="s">
-        <v>243</v>
+        <v>18</v>
       </c>
       <c r="H77" t="s">
-        <v>244</v>
+        <v>19</v>
       </c>
       <c r="I77" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="J77" t="s">
-        <v>246</v>
-      </c>
-      <c r="K77">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="K77" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -3846,25 +4899,25 @@
         <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>247</v>
+        <v>16</v>
       </c>
       <c r="F78" t="s">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="G78" t="s">
-        <v>243</v>
+        <v>18</v>
       </c>
       <c r="H78" t="s">
-        <v>244</v>
+        <v>19</v>
       </c>
       <c r="I78" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J78" t="s">
-        <v>249</v>
-      </c>
-      <c r="K78">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="K78" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -3881,24 +4934,3839 @@
         <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H79" t="s">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="I79" t="s">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="J79" t="s">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="K79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s">
+        <v>130</v>
+      </c>
+      <c r="F80" t="s">
+        <v>54</v>
+      </c>
+      <c r="G80" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" t="s">
+        <v>254</v>
+      </c>
+      <c r="I80" t="s">
+        <v>255</v>
+      </c>
+      <c r="J80" t="s">
+        <v>256</v>
+      </c>
+      <c r="K80" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>257</v>
+      </c>
+      <c r="B81" t="s">
+        <v>258</v>
+      </c>
+      <c r="C81" t="s">
+        <v>259</v>
+      </c>
+      <c r="D81" t="s">
+        <v>260</v>
+      </c>
+      <c r="E81" t="s">
+        <v>53</v>
+      </c>
+      <c r="F81" t="s">
+        <v>54</v>
+      </c>
+      <c r="G81" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" t="s">
+        <v>66</v>
+      </c>
+      <c r="I81" t="s">
+        <v>261</v>
+      </c>
+      <c r="J81" t="s">
+        <v>262</v>
+      </c>
+      <c r="K81" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" t="s">
+        <v>148</v>
+      </c>
+      <c r="F82" t="s">
+        <v>54</v>
+      </c>
+      <c r="G82" t="s">
+        <v>36</v>
+      </c>
+      <c r="H82" t="s">
+        <v>263</v>
+      </c>
+      <c r="I82" t="s">
+        <v>264</v>
+      </c>
+      <c r="J82" t="s">
+        <v>265</v>
+      </c>
+      <c r="K82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>266</v>
+      </c>
+      <c r="B83" t="s">
+        <v>267</v>
+      </c>
+      <c r="C83" t="s">
+        <v>268</v>
+      </c>
+      <c r="D83" t="s">
+        <v>269</v>
+      </c>
+      <c r="E83" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" t="s">
+        <v>12</v>
+      </c>
+      <c r="J83" t="s">
+        <v>12</v>
+      </c>
+      <c r="K83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>270</v>
+      </c>
+      <c r="B84" t="s">
+        <v>271</v>
+      </c>
+      <c r="C84" t="s">
+        <v>272</v>
+      </c>
+      <c r="D84" t="s">
+        <v>273</v>
+      </c>
+      <c r="E84" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
+        <v>36</v>
+      </c>
+      <c r="H84" t="s">
+        <v>274</v>
+      </c>
+      <c r="I84" t="s">
+        <v>275</v>
+      </c>
+      <c r="J84" t="s">
+        <v>21</v>
+      </c>
+      <c r="K84" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>36</v>
+      </c>
+      <c r="H85" t="s">
+        <v>276</v>
+      </c>
+      <c r="I85" t="s">
+        <v>277</v>
+      </c>
+      <c r="J85" t="s">
+        <v>21</v>
+      </c>
+      <c r="K85" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" t="s">
+        <v>17</v>
+      </c>
+      <c r="G86" t="s">
+        <v>27</v>
+      </c>
+      <c r="H86" t="s">
+        <v>278</v>
+      </c>
+      <c r="I86" t="s">
+        <v>279</v>
+      </c>
+      <c r="J86" t="s">
+        <v>21</v>
+      </c>
+      <c r="K86" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" t="s">
+        <v>53</v>
+      </c>
+      <c r="F87" t="s">
+        <v>54</v>
+      </c>
+      <c r="G87" t="s">
+        <v>27</v>
+      </c>
+      <c r="H87" t="s">
+        <v>280</v>
+      </c>
+      <c r="I87" t="s">
+        <v>281</v>
+      </c>
+      <c r="J87" t="s">
+        <v>21</v>
+      </c>
+      <c r="K87" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" t="s">
+        <v>53</v>
+      </c>
+      <c r="F88" t="s">
+        <v>54</v>
+      </c>
+      <c r="G88" t="s">
+        <v>36</v>
+      </c>
+      <c r="H88" t="s">
+        <v>58</v>
+      </c>
+      <c r="I88" t="s">
+        <v>282</v>
+      </c>
+      <c r="J88" t="s">
+        <v>21</v>
+      </c>
+      <c r="K88" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" t="s">
+        <v>72</v>
+      </c>
+      <c r="F89" t="s">
+        <v>54</v>
+      </c>
+      <c r="G89" t="s">
+        <v>27</v>
+      </c>
+      <c r="H89" t="s">
+        <v>283</v>
+      </c>
+      <c r="I89" t="s">
+        <v>284</v>
+      </c>
+      <c r="J89" t="s">
+        <v>285</v>
+      </c>
+      <c r="K89" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" t="s">
+        <v>85</v>
+      </c>
+      <c r="F90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G90" t="s">
+        <v>36</v>
+      </c>
+      <c r="H90" t="s">
+        <v>286</v>
+      </c>
+      <c r="I90" t="s">
+        <v>287</v>
+      </c>
+      <c r="J90" t="s">
+        <v>288</v>
+      </c>
+      <c r="K90" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>270</v>
+      </c>
+      <c r="B91" t="s">
+        <v>289</v>
+      </c>
+      <c r="C91" t="s">
+        <v>290</v>
+      </c>
+      <c r="D91" t="s">
+        <v>291</v>
+      </c>
+      <c r="E91" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" t="s">
+        <v>26</v>
+      </c>
+      <c r="G91" t="s">
+        <v>27</v>
+      </c>
+      <c r="H91" t="s">
+        <v>292</v>
+      </c>
+      <c r="I91" t="s">
+        <v>293</v>
+      </c>
+      <c r="J91" t="s">
+        <v>21</v>
+      </c>
+      <c r="K91" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" t="s">
+        <v>53</v>
+      </c>
+      <c r="F92" t="s">
+        <v>54</v>
+      </c>
+      <c r="G92" t="s">
+        <v>27</v>
+      </c>
+      <c r="H92" t="s">
+        <v>294</v>
+      </c>
+      <c r="I92" t="s">
+        <v>295</v>
+      </c>
+      <c r="J92" t="s">
+        <v>21</v>
+      </c>
+      <c r="K92" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" t="s">
+        <v>72</v>
+      </c>
+      <c r="F93" t="s">
+        <v>54</v>
+      </c>
+      <c r="G93" t="s">
+        <v>36</v>
+      </c>
+      <c r="H93" t="s">
+        <v>111</v>
+      </c>
+      <c r="I93" t="s">
+        <v>296</v>
+      </c>
+      <c r="J93" t="s">
+        <v>94</v>
+      </c>
+      <c r="K93" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" t="s">
+        <v>297</v>
+      </c>
+      <c r="F94" t="s">
+        <v>26</v>
+      </c>
+      <c r="G94" t="s">
+        <v>27</v>
+      </c>
+      <c r="H94" t="s">
+        <v>298</v>
+      </c>
+      <c r="I94" t="s">
+        <v>299</v>
+      </c>
+      <c r="J94" t="s">
+        <v>300</v>
+      </c>
+      <c r="K94" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>270</v>
+      </c>
+      <c r="B95" t="s">
+        <v>301</v>
+      </c>
+      <c r="C95" t="s">
+        <v>302</v>
+      </c>
+      <c r="D95" t="s">
+        <v>303</v>
+      </c>
+      <c r="E95" t="s">
+        <v>53</v>
+      </c>
+      <c r="F95" t="s">
+        <v>54</v>
+      </c>
+      <c r="G95" t="s">
+        <v>27</v>
+      </c>
+      <c r="H95" t="s">
+        <v>304</v>
+      </c>
+      <c r="I95" t="s">
+        <v>305</v>
+      </c>
+      <c r="J95" t="s">
+        <v>21</v>
+      </c>
+      <c r="K95" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" t="s">
+        <v>53</v>
+      </c>
+      <c r="F96" t="s">
+        <v>54</v>
+      </c>
+      <c r="G96" t="s">
+        <v>27</v>
+      </c>
+      <c r="H96" t="s">
+        <v>306</v>
+      </c>
+      <c r="I96" t="s">
+        <v>307</v>
+      </c>
+      <c r="J96" t="s">
+        <v>21</v>
+      </c>
+      <c r="K96" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" t="s">
+        <v>72</v>
+      </c>
+      <c r="F97" t="s">
+        <v>54</v>
+      </c>
+      <c r="G97" t="s">
+        <v>36</v>
+      </c>
+      <c r="H97" t="s">
+        <v>308</v>
+      </c>
+      <c r="I97" t="s">
+        <v>309</v>
+      </c>
+      <c r="J97" t="s">
+        <v>310</v>
+      </c>
+      <c r="K97" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" t="s">
+        <v>297</v>
+      </c>
+      <c r="F98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G98" t="s">
+        <v>36</v>
+      </c>
+      <c r="H98" t="s">
+        <v>311</v>
+      </c>
+      <c r="I98" t="s">
+        <v>312</v>
+      </c>
+      <c r="J98" t="s">
+        <v>313</v>
+      </c>
+      <c r="K98" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" t="s">
+        <v>148</v>
+      </c>
+      <c r="F99" t="s">
+        <v>54</v>
+      </c>
+      <c r="G99" t="s">
+        <v>36</v>
+      </c>
+      <c r="H99" t="s">
+        <v>314</v>
+      </c>
+      <c r="I99" t="s">
+        <v>315</v>
+      </c>
+      <c r="J99" t="s">
+        <v>316</v>
+      </c>
+      <c r="K99" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" t="s">
+        <v>148</v>
+      </c>
+      <c r="F100" t="s">
+        <v>54</v>
+      </c>
+      <c r="G100" t="s">
+        <v>27</v>
+      </c>
+      <c r="H100" t="s">
+        <v>317</v>
+      </c>
+      <c r="I100" t="s">
+        <v>318</v>
+      </c>
+      <c r="J100" t="s">
+        <v>319</v>
+      </c>
+      <c r="K100" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>320</v>
+      </c>
+      <c r="B101" t="s">
+        <v>321</v>
+      </c>
+      <c r="C101" t="s">
+        <v>322</v>
+      </c>
+      <c r="D101" t="s">
+        <v>323</v>
+      </c>
+      <c r="E101" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" t="s">
+        <v>26</v>
+      </c>
+      <c r="G101" t="s">
+        <v>36</v>
+      </c>
+      <c r="H101" t="s">
+        <v>324</v>
+      </c>
+      <c r="I101" t="s">
+        <v>325</v>
+      </c>
+      <c r="J101" t="s">
+        <v>21</v>
+      </c>
+      <c r="K101" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>320</v>
+      </c>
+      <c r="B102" t="s">
+        <v>326</v>
+      </c>
+      <c r="C102" t="s">
+        <v>327</v>
+      </c>
+      <c r="D102" t="s">
+        <v>328</v>
+      </c>
+      <c r="E102" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" t="s">
+        <v>12</v>
+      </c>
+      <c r="J102" t="s">
+        <v>12</v>
+      </c>
+      <c r="K102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>320</v>
+      </c>
+      <c r="B103" t="s">
+        <v>329</v>
+      </c>
+      <c r="C103" t="s">
+        <v>330</v>
+      </c>
+      <c r="D103" t="s">
+        <v>330</v>
+      </c>
+      <c r="E103" t="s">
+        <v>53</v>
+      </c>
+      <c r="F103" t="s">
+        <v>54</v>
+      </c>
+      <c r="G103" t="s">
+        <v>36</v>
+      </c>
+      <c r="H103" t="s">
+        <v>331</v>
+      </c>
+      <c r="I103" t="s">
+        <v>332</v>
+      </c>
+      <c r="J103" t="s">
+        <v>21</v>
+      </c>
+      <c r="K103" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>333</v>
+      </c>
+      <c r="B104" t="s">
+        <v>334</v>
+      </c>
+      <c r="C104" t="s">
+        <v>335</v>
+      </c>
+      <c r="D104" t="s">
+        <v>336</v>
+      </c>
+      <c r="E104" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" t="s">
+        <v>17</v>
+      </c>
+      <c r="G104" t="s">
+        <v>23</v>
+      </c>
+      <c r="H104" t="s">
+        <v>24</v>
+      </c>
+      <c r="I104" t="s">
+        <v>337</v>
+      </c>
+      <c r="J104" t="s">
+        <v>21</v>
+      </c>
+      <c r="K104" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" t="s">
+        <v>53</v>
+      </c>
+      <c r="F105" t="s">
+        <v>54</v>
+      </c>
+      <c r="G105" t="s">
+        <v>36</v>
+      </c>
+      <c r="H105" t="s">
+        <v>314</v>
+      </c>
+      <c r="I105" t="s">
+        <v>338</v>
+      </c>
+      <c r="J105" t="s">
+        <v>339</v>
+      </c>
+      <c r="K105" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" t="s">
+        <v>75</v>
+      </c>
+      <c r="F106" t="s">
+        <v>54</v>
+      </c>
+      <c r="G106" t="s">
+        <v>36</v>
+      </c>
+      <c r="H106" t="s">
+        <v>340</v>
+      </c>
+      <c r="I106" t="s">
+        <v>341</v>
+      </c>
+      <c r="J106" t="s">
+        <v>342</v>
+      </c>
+      <c r="K106" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>333</v>
+      </c>
+      <c r="B107" t="s">
+        <v>343</v>
+      </c>
+      <c r="C107" t="s">
+        <v>344</v>
+      </c>
+      <c r="D107" t="s">
+        <v>345</v>
+      </c>
+      <c r="E107" t="s">
+        <v>75</v>
+      </c>
+      <c r="F107" t="s">
+        <v>54</v>
+      </c>
+      <c r="G107" t="s">
+        <v>18</v>
+      </c>
+      <c r="H107" t="s">
+        <v>346</v>
+      </c>
+      <c r="I107" t="s">
+        <v>347</v>
+      </c>
+      <c r="J107" t="s">
+        <v>97</v>
+      </c>
+      <c r="K107" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>333</v>
+      </c>
+      <c r="B108" t="s">
+        <v>348</v>
+      </c>
+      <c r="C108" t="s">
+        <v>349</v>
+      </c>
+      <c r="D108" t="s">
+        <v>350</v>
+      </c>
+      <c r="E108" t="s">
+        <v>72</v>
+      </c>
+      <c r="F108" t="s">
+        <v>54</v>
+      </c>
+      <c r="G108" t="s">
+        <v>36</v>
+      </c>
+      <c r="H108" t="s">
+        <v>351</v>
+      </c>
+      <c r="I108" t="s">
+        <v>352</v>
+      </c>
+      <c r="J108" t="s">
+        <v>353</v>
+      </c>
+      <c r="K108" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>333</v>
+      </c>
+      <c r="B109" t="s">
+        <v>354</v>
+      </c>
+      <c r="C109" t="s">
+        <v>355</v>
+      </c>
+      <c r="D109" t="s">
+        <v>173</v>
+      </c>
+      <c r="E109" t="s">
+        <v>157</v>
+      </c>
+      <c r="F109" t="s">
+        <v>54</v>
+      </c>
+      <c r="G109" t="s">
+        <v>27</v>
+      </c>
+      <c r="H109" t="s">
+        <v>356</v>
+      </c>
+      <c r="I109" t="s">
+        <v>357</v>
+      </c>
+      <c r="J109" t="s">
+        <v>339</v>
+      </c>
+      <c r="K109" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>333</v>
+      </c>
+      <c r="B110" t="s">
+        <v>358</v>
+      </c>
+      <c r="C110" t="s">
+        <v>359</v>
+      </c>
+      <c r="D110" t="s">
+        <v>360</v>
+      </c>
+      <c r="E110" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110" t="s">
+        <v>17</v>
+      </c>
+      <c r="G110" t="s">
+        <v>23</v>
+      </c>
+      <c r="H110" t="s">
+        <v>361</v>
+      </c>
+      <c r="I110" t="s">
+        <v>362</v>
+      </c>
+      <c r="J110" t="s">
+        <v>21</v>
+      </c>
+      <c r="K110" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F111" t="s">
+        <v>17</v>
+      </c>
+      <c r="G111" t="s">
+        <v>36</v>
+      </c>
+      <c r="H111" t="s">
+        <v>363</v>
+      </c>
+      <c r="I111" t="s">
+        <v>364</v>
+      </c>
+      <c r="J111" t="s">
+        <v>21</v>
+      </c>
+      <c r="K111" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" t="s">
+        <v>53</v>
+      </c>
+      <c r="F112" t="s">
+        <v>54</v>
+      </c>
+      <c r="G112" t="s">
+        <v>27</v>
+      </c>
+      <c r="H112" t="s">
+        <v>365</v>
+      </c>
+      <c r="I112" t="s">
+        <v>366</v>
+      </c>
+      <c r="J112" t="s">
+        <v>21</v>
+      </c>
+      <c r="K112" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" t="s">
+        <v>53</v>
+      </c>
+      <c r="F113" t="s">
+        <v>17</v>
+      </c>
+      <c r="G113" t="s">
+        <v>27</v>
+      </c>
+      <c r="H113" t="s">
+        <v>367</v>
+      </c>
+      <c r="I113" t="s">
+        <v>368</v>
+      </c>
+      <c r="J113" t="s">
+        <v>21</v>
+      </c>
+      <c r="K113" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" t="s">
+        <v>53</v>
+      </c>
+      <c r="F114" t="s">
+        <v>17</v>
+      </c>
+      <c r="G114" t="s">
+        <v>23</v>
+      </c>
+      <c r="H114" t="s">
+        <v>361</v>
+      </c>
+      <c r="I114" t="s">
+        <v>369</v>
+      </c>
+      <c r="J114" t="s">
+        <v>21</v>
+      </c>
+      <c r="K114" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s">
+        <v>130</v>
+      </c>
+      <c r="F115" t="s">
+        <v>54</v>
+      </c>
+      <c r="G115" t="s">
+        <v>36</v>
+      </c>
+      <c r="H115" t="s">
+        <v>340</v>
+      </c>
+      <c r="I115" t="s">
+        <v>370</v>
+      </c>
+      <c r="J115" t="s">
+        <v>371</v>
+      </c>
+      <c r="K115" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>333</v>
+      </c>
+      <c r="B116" t="s">
+        <v>372</v>
+      </c>
+      <c r="C116" t="s">
+        <v>373</v>
+      </c>
+      <c r="D116" t="s">
+        <v>374</v>
+      </c>
+      <c r="E116" t="s">
+        <v>16</v>
+      </c>
+      <c r="F116" t="s">
+        <v>17</v>
+      </c>
+      <c r="G116" t="s">
+        <v>36</v>
+      </c>
+      <c r="H116" t="s">
+        <v>104</v>
+      </c>
+      <c r="I116" t="s">
+        <v>375</v>
+      </c>
+      <c r="J116" t="s">
+        <v>21</v>
+      </c>
+      <c r="K116" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" t="s">
+        <v>53</v>
+      </c>
+      <c r="F117" t="s">
+        <v>54</v>
+      </c>
+      <c r="G117" t="s">
+        <v>23</v>
+      </c>
+      <c r="H117" t="s">
+        <v>221</v>
+      </c>
+      <c r="I117" t="s">
+        <v>376</v>
+      </c>
+      <c r="J117" t="s">
+        <v>377</v>
+      </c>
+      <c r="K117" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" t="s">
+        <v>53</v>
+      </c>
+      <c r="F118" t="s">
+        <v>54</v>
+      </c>
+      <c r="G118" t="s">
+        <v>23</v>
+      </c>
+      <c r="H118" t="s">
+        <v>378</v>
+      </c>
+      <c r="I118" t="s">
+        <v>379</v>
+      </c>
+      <c r="J118" t="s">
+        <v>21</v>
+      </c>
+      <c r="K118" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" t="s">
+        <v>53</v>
+      </c>
+      <c r="F119" t="s">
+        <v>54</v>
+      </c>
+      <c r="G119" t="s">
+        <v>36</v>
+      </c>
+      <c r="H119" t="s">
+        <v>331</v>
+      </c>
+      <c r="I119" t="s">
+        <v>380</v>
+      </c>
+      <c r="J119" t="s">
+        <v>21</v>
+      </c>
+      <c r="K119" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" t="s">
+        <v>53</v>
+      </c>
+      <c r="F120" t="s">
+        <v>54</v>
+      </c>
+      <c r="G120" t="s">
+        <v>36</v>
+      </c>
+      <c r="H120" t="s">
+        <v>381</v>
+      </c>
+      <c r="I120" t="s">
+        <v>382</v>
+      </c>
+      <c r="J120" t="s">
+        <v>21</v>
+      </c>
+      <c r="K120" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" t="s">
+        <v>383</v>
+      </c>
+      <c r="F121" t="s">
+        <v>54</v>
+      </c>
+      <c r="G121" t="s">
+        <v>27</v>
+      </c>
+      <c r="H121" t="s">
+        <v>384</v>
+      </c>
+      <c r="I121" t="s">
+        <v>385</v>
+      </c>
+      <c r="J121" t="s">
+        <v>386</v>
+      </c>
+      <c r="K121" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>387</v>
+      </c>
+      <c r="B122" t="s">
+        <v>388</v>
+      </c>
+      <c r="C122" t="s">
+        <v>389</v>
+      </c>
+      <c r="D122" t="s">
+        <v>390</v>
+      </c>
+      <c r="E122" t="s">
+        <v>16</v>
+      </c>
+      <c r="F122" t="s">
+        <v>17</v>
+      </c>
+      <c r="G122" t="s">
+        <v>27</v>
+      </c>
+      <c r="H122" t="s">
+        <v>391</v>
+      </c>
+      <c r="I122" t="s">
+        <v>392</v>
+      </c>
+      <c r="J122" t="s">
+        <v>21</v>
+      </c>
+      <c r="K122" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" t="s">
+        <v>53</v>
+      </c>
+      <c r="F123" t="s">
+        <v>54</v>
+      </c>
+      <c r="G123" t="s">
+        <v>36</v>
+      </c>
+      <c r="H123" t="s">
+        <v>393</v>
+      </c>
+      <c r="I123" t="s">
+        <v>394</v>
+      </c>
+      <c r="J123" t="s">
+        <v>395</v>
+      </c>
+      <c r="K123" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" t="s">
+        <v>53</v>
+      </c>
+      <c r="F124" t="s">
+        <v>54</v>
+      </c>
+      <c r="G124" t="s">
+        <v>27</v>
+      </c>
+      <c r="H124" t="s">
+        <v>396</v>
+      </c>
+      <c r="I124" t="s">
+        <v>397</v>
+      </c>
+      <c r="J124" t="s">
+        <v>21</v>
+      </c>
+      <c r="K124" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" t="s">
+        <v>75</v>
+      </c>
+      <c r="F125" t="s">
+        <v>54</v>
+      </c>
+      <c r="G125" t="s">
+        <v>23</v>
+      </c>
+      <c r="H125" t="s">
+        <v>398</v>
+      </c>
+      <c r="I125" t="s">
+        <v>399</v>
+      </c>
+      <c r="J125" t="s">
+        <v>400</v>
+      </c>
+      <c r="K125" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" t="s">
+        <v>231</v>
+      </c>
+      <c r="F126" t="s">
+        <v>54</v>
+      </c>
+      <c r="G126" t="s">
+        <v>27</v>
+      </c>
+      <c r="H126" t="s">
+        <v>401</v>
+      </c>
+      <c r="I126" t="s">
+        <v>402</v>
+      </c>
+      <c r="J126" t="s">
+        <v>403</v>
+      </c>
+      <c r="K126" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" t="s">
+        <v>157</v>
+      </c>
+      <c r="F127" t="s">
+        <v>54</v>
+      </c>
+      <c r="G127" t="s">
+        <v>27</v>
+      </c>
+      <c r="H127" t="s">
+        <v>404</v>
+      </c>
+      <c r="I127" t="s">
+        <v>405</v>
+      </c>
+      <c r="J127" t="s">
+        <v>406</v>
+      </c>
+      <c r="K127" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" t="s">
+        <v>12</v>
+      </c>
+      <c r="I128" t="s">
+        <v>12</v>
+      </c>
+      <c r="J128" t="s">
+        <v>12</v>
+      </c>
+      <c r="K128" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>407</v>
+      </c>
+      <c r="B129" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" t="s">
+        <v>12</v>
+      </c>
+      <c r="I129" t="s">
+        <v>12</v>
+      </c>
+      <c r="J129" t="s">
+        <v>12</v>
+      </c>
+      <c r="K129" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>245</v>
+      </c>
+      <c r="B130" t="s">
+        <v>408</v>
+      </c>
+      <c r="C130" t="s">
+        <v>409</v>
+      </c>
+      <c r="D130" t="s">
+        <v>410</v>
+      </c>
+      <c r="E130" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>12</v>
+      </c>
+      <c r="H130" t="s">
+        <v>12</v>
+      </c>
+      <c r="I130" t="s">
+        <v>12</v>
+      </c>
+      <c r="J130" t="s">
+        <v>12</v>
+      </c>
+      <c r="K130" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>245</v>
+      </c>
+      <c r="B131" t="s">
+        <v>411</v>
+      </c>
+      <c r="C131" t="s">
+        <v>412</v>
+      </c>
+      <c r="D131" t="s">
+        <v>413</v>
+      </c>
+      <c r="E131" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131" t="s">
+        <v>12</v>
+      </c>
+      <c r="I131" t="s">
+        <v>12</v>
+      </c>
+      <c r="J131" t="s">
+        <v>12</v>
+      </c>
+      <c r="K131" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>245</v>
+      </c>
+      <c r="B132" t="s">
+        <v>414</v>
+      </c>
+      <c r="C132" t="s">
+        <v>415</v>
+      </c>
+      <c r="D132" t="s">
+        <v>416</v>
+      </c>
+      <c r="E132" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" t="s">
+        <v>12</v>
+      </c>
+      <c r="I132" t="s">
+        <v>12</v>
+      </c>
+      <c r="J132" t="s">
+        <v>12</v>
+      </c>
+      <c r="K132" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>257</v>
+      </c>
+      <c r="B133" t="s">
+        <v>417</v>
+      </c>
+      <c r="C133" t="s">
+        <v>418</v>
+      </c>
+      <c r="D133" t="s">
+        <v>419</v>
+      </c>
+      <c r="E133" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" t="s">
+        <v>12</v>
+      </c>
+      <c r="I133" t="s">
+        <v>12</v>
+      </c>
+      <c r="J133" t="s">
+        <v>12</v>
+      </c>
+      <c r="K133" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>420</v>
+      </c>
+      <c r="B134" t="s">
+        <v>421</v>
+      </c>
+      <c r="C134" t="s">
+        <v>422</v>
+      </c>
+      <c r="D134" t="s">
+        <v>423</v>
+      </c>
+      <c r="E134" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" t="s">
+        <v>12</v>
+      </c>
+      <c r="I134" t="s">
+        <v>12</v>
+      </c>
+      <c r="J134" t="s">
+        <v>12</v>
+      </c>
+      <c r="K134" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" t="s">
+        <v>12</v>
+      </c>
+      <c r="I135" t="s">
+        <v>12</v>
+      </c>
+      <c r="J135" t="s">
+        <v>12</v>
+      </c>
+      <c r="K135" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>424</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>12</v>
+      </c>
+      <c r="H136" t="s">
+        <v>12</v>
+      </c>
+      <c r="I136" t="s">
+        <v>12</v>
+      </c>
+      <c r="J136" t="s">
+        <v>12</v>
+      </c>
+      <c r="K136" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>425</v>
+      </c>
+      <c r="B137" t="s">
+        <v>426</v>
+      </c>
+      <c r="C137" t="s">
+        <v>427</v>
+      </c>
+      <c r="D137" t="s">
+        <v>428</v>
+      </c>
+      <c r="E137" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>12</v>
+      </c>
+      <c r="H137" t="s">
+        <v>12</v>
+      </c>
+      <c r="I137" t="s">
+        <v>12</v>
+      </c>
+      <c r="J137" t="s">
+        <v>12</v>
+      </c>
+      <c r="K137" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>425</v>
+      </c>
+      <c r="B138" t="s">
+        <v>429</v>
+      </c>
+      <c r="C138" t="s">
+        <v>430</v>
+      </c>
+      <c r="D138" t="s">
+        <v>431</v>
+      </c>
+      <c r="E138" t="s">
+        <v>53</v>
+      </c>
+      <c r="F138" t="s">
+        <v>54</v>
+      </c>
+      <c r="G138" t="s">
+        <v>36</v>
+      </c>
+      <c r="H138" t="s">
+        <v>116</v>
+      </c>
+      <c r="I138" t="s">
+        <v>432</v>
+      </c>
+      <c r="J138" t="s">
+        <v>285</v>
+      </c>
+      <c r="K138" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" t="s">
+        <v>53</v>
+      </c>
+      <c r="F139" t="s">
+        <v>54</v>
+      </c>
+      <c r="G139" t="s">
+        <v>23</v>
+      </c>
+      <c r="H139" t="s">
+        <v>433</v>
+      </c>
+      <c r="I139" t="s">
+        <v>434</v>
+      </c>
+      <c r="J139" t="s">
+        <v>21</v>
+      </c>
+      <c r="K139" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>425</v>
+      </c>
+      <c r="B140" t="s">
+        <v>435</v>
+      </c>
+      <c r="C140" t="s">
+        <v>436</v>
+      </c>
+      <c r="D140" t="s">
+        <v>437</v>
+      </c>
+      <c r="E140" t="s">
+        <v>53</v>
+      </c>
+      <c r="F140" t="s">
+        <v>54</v>
+      </c>
+      <c r="G140" t="s">
+        <v>23</v>
+      </c>
+      <c r="H140" t="s">
+        <v>438</v>
+      </c>
+      <c r="I140" t="s">
+        <v>439</v>
+      </c>
+      <c r="J140" t="s">
+        <v>440</v>
+      </c>
+      <c r="K140" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>441</v>
+      </c>
+      <c r="B141" t="s">
+        <v>442</v>
+      </c>
+      <c r="C141" t="s">
+        <v>443</v>
+      </c>
+      <c r="D141" t="s">
+        <v>444</v>
+      </c>
+      <c r="E141" t="s">
+        <v>16</v>
+      </c>
+      <c r="F141" t="s">
+        <v>26</v>
+      </c>
+      <c r="G141" t="s">
+        <v>27</v>
+      </c>
+      <c r="H141" t="s">
+        <v>445</v>
+      </c>
+      <c r="I141" t="s">
+        <v>446</v>
+      </c>
+      <c r="J141" t="s">
+        <v>21</v>
+      </c>
+      <c r="K141" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>441</v>
+      </c>
+      <c r="B142" t="s">
+        <v>447</v>
+      </c>
+      <c r="C142" t="s">
+        <v>448</v>
+      </c>
+      <c r="D142" t="s">
+        <v>449</v>
+      </c>
+      <c r="E142" t="s">
+        <v>16</v>
+      </c>
+      <c r="F142" t="s">
+        <v>17</v>
+      </c>
+      <c r="G142" t="s">
+        <v>27</v>
+      </c>
+      <c r="H142" t="s">
+        <v>450</v>
+      </c>
+      <c r="I142" t="s">
+        <v>451</v>
+      </c>
+      <c r="J142" t="s">
+        <v>21</v>
+      </c>
+      <c r="K142" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>452</v>
+      </c>
+      <c r="B143" t="s">
+        <v>453</v>
+      </c>
+      <c r="C143" t="s">
+        <v>454</v>
+      </c>
+      <c r="D143" t="s">
+        <v>455</v>
+      </c>
+      <c r="E143" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" t="s">
+        <v>12</v>
+      </c>
+      <c r="G143" t="s">
+        <v>12</v>
+      </c>
+      <c r="H143" t="s">
+        <v>12</v>
+      </c>
+      <c r="I143" t="s">
+        <v>12</v>
+      </c>
+      <c r="J143" t="s">
+        <v>12</v>
+      </c>
+      <c r="K143" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>452</v>
+      </c>
+      <c r="B144" t="s">
+        <v>456</v>
+      </c>
+      <c r="C144" t="s">
+        <v>457</v>
+      </c>
+      <c r="D144" t="s">
+        <v>458</v>
+      </c>
+      <c r="E144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F144" t="s">
+        <v>26</v>
+      </c>
+      <c r="G144" t="s">
+        <v>27</v>
+      </c>
+      <c r="H144" t="s">
+        <v>459</v>
+      </c>
+      <c r="I144" t="s">
+        <v>460</v>
+      </c>
+      <c r="J144" t="s">
+        <v>21</v>
+      </c>
+      <c r="K144" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" t="s">
+        <v>53</v>
+      </c>
+      <c r="F145" t="s">
+        <v>54</v>
+      </c>
+      <c r="G145" t="s">
+        <v>27</v>
+      </c>
+      <c r="H145" t="s">
+        <v>461</v>
+      </c>
+      <c r="I145" t="s">
+        <v>462</v>
+      </c>
+      <c r="J145" t="s">
+        <v>21</v>
+      </c>
+      <c r="K145" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" t="s">
+        <v>223</v>
+      </c>
+      <c r="F146" t="s">
+        <v>224</v>
+      </c>
+      <c r="G146" t="s">
+        <v>36</v>
+      </c>
+      <c r="H146" t="s">
+        <v>251</v>
+      </c>
+      <c r="I146" t="s">
+        <v>463</v>
+      </c>
+      <c r="J146" t="s">
+        <v>464</v>
+      </c>
+      <c r="K146" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" t="s">
+        <v>110</v>
+      </c>
+      <c r="F147" t="s">
+        <v>54</v>
+      </c>
+      <c r="G147" t="s">
+        <v>23</v>
+      </c>
+      <c r="H147" t="s">
+        <v>465</v>
+      </c>
+      <c r="I147" t="s">
+        <v>466</v>
+      </c>
+      <c r="J147" t="s">
+        <v>467</v>
+      </c>
+      <c r="K147" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>468</v>
+      </c>
+      <c r="B148" t="s">
+        <v>469</v>
+      </c>
+      <c r="C148" t="s">
+        <v>470</v>
+      </c>
+      <c r="D148" t="s">
+        <v>471</v>
+      </c>
+      <c r="E148" t="s">
+        <v>53</v>
+      </c>
+      <c r="F148" t="s">
+        <v>54</v>
+      </c>
+      <c r="G148" t="s">
+        <v>27</v>
+      </c>
+      <c r="H148" t="s">
+        <v>472</v>
+      </c>
+      <c r="I148" t="s">
+        <v>473</v>
+      </c>
+      <c r="J148" t="s">
+        <v>474</v>
+      </c>
+      <c r="K148" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" t="s">
+        <v>53</v>
+      </c>
+      <c r="F149" t="s">
+        <v>54</v>
+      </c>
+      <c r="G149" t="s">
+        <v>23</v>
+      </c>
+      <c r="H149" t="s">
+        <v>378</v>
+      </c>
+      <c r="I149" t="s">
+        <v>475</v>
+      </c>
+      <c r="J149" t="s">
+        <v>476</v>
+      </c>
+      <c r="K149" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" t="s">
+        <v>110</v>
+      </c>
+      <c r="F150" t="s">
+        <v>54</v>
+      </c>
+      <c r="G150" t="s">
+        <v>23</v>
+      </c>
+      <c r="H150" t="s">
+        <v>465</v>
+      </c>
+      <c r="I150" t="s">
+        <v>477</v>
+      </c>
+      <c r="J150" t="s">
+        <v>478</v>
+      </c>
+      <c r="K150" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>468</v>
+      </c>
+      <c r="B151" t="s">
+        <v>479</v>
+      </c>
+      <c r="C151" t="s">
+        <v>480</v>
+      </c>
+      <c r="D151" t="s">
+        <v>481</v>
+      </c>
+      <c r="E151" t="s">
+        <v>85</v>
+      </c>
+      <c r="F151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G151" t="s">
+        <v>27</v>
+      </c>
+      <c r="H151" t="s">
+        <v>482</v>
+      </c>
+      <c r="I151" t="s">
+        <v>483</v>
+      </c>
+      <c r="J151" t="s">
+        <v>484</v>
+      </c>
+      <c r="K151" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" t="s">
+        <v>485</v>
+      </c>
+      <c r="F152" t="s">
+        <v>26</v>
+      </c>
+      <c r="G152" t="s">
+        <v>23</v>
+      </c>
+      <c r="H152" t="s">
+        <v>39</v>
+      </c>
+      <c r="I152" t="s">
+        <v>486</v>
+      </c>
+      <c r="J152" t="s">
+        <v>487</v>
+      </c>
+      <c r="K152" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" t="s">
+        <v>110</v>
+      </c>
+      <c r="F153" t="s">
+        <v>54</v>
+      </c>
+      <c r="G153" t="s">
+        <v>23</v>
+      </c>
+      <c r="H153" t="s">
+        <v>438</v>
+      </c>
+      <c r="I153" t="s">
+        <v>488</v>
+      </c>
+      <c r="J153" t="s">
+        <v>489</v>
+      </c>
+      <c r="K153" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>490</v>
+      </c>
+      <c r="B154" t="s">
+        <v>491</v>
+      </c>
+      <c r="C154" t="s">
+        <v>492</v>
+      </c>
+      <c r="D154" t="s">
+        <v>493</v>
+      </c>
+      <c r="E154" t="s">
+        <v>223</v>
+      </c>
+      <c r="F154" t="s">
+        <v>224</v>
+      </c>
+      <c r="G154" t="s">
+        <v>36</v>
+      </c>
+      <c r="H154" t="s">
+        <v>286</v>
+      </c>
+      <c r="I154" t="s">
+        <v>494</v>
+      </c>
+      <c r="J154" t="s">
+        <v>495</v>
+      </c>
+      <c r="K154" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155" t="s">
+        <v>85</v>
+      </c>
+      <c r="F155" t="s">
+        <v>26</v>
+      </c>
+      <c r="G155" t="s">
+        <v>27</v>
+      </c>
+      <c r="H155" t="s">
+        <v>496</v>
+      </c>
+      <c r="I155" t="s">
+        <v>497</v>
+      </c>
+      <c r="J155" t="s">
+        <v>498</v>
+      </c>
+      <c r="K155" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156" t="s">
+        <v>485</v>
+      </c>
+      <c r="F156" t="s">
+        <v>26</v>
+      </c>
+      <c r="G156" t="s">
+        <v>27</v>
+      </c>
+      <c r="H156" t="s">
+        <v>499</v>
+      </c>
+      <c r="I156" t="s">
+        <v>500</v>
+      </c>
+      <c r="J156" t="s">
+        <v>501</v>
+      </c>
+      <c r="K156" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" t="s">
+        <v>12</v>
+      </c>
+      <c r="E157" t="s">
+        <v>110</v>
+      </c>
+      <c r="F157" t="s">
+        <v>54</v>
+      </c>
+      <c r="G157" t="s">
+        <v>27</v>
+      </c>
+      <c r="H157" t="s">
+        <v>502</v>
+      </c>
+      <c r="I157" t="s">
+        <v>503</v>
+      </c>
+      <c r="J157" t="s">
+        <v>504</v>
+      </c>
+      <c r="K157" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>490</v>
+      </c>
+      <c r="B158" t="s">
+        <v>505</v>
+      </c>
+      <c r="C158" t="s">
+        <v>506</v>
+      </c>
+      <c r="D158" t="s">
+        <v>507</v>
+      </c>
+      <c r="E158" t="s">
+        <v>16</v>
+      </c>
+      <c r="F158" t="s">
+        <v>17</v>
+      </c>
+      <c r="G158" t="s">
+        <v>36</v>
+      </c>
+      <c r="H158" t="s">
+        <v>276</v>
+      </c>
+      <c r="I158" t="s">
+        <v>508</v>
+      </c>
+      <c r="J158" t="s">
+        <v>21</v>
+      </c>
+      <c r="K158" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159" t="s">
+        <v>110</v>
+      </c>
+      <c r="F159" t="s">
+        <v>54</v>
+      </c>
+      <c r="G159" t="s">
+        <v>23</v>
+      </c>
+      <c r="H159" t="s">
+        <v>433</v>
+      </c>
+      <c r="I159" t="s">
+        <v>509</v>
+      </c>
+      <c r="J159" t="s">
+        <v>510</v>
+      </c>
+      <c r="K159" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>490</v>
+      </c>
+      <c r="B160" t="s">
+        <v>511</v>
+      </c>
+      <c r="C160" t="s">
+        <v>512</v>
+      </c>
+      <c r="D160" t="s">
+        <v>513</v>
+      </c>
+      <c r="E160" t="s">
+        <v>223</v>
+      </c>
+      <c r="F160" t="s">
+        <v>224</v>
+      </c>
+      <c r="G160" t="s">
+        <v>27</v>
+      </c>
+      <c r="H160" t="s">
+        <v>514</v>
+      </c>
+      <c r="I160" t="s">
+        <v>515</v>
+      </c>
+      <c r="J160" t="s">
+        <v>516</v>
+      </c>
+      <c r="K160" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161" t="s">
+        <v>223</v>
+      </c>
+      <c r="F161" t="s">
+        <v>224</v>
+      </c>
+      <c r="G161" t="s">
+        <v>36</v>
+      </c>
+      <c r="H161" t="s">
+        <v>517</v>
+      </c>
+      <c r="I161" t="s">
+        <v>518</v>
+      </c>
+      <c r="J161" t="s">
+        <v>519</v>
+      </c>
+      <c r="K161" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" t="s">
+        <v>12</v>
+      </c>
+      <c r="E162" t="s">
+        <v>110</v>
+      </c>
+      <c r="F162" t="s">
+        <v>54</v>
+      </c>
+      <c r="G162" t="s">
+        <v>36</v>
+      </c>
+      <c r="H162" t="s">
+        <v>263</v>
+      </c>
+      <c r="I162" t="s">
+        <v>520</v>
+      </c>
+      <c r="J162" t="s">
+        <v>521</v>
+      </c>
+      <c r="K162" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>522</v>
+      </c>
+      <c r="B163" t="s">
+        <v>523</v>
+      </c>
+      <c r="C163" t="s">
+        <v>524</v>
+      </c>
+      <c r="D163" t="s">
+        <v>525</v>
+      </c>
+      <c r="E163" t="s">
+        <v>16</v>
+      </c>
+      <c r="F163" t="s">
+        <v>26</v>
+      </c>
+      <c r="G163" t="s">
+        <v>27</v>
+      </c>
+      <c r="H163" t="s">
+        <v>526</v>
+      </c>
+      <c r="I163" t="s">
+        <v>527</v>
+      </c>
+      <c r="J163" t="s">
+        <v>21</v>
+      </c>
+      <c r="K163" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" t="s">
+        <v>12</v>
+      </c>
+      <c r="E164" t="s">
+        <v>72</v>
+      </c>
+      <c r="F164" t="s">
+        <v>54</v>
+      </c>
+      <c r="G164" t="s">
+        <v>36</v>
+      </c>
+      <c r="H164" t="s">
+        <v>528</v>
+      </c>
+      <c r="I164" t="s">
+        <v>529</v>
+      </c>
+      <c r="J164" t="s">
+        <v>530</v>
+      </c>
+      <c r="K164" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" t="s">
+        <v>12</v>
+      </c>
+      <c r="E165" t="s">
+        <v>12</v>
+      </c>
+      <c r="F165" t="s">
+        <v>12</v>
+      </c>
+      <c r="G165" t="s">
+        <v>12</v>
+      </c>
+      <c r="H165" t="s">
+        <v>12</v>
+      </c>
+      <c r="I165" t="s">
+        <v>12</v>
+      </c>
+      <c r="J165" t="s">
+        <v>12</v>
+      </c>
+      <c r="K165" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>531</v>
+      </c>
+      <c r="B166" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" t="s">
+        <v>12</v>
+      </c>
+      <c r="E166" t="s">
+        <v>12</v>
+      </c>
+      <c r="F166" t="s">
+        <v>12</v>
+      </c>
+      <c r="G166" t="s">
+        <v>12</v>
+      </c>
+      <c r="H166" t="s">
+        <v>12</v>
+      </c>
+      <c r="I166" t="s">
+        <v>12</v>
+      </c>
+      <c r="J166" t="s">
+        <v>12</v>
+      </c>
+      <c r="K166" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>161</v>
+      </c>
+      <c r="B167" t="s">
+        <v>532</v>
+      </c>
+      <c r="C167" t="s">
+        <v>533</v>
+      </c>
+      <c r="D167" t="s">
+        <v>534</v>
+      </c>
+      <c r="E167" t="s">
+        <v>12</v>
+      </c>
+      <c r="F167" t="s">
+        <v>12</v>
+      </c>
+      <c r="G167" t="s">
+        <v>12</v>
+      </c>
+      <c r="H167" t="s">
+        <v>12</v>
+      </c>
+      <c r="I167" t="s">
+        <v>12</v>
+      </c>
+      <c r="J167" t="s">
+        <v>12</v>
+      </c>
+      <c r="K167" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>535</v>
+      </c>
+      <c r="B168" t="s">
+        <v>536</v>
+      </c>
+      <c r="C168" t="s">
+        <v>537</v>
+      </c>
+      <c r="D168" t="s">
+        <v>538</v>
+      </c>
+      <c r="E168" t="s">
+        <v>12</v>
+      </c>
+      <c r="F168" t="s">
+        <v>12</v>
+      </c>
+      <c r="G168" t="s">
+        <v>12</v>
+      </c>
+      <c r="H168" t="s">
+        <v>12</v>
+      </c>
+      <c r="I168" t="s">
+        <v>12</v>
+      </c>
+      <c r="J168" t="s">
+        <v>12</v>
+      </c>
+      <c r="K168" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>535</v>
+      </c>
+      <c r="B169" t="s">
+        <v>539</v>
+      </c>
+      <c r="C169" t="s">
+        <v>540</v>
+      </c>
+      <c r="D169" t="s">
+        <v>541</v>
+      </c>
+      <c r="E169" t="s">
+        <v>12</v>
+      </c>
+      <c r="F169" t="s">
+        <v>12</v>
+      </c>
+      <c r="G169" t="s">
+        <v>12</v>
+      </c>
+      <c r="H169" t="s">
+        <v>12</v>
+      </c>
+      <c r="I169" t="s">
+        <v>12</v>
+      </c>
+      <c r="J169" t="s">
+        <v>12</v>
+      </c>
+      <c r="K169" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>542</v>
+      </c>
+      <c r="B170" t="s">
+        <v>543</v>
+      </c>
+      <c r="C170" t="s">
+        <v>544</v>
+      </c>
+      <c r="D170" t="s">
+        <v>545</v>
+      </c>
+      <c r="E170" t="s">
+        <v>12</v>
+      </c>
+      <c r="F170" t="s">
+        <v>12</v>
+      </c>
+      <c r="G170" t="s">
+        <v>12</v>
+      </c>
+      <c r="H170" t="s">
+        <v>12</v>
+      </c>
+      <c r="I170" t="s">
+        <v>12</v>
+      </c>
+      <c r="J170" t="s">
+        <v>12</v>
+      </c>
+      <c r="K170" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>546</v>
+      </c>
+      <c r="B171" t="s">
+        <v>547</v>
+      </c>
+      <c r="C171" t="s">
+        <v>548</v>
+      </c>
+      <c r="D171" t="s">
+        <v>549</v>
+      </c>
+      <c r="E171" t="s">
+        <v>16</v>
+      </c>
+      <c r="F171" t="s">
+        <v>26</v>
+      </c>
+      <c r="G171" t="s">
+        <v>27</v>
+      </c>
+      <c r="H171" t="s">
+        <v>550</v>
+      </c>
+      <c r="I171" t="s">
+        <v>551</v>
+      </c>
+      <c r="J171" t="s">
+        <v>21</v>
+      </c>
+      <c r="K171" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>12</v>
+      </c>
+      <c r="B172" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" t="s">
+        <v>12</v>
+      </c>
+      <c r="E172" t="s">
+        <v>53</v>
+      </c>
+      <c r="F172" t="s">
+        <v>54</v>
+      </c>
+      <c r="G172" t="s">
+        <v>27</v>
+      </c>
+      <c r="H172" t="s">
+        <v>552</v>
+      </c>
+      <c r="I172" t="s">
+        <v>553</v>
+      </c>
+      <c r="J172" t="s">
+        <v>21</v>
+      </c>
+      <c r="K172" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>554</v>
+      </c>
+      <c r="B173" t="s">
+        <v>555</v>
+      </c>
+      <c r="C173" t="s">
+        <v>556</v>
+      </c>
+      <c r="D173" t="s">
+        <v>557</v>
+      </c>
+      <c r="E173" t="s">
+        <v>12</v>
+      </c>
+      <c r="F173" t="s">
+        <v>12</v>
+      </c>
+      <c r="G173" t="s">
+        <v>12</v>
+      </c>
+      <c r="H173" t="s">
+        <v>12</v>
+      </c>
+      <c r="I173" t="s">
+        <v>12</v>
+      </c>
+      <c r="J173" t="s">
+        <v>12</v>
+      </c>
+      <c r="K173" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>558</v>
+      </c>
+      <c r="B174" t="s">
+        <v>559</v>
+      </c>
+      <c r="C174" t="s">
+        <v>560</v>
+      </c>
+      <c r="D174" t="s">
+        <v>561</v>
+      </c>
+      <c r="E174" t="s">
+        <v>16</v>
+      </c>
+      <c r="F174" t="s">
+        <v>26</v>
+      </c>
+      <c r="G174" t="s">
+        <v>27</v>
+      </c>
+      <c r="H174" t="s">
+        <v>562</v>
+      </c>
+      <c r="I174" t="s">
+        <v>563</v>
+      </c>
+      <c r="J174" t="s">
+        <v>21</v>
+      </c>
+      <c r="K174" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>12</v>
+      </c>
+      <c r="B175" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" t="s">
+        <v>12</v>
+      </c>
+      <c r="E175" t="s">
+        <v>53</v>
+      </c>
+      <c r="F175" t="s">
+        <v>54</v>
+      </c>
+      <c r="G175" t="s">
+        <v>27</v>
+      </c>
+      <c r="H175" t="s">
+        <v>564</v>
+      </c>
+      <c r="I175" t="s">
+        <v>565</v>
+      </c>
+      <c r="J175" t="s">
+        <v>21</v>
+      </c>
+      <c r="K175" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>566</v>
+      </c>
+      <c r="B176" t="s">
+        <v>567</v>
+      </c>
+      <c r="C176" t="s">
+        <v>568</v>
+      </c>
+      <c r="D176" t="s">
+        <v>569</v>
+      </c>
+      <c r="E176" t="s">
+        <v>16</v>
+      </c>
+      <c r="F176" t="s">
+        <v>26</v>
+      </c>
+      <c r="G176" t="s">
+        <v>27</v>
+      </c>
+      <c r="H176" t="s">
+        <v>570</v>
+      </c>
+      <c r="I176" t="s">
+        <v>571</v>
+      </c>
+      <c r="J176" t="s">
+        <v>21</v>
+      </c>
+      <c r="K176" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" t="s">
+        <v>12</v>
+      </c>
+      <c r="E177" t="s">
+        <v>53</v>
+      </c>
+      <c r="F177" t="s">
+        <v>54</v>
+      </c>
+      <c r="G177" t="s">
+        <v>27</v>
+      </c>
+      <c r="H177" t="s">
+        <v>572</v>
+      </c>
+      <c r="I177" t="s">
+        <v>573</v>
+      </c>
+      <c r="J177" t="s">
+        <v>21</v>
+      </c>
+      <c r="K177" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>12</v>
+      </c>
+      <c r="B178" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" t="s">
+        <v>12</v>
+      </c>
+      <c r="E178" t="s">
+        <v>12</v>
+      </c>
+      <c r="F178" t="s">
+        <v>12</v>
+      </c>
+      <c r="G178" t="s">
+        <v>12</v>
+      </c>
+      <c r="H178" t="s">
+        <v>12</v>
+      </c>
+      <c r="I178" t="s">
+        <v>12</v>
+      </c>
+      <c r="J178" t="s">
+        <v>12</v>
+      </c>
+      <c r="K178" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>574</v>
+      </c>
+      <c r="B179" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" t="s">
+        <v>12</v>
+      </c>
+      <c r="E179" t="s">
+        <v>12</v>
+      </c>
+      <c r="F179" t="s">
+        <v>12</v>
+      </c>
+      <c r="G179" t="s">
+        <v>12</v>
+      </c>
+      <c r="H179" t="s">
+        <v>12</v>
+      </c>
+      <c r="I179" t="s">
+        <v>12</v>
+      </c>
+      <c r="J179" t="s">
+        <v>12</v>
+      </c>
+      <c r="K179" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>575</v>
+      </c>
+      <c r="B180" t="s">
+        <v>576</v>
+      </c>
+      <c r="C180" t="s">
+        <v>577</v>
+      </c>
+      <c r="D180" t="s">
+        <v>578</v>
+      </c>
+      <c r="E180" t="s">
+        <v>12</v>
+      </c>
+      <c r="F180" t="s">
+        <v>12</v>
+      </c>
+      <c r="G180" t="s">
+        <v>12</v>
+      </c>
+      <c r="H180" t="s">
+        <v>12</v>
+      </c>
+      <c r="I180" t="s">
+        <v>12</v>
+      </c>
+      <c r="J180" t="s">
+        <v>12</v>
+      </c>
+      <c r="K180" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>575</v>
+      </c>
+      <c r="B181" t="s">
+        <v>579</v>
+      </c>
+      <c r="C181" t="s">
+        <v>580</v>
+      </c>
+      <c r="D181" t="s">
+        <v>581</v>
+      </c>
+      <c r="E181" t="s">
+        <v>12</v>
+      </c>
+      <c r="F181" t="s">
+        <v>12</v>
+      </c>
+      <c r="G181" t="s">
+        <v>12</v>
+      </c>
+      <c r="H181" t="s">
+        <v>12</v>
+      </c>
+      <c r="I181" t="s">
+        <v>12</v>
+      </c>
+      <c r="J181" t="s">
+        <v>12</v>
+      </c>
+      <c r="K181" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>575</v>
+      </c>
+      <c r="B182" t="s">
+        <v>582</v>
+      </c>
+      <c r="C182" t="s">
+        <v>583</v>
+      </c>
+      <c r="D182" t="s">
+        <v>584</v>
+      </c>
+      <c r="E182" t="s">
+        <v>12</v>
+      </c>
+      <c r="F182" t="s">
+        <v>12</v>
+      </c>
+      <c r="G182" t="s">
+        <v>12</v>
+      </c>
+      <c r="H182" t="s">
+        <v>12</v>
+      </c>
+      <c r="I182" t="s">
+        <v>12</v>
+      </c>
+      <c r="J182" t="s">
+        <v>12</v>
+      </c>
+      <c r="K182" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>585</v>
+      </c>
+      <c r="B183" t="s">
+        <v>586</v>
+      </c>
+      <c r="C183" t="s">
+        <v>587</v>
+      </c>
+      <c r="D183" t="s">
+        <v>588</v>
+      </c>
+      <c r="E183" t="s">
+        <v>12</v>
+      </c>
+      <c r="F183" t="s">
+        <v>12</v>
+      </c>
+      <c r="G183" t="s">
+        <v>12</v>
+      </c>
+      <c r="H183" t="s">
+        <v>12</v>
+      </c>
+      <c r="I183" t="s">
+        <v>12</v>
+      </c>
+      <c r="J183" t="s">
+        <v>12</v>
+      </c>
+      <c r="K183" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>585</v>
+      </c>
+      <c r="B184" t="s">
+        <v>589</v>
+      </c>
+      <c r="C184" t="s">
+        <v>590</v>
+      </c>
+      <c r="D184" t="s">
+        <v>591</v>
+      </c>
+      <c r="E184" t="s">
+        <v>12</v>
+      </c>
+      <c r="F184" t="s">
+        <v>12</v>
+      </c>
+      <c r="G184" t="s">
+        <v>12</v>
+      </c>
+      <c r="H184" t="s">
+        <v>12</v>
+      </c>
+      <c r="I184" t="s">
+        <v>12</v>
+      </c>
+      <c r="J184" t="s">
+        <v>12</v>
+      </c>
+      <c r="K184" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>585</v>
+      </c>
+      <c r="B185" t="s">
+        <v>592</v>
+      </c>
+      <c r="C185" t="s">
+        <v>593</v>
+      </c>
+      <c r="D185" t="s">
+        <v>594</v>
+      </c>
+      <c r="E185" t="s">
+        <v>12</v>
+      </c>
+      <c r="F185" t="s">
+        <v>12</v>
+      </c>
+      <c r="G185" t="s">
+        <v>12</v>
+      </c>
+      <c r="H185" t="s">
+        <v>12</v>
+      </c>
+      <c r="I185" t="s">
+        <v>12</v>
+      </c>
+      <c r="J185" t="s">
+        <v>12</v>
+      </c>
+      <c r="K185" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>585</v>
+      </c>
+      <c r="B186" t="s">
+        <v>595</v>
+      </c>
+      <c r="C186" t="s">
+        <v>596</v>
+      </c>
+      <c r="D186" t="s">
+        <v>597</v>
+      </c>
+      <c r="E186" t="s">
+        <v>12</v>
+      </c>
+      <c r="F186" t="s">
+        <v>12</v>
+      </c>
+      <c r="G186" t="s">
+        <v>12</v>
+      </c>
+      <c r="H186" t="s">
+        <v>12</v>
+      </c>
+      <c r="I186" t="s">
+        <v>12</v>
+      </c>
+      <c r="J186" t="s">
+        <v>12</v>
+      </c>
+      <c r="K186" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>585</v>
+      </c>
+      <c r="B187" t="s">
+        <v>598</v>
+      </c>
+      <c r="C187" t="s">
+        <v>599</v>
+      </c>
+      <c r="D187" t="s">
+        <v>600</v>
+      </c>
+      <c r="E187" t="s">
+        <v>12</v>
+      </c>
+      <c r="F187" t="s">
+        <v>12</v>
+      </c>
+      <c r="G187" t="s">
+        <v>12</v>
+      </c>
+      <c r="H187" t="s">
+        <v>12</v>
+      </c>
+      <c r="I187" t="s">
+        <v>12</v>
+      </c>
+      <c r="J187" t="s">
+        <v>12</v>
+      </c>
+      <c r="K187" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>12</v>
+      </c>
+      <c r="B188" t="s">
+        <v>12</v>
+      </c>
+      <c r="C188" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" t="s">
+        <v>12</v>
+      </c>
+      <c r="E188" t="s">
+        <v>12</v>
+      </c>
+      <c r="F188" t="s">
+        <v>12</v>
+      </c>
+      <c r="G188" t="s">
+        <v>12</v>
+      </c>
+      <c r="H188" t="s">
+        <v>12</v>
+      </c>
+      <c r="I188" t="s">
+        <v>12</v>
+      </c>
+      <c r="J188" t="s">
+        <v>12</v>
+      </c>
+      <c r="K188" t="s">
         <v>12</v>
       </c>
     </row>

--- a/allPages/allPagesUK-SEO.xlsx
+++ b/allPages/allPagesUK-SEO.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="647">
   <si>
     <t>Date</t>
   </si>
@@ -76,12 +76,12 @@
     <t>https://www.deviantart.com/oscardalado/journal/Carrier-998947539</t>
   </si>
   <si>
+    <t>Митне оформлення</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -91,6 +91,9 @@
     <t>https://www.quora.com/What-is-your-favorite-mode-of-transportation-and-why/answer/Tarra-Waite?prompt_topic_bio=1</t>
   </si>
   <si>
+    <t>Доставка вантажів</t>
+  </si>
+  <si>
     <t>Profile</t>
   </si>
   <si>
@@ -103,24 +106,36 @@
     <t>https://www.noranetworks.io/community/profile/kelah/</t>
   </si>
   <si>
+    <t>Консультації ЗЕД</t>
+  </si>
+  <si>
     <t>earthpeopletechnology.com</t>
   </si>
   <si>
     <t>https://earthpeopletechnology.com/forums/profile/tyresd</t>
   </si>
   <si>
+    <t>Митний брокер</t>
+  </si>
+  <si>
     <t>manilla-cycling.co.uk</t>
   </si>
   <si>
     <t>https://www.manilla-cycling.co.uk/community/profile/kelah14/</t>
   </si>
   <si>
+    <t>Послуга імпортера</t>
+  </si>
+  <si>
     <t>hotfrog.co.uk</t>
   </si>
   <si>
     <t>https://www.hotfrog.co.uk/company/834516937bae82811f632d1f814963ab/transholdua/london/mass-public-transportation</t>
   </si>
   <si>
+    <t>авто перевезення</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -130,12 +145,18 @@
     <t>https://www.merchantcircle.com/logisticsuaservices-erie-pa</t>
   </si>
   <si>
+    <t>експедитор України</t>
+  </si>
+  <si>
     <t>sketchfab.com</t>
   </si>
   <si>
     <t>https://sketchfab.com/Airtransportationgoods</t>
   </si>
   <si>
+    <t>Авіа перевезення вантажів</t>
+  </si>
+  <si>
     <t>guestlist.co</t>
   </si>
   <si>
@@ -148,30 +169,45 @@
     <t>https://favor.com.ua/ru/blogs/39275.html</t>
   </si>
   <si>
+    <t>Розмитнення вантажів</t>
+  </si>
+  <si>
     <t>esurveyspro.com</t>
   </si>
   <si>
     <t>https://www.esurveyspro.com/Survey.aspx?id=680aa6af-a8a1-4693-b1bf-575cd8f4410c</t>
   </si>
   <si>
+    <t>консультації ЗЕД</t>
+  </si>
+  <si>
     <t>penzu.com</t>
   </si>
   <si>
     <t>https://penzu.com/public/886f2feb632bf837</t>
   </si>
   <si>
+    <t>доставка вантажів з Китаю</t>
+  </si>
+  <si>
     <t>hackmd.io</t>
   </si>
   <si>
     <t>https://hackmd.io/@ke6DBcX3ThGQuGpwyy3H5w/ry3bKFHe1g</t>
   </si>
   <si>
+    <t>митний Брокер Київ</t>
+  </si>
+  <si>
     <t>vocal.com.ua</t>
   </si>
   <si>
     <t>https://www.vocal.com.ua/node/64277</t>
   </si>
   <si>
+    <t>доставка вантажів</t>
+  </si>
+  <si>
     <t>20/06/2024</t>
   </si>
   <si>
@@ -184,7 +220,7 @@
     <t>https://www.autoriginal.com.ua/forum/tryop/4746-pracyu-mo-z-kita-m.html</t>
   </si>
   <si>
-    <t>Forms of ownership in Ukraine</t>
+    <t>доставка з китаю</t>
   </si>
   <si>
     <t>getrejoin.com</t>
@@ -193,24 +229,36 @@
     <t>https://getrejoin.com/ua/question/tovaroobig-z-yevropoyu-1678941.html</t>
   </si>
   <si>
+    <t>міжнародна доставка з Європи</t>
+  </si>
+  <si>
     <t>forum.osvita.od.ua</t>
   </si>
   <si>
     <t>http://forum.osvita.od.ua/viewtopic.php?f=2&amp;t=34897</t>
   </si>
   <si>
+    <t>мультимодальна логістика</t>
+  </si>
+  <si>
     <t>hero.izmail-city.com</t>
   </si>
   <si>
     <t>https://hero.izmail-city.com/forum/read.php?6,22183</t>
   </si>
   <si>
+    <t>митні послуги</t>
+  </si>
+  <si>
     <t>krasnoselka.od.ua</t>
   </si>
   <si>
     <t>http://krasnoselka.od.ua/forum/viewtopic.php?id=2447</t>
   </si>
   <si>
+    <t>вантажоперевезення морем</t>
+  </si>
+  <si>
     <t>forum.anime.org.ua</t>
   </si>
   <si>
@@ -229,15 +277,15 @@
     <t>https://medium.com/@tampiclukrus/%D0%BF%D0%BE%D1%81%D0%BE%D0%B2%D0%B5%D1%82%D1%83%D0%B9%D1%82%D0%B5-%D0%BA%D0%BE%D0%BC%D0%BF%D0%B0%D0%BD%D0%B8%D1%8E-%D0%BF%D0%BE-%D0%B3%D1%80%D1%83%D0%B7%D0%BE%D0%BF%D0%B5%D1%80%D0%B5%D0%B2%D0%BE%D0%B7%D0%BA%D0%B0%D0%BC-311efbbaa4af</t>
   </si>
   <si>
+    <t>митне оформлення</t>
+  </si>
+  <si>
     <t>20/05/2024</t>
   </si>
   <si>
     <t>http://footwear.ua/forum/index.php?act=morelist&amp;id_parent=81065&amp;id_group=7&amp;offset_detail=0</t>
   </si>
   <si>
-    <t>Sea container transportation port Odessa</t>
-  </si>
-  <si>
     <t>20/04/2024</t>
   </si>
   <si>
@@ -247,1365 +295,1443 @@
     <t>https://uin.in.ua/forum/viewtopic.php?f=4&amp;t=47372&amp;sid=1b0a2b9509713a037b8efba7152f8473</t>
   </si>
   <si>
+    <t>agropravda.com</t>
+  </si>
+  <si>
+    <t>https://agropravda.com/forum/topic3936-dostavki-vantazhu.html</t>
+  </si>
+  <si>
+    <t>морськи перевезення</t>
+  </si>
+  <si>
+    <t>gorod.kr.ua</t>
+  </si>
+  <si>
+    <t>https://gorod.kr.ua/forum/showthread.php?t=113177</t>
+  </si>
+  <si>
+    <t>17/03/2024</t>
+  </si>
+  <si>
+    <t>webwiki.com</t>
+  </si>
+  <si>
+    <t>https://www.webwiki.com/t-h-logistics.com</t>
+  </si>
+  <si>
+    <t>pastebin.com</t>
+  </si>
+  <si>
+    <t>https://pastebin.com/u/PedroSilv</t>
+  </si>
+  <si>
+    <t>linktr.ee</t>
+  </si>
+  <si>
+    <t>https://linktr.ee/jameswilso</t>
+  </si>
+  <si>
+    <t>hanson.net</t>
+  </si>
+  <si>
+    <t>https://hanson.net/users/RicardoBarbosa</t>
+  </si>
+  <si>
+    <t>leetcode.com</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/ThiagoFernandes/</t>
+  </si>
+  <si>
+    <t>issuu.com</t>
+  </si>
+  <si>
+    <t>https://issuu.com/t-h-logistics.com</t>
+  </si>
+  <si>
+    <t>wakelet.com</t>
+  </si>
+  <si>
+    <t>https://wakelet.com/@JamesWilson71358</t>
+  </si>
+  <si>
+    <t>taplink.cc</t>
+  </si>
+  <si>
+    <t>https://taplink.cc/avidaylor</t>
+  </si>
+  <si>
+    <t>26/02/2024</t>
+  </si>
+  <si>
+    <t>odessaforum.biz.ua</t>
+  </si>
+  <si>
+    <t>https://odessaforum.biz.ua/viewtopic.php?f=4&amp;t=4878</t>
+  </si>
+  <si>
+    <t>acm.lviv.ua</t>
+  </si>
+  <si>
+    <t>http://acm.lviv.ua/fusion/forum/viewthread.php?forum_id=85&amp;thread_id=6845</t>
+  </si>
+  <si>
+    <t>ferdinand.com.ua</t>
+  </si>
+  <si>
+    <t>https://ferdinand.com.ua/forum/topics/profesijne-mitne-oformlennja-z-trans-hope-u-kijevi.12723/</t>
+  </si>
+  <si>
+    <t>dom.zeleniymis.com.ua</t>
+  </si>
+  <si>
+    <t>https://dom.zeleniymis.com.ua/topic/2357-%D1%83%D0%B2%D0%B5%D1%80%D0%B5%D0%BD%D0%BD%D0%BE%D0%B5-%D0%BF%D0%B0%D1%80%D1%82%D0%BD%D0%B5%D1%80%D1%81%D1%82%D0%B2%D0%BE-%D0%B2-%D1%82%D0%B0%D0%BC%D0%BE%D0%B6%D0%B5%D0%BD%D0%BD%D1%8B%D1%85-%D1%83%D1%81%D0%BB%D1%83%D0%B3%D0%B0%D1%85-%D1%81-trans-hope-%D0%BE%D1%82%D0%B7%D1%8B%D0%B2-%D0%BE-%D0%BA%D0%B0%D1%87%D0%B5%D1%81%D1%82%D0%B2%D0%B5%D0%BD%D0%BD%D0%BE%D0%B9-%D0%BB%D0%BE%D0%B3%D0%B8%D1%81%D1%82%D0%B8%D0%BA%D0%B5-%D0%B2-%D0%BA%D0%B8%D0%B5%D0%B2%D0%B5/</t>
+  </si>
+  <si>
+    <t>авіа перевезення</t>
+  </si>
+  <si>
+    <t>https://agropravda.com/forum/post11323.html</t>
+  </si>
+  <si>
+    <t>Контейнерні перевезення</t>
+  </si>
+  <si>
+    <t>eno.one</t>
+  </si>
+  <si>
+    <t>https://eno.one/dominique.borcy/forums?t=5376</t>
+  </si>
+  <si>
+    <t>pokupki.bestforums.org</t>
+  </si>
+  <si>
+    <t>http://pokupki.bestforums.org/viewtopic.php?f=12&amp;t=14840</t>
+  </si>
+  <si>
+    <t>20/01/2024</t>
+  </si>
+  <si>
+    <t>goldkeys.forum.cool</t>
+  </si>
+  <si>
+    <t>https://goldkeys.forum.cool/viewtopic.php?id=1382</t>
+  </si>
+  <si>
+    <t>Авто перевезення</t>
+  </si>
+  <si>
+    <t>10/01/2024</t>
+  </si>
+  <si>
+    <t>mistik.rolka.me</t>
+  </si>
+  <si>
+    <t>https://mistik.rolka.me/viewtopic.php?id=1028</t>
+  </si>
+  <si>
+    <t>aidablago.rolka.me</t>
+  </si>
+  <si>
+    <t>https://aidablago.rolka.me/viewtopic.php?id=1257</t>
+  </si>
+  <si>
+    <t>Авіа перевезення</t>
+  </si>
+  <si>
+    <t>high.tforums.org</t>
+  </si>
+  <si>
+    <t>http://high.tforums.org/viewtopic.php?f=11&amp;t=2947&amp;p=6597</t>
+  </si>
+  <si>
+    <t>30/12/2023</t>
+  </si>
+  <si>
+    <t>ternopilcars.pp.net.ua</t>
+  </si>
+  <si>
+    <t>http://ternopilcars.pp.net.ua/forum/19-2683-1</t>
+  </si>
+  <si>
+    <t>20/12/2023</t>
+  </si>
+  <si>
+    <t>http://forum.osvita.od.ua/viewtopic.php?f=1&amp;t=11033&amp;p=87414</t>
+  </si>
+  <si>
+    <t>Консолідація вантажів</t>
+  </si>
+  <si>
+    <t>familyportal.forumrom.com</t>
+  </si>
+  <si>
+    <t>https://familyportal.forumrom.com/viewtopic.php?id=15633</t>
+  </si>
+  <si>
+    <t>Митний брокер Київ</t>
+  </si>
+  <si>
+    <t>setka.pp.net.ua</t>
+  </si>
+  <si>
+    <t>http://setka.pp.net.ua/forum/50-1861-1</t>
+  </si>
+  <si>
+    <t>10/12/2023</t>
+  </si>
+  <si>
+    <t>superjackson.ukrbb.net</t>
+  </si>
+  <si>
+    <t>http://superjackson.ukrbb.net/viewtopic.php?f=28&amp;t=5902&amp;p=31088</t>
+  </si>
+  <si>
+    <t>03.11.2024</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/test</t>
+  </si>
+  <si>
+    <t>15.08.2024</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/business_in_ukraine</t>
+  </si>
+  <si>
+    <t>Послуги ЗЕД, доставки та розмитнення вантажів в Україні в містах Київ, Львів, Одеса</t>
+  </si>
+  <si>
+    <t>торговий посередник, зовнішньоторговельний агент, експортний консультант, імпортний брокер, ЗЕД консультації, світова торгівля, міжнародний бізнес, торгівля з Україною, зовнішньоекономічна діяльність</t>
+  </si>
+  <si>
+    <t>14.08.2024</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/usefull</t>
+  </si>
+  <si>
+    <t>Корисні матеріали з митного оформлення та доставки вантажів: поради та інструкції</t>
+  </si>
+  <si>
+    <t>митне оформлення вантажів, інструкції з доставки вантажів, логістика та митне оформлення, успішна доставка вантажів, як доставити вантаж через митницю, логістика та митне оформлення</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/customs</t>
+  </si>
+  <si>
+    <t>Митний брокер і митне оформлення в Києві, Одесі, Львові</t>
+  </si>
+  <si>
+    <t>митне оформлення Київ, послуги митного оформлення Львів, митний брокер Одеса, розрахунок митних платежів, супровід вантажів, митні документи, митні послуги, митні документи</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/sea</t>
+  </si>
+  <si>
+    <t>Морські контейнерні перевезення і доставка вантажів зі США та Китаю в Україну</t>
+  </si>
+  <si>
+    <t>доставка вантажів зі США в Україну, морські контейнерні перевезення, доставка з Китаю в Україну, контейнерні перевезення Україна, морська доставка з Китаю, міжнародні морські перевезення</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/air</t>
+  </si>
+  <si>
+    <t>Авіа доставка та авіаперевезення вантажів в Україну: швидко і надійно</t>
+  </si>
+  <si>
+    <t>авіаперевезення вантажів Україна, авіа доставка в Україну, міжнародна авіадоставка, транспортування вантажів літаком, авіа логістика Україна, Експрес-доставка авіа, Авіафрахт, Авіафрахт, Авіаперевезення вантажів, Авіа логістика, Авіаперевезення вантажів, Авіаперевезення з Китаю, Авіаперевезення до Європи, Авіаперевезення вантажів, Авіаперевезення небезпечних вантажів, Авіаперевезення небезпечних вантажів</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/truck</t>
+  </si>
+  <si>
+    <t>Автоперевезення і доставка вантажів з Європи: швидкі та безпечні рішення</t>
+  </si>
+  <si>
+    <t>авто перевезення з Європи, доставка вантажів авто транспортом, міжнародна авто доставка, транспортування товарів з Європи, авто логістика Європа, доставка вантажів автотранспортом</t>
+  </si>
+  <si>
+    <t>25.10.2023</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/cost_of_opening_a_legal_entity_in_ukraine</t>
+  </si>
+  <si>
+    <t>Вартість відкриття юридичної особи в Україні: детальний огляд і розрахунки</t>
+  </si>
+  <si>
+    <t>Створення фірми в Україні, реєстрація юридичної особи, витрати на відкриття компанії, вартість реєстрації бізнесу, витрати на юридичну особу, бюджет для реєстрації фірми, вартість реєстрації бізнесу</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/hr_search_in_ukraine</t>
+  </si>
+  <si>
+    <t>Ефективний Пошук Персоналу в Україні: Професійні HR-рішення</t>
+  </si>
+  <si>
+    <t>підбір персоналу, рекрутинг в Україні, HR-послуги, кадрове агентство, працевлаштування в Україні, управління персоналом, пошук фахівців, кадровий консалтинг, HR-консультації, персональні ресурси України</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/tax_reporting_in_ukraine</t>
+  </si>
+  <si>
+    <t>Податкова Звітність в Україні: Детальний огляд і Правила Підготовки</t>
+  </si>
+  <si>
+    <t>податкова звітність, податкові декларації, податкові зобов'язання, податкові ставки, податкові норми, податкове законодавство, бухгалтерія та податки, податкові зміни, податкові обов'язки, податкове адміністрування</t>
+  </si>
+  <si>
+    <t>24.10.2023</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/bank_account_in_ukraine</t>
+  </si>
+  <si>
+    <t>Відкриття та ведення банківського рахунку для юридичних осіб в Україні: Повне керівництво</t>
+  </si>
+  <si>
+    <t>бізнес-рахунок, корпоративний рахунок, банківські послуги для компаній, банківське обслуговування юридичних осіб, фінансова діяльність організацій, рахунок у банку України, відкриття рахунку для підприємства, банківські послуги для фірм</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/taxation_forms_in_ukraine</t>
+  </si>
+  <si>
+    <t>Форми оподаткування в Україні: Як обрати правильний податковий режим для вашого бізнесу</t>
+  </si>
+  <si>
+    <t>податкові режими, податкова система, податкові зобов'язання, податкова ставка, податкові пільги, сплата податків, податкова оптимізація, податковий режим для бізнесу, податковий облік, податкова політика, податкова звітність, податкові зобов'язання</t>
+  </si>
+  <si>
+    <t>23.10.2023</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/legal_address_in_ukraine</t>
+  </si>
+  <si>
+    <t>Юридична адреса в Україні: важливий елемент для Вашого бізнесу</t>
+  </si>
+  <si>
+    <t>адреса реєстрації в Україні, реєстрація юридичної адреси, податкова адреса, офісний простір, юридична реєстрація, вибір місця розташування, репутація компанії, податкові зобов'язання</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/main_forms_of_ownership_in_ukraine</t>
+  </si>
+  <si>
+    <t>Форми власності в Україні: все, що вам потрібно знати</t>
+  </si>
+  <si>
+    <t>власність в Україні, реєстрація власності, правила власності, форми власності в бізнесі, володіння нерухомістю, власність і податки, види власності</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/opening_a_company_in_ukraine</t>
+  </si>
+  <si>
+    <t>Відкриття Фірми в Україні: Крок за Кроком Керівництво та Поради</t>
+  </si>
+  <si>
+    <t>реєстрація фірми, бізнес в Україні, стартап в Україні, підприємництво в Україні, заснувати компанію, податкове законодавство, правила реєстрації, документи для бізнесу, стартап в Україні</t>
+  </si>
+  <si>
+    <t>tapatalk.com</t>
+  </si>
+  <si>
+    <t>https://www.tapatalk.com/groups/ukraineforum/-t2106.html</t>
+  </si>
+  <si>
+    <t>Відкриття Фірми в Україні</t>
+  </si>
+  <si>
+    <t>forum.ostroyke.com.ua</t>
+  </si>
+  <si>
+    <t>https://forum.ostroyke.com.ua/threads/%D0%92%D1%81%D0%B5-%D0%BF%D1%80%D0%BE-%D0%B1%D1%96%D0%B7%D0%BD%D0%B5%D1%81.22596/</t>
+  </si>
+  <si>
+    <t>dibiz.com</t>
+  </si>
+  <si>
+    <t>https://www.dibiz.com/filippvaslyaev</t>
+  </si>
+  <si>
+    <t>22.10.2023</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/trade_agent_in_ukraine</t>
+  </si>
+  <si>
+    <t>Торговий Агент в Україні: Ефективна Підтримка вашого ЗЕД Бізнесу</t>
+  </si>
+  <si>
+    <t>rolandus.org</t>
+  </si>
+  <si>
+    <t>https://www.rolandus.org/forum/viewtopic.php?t=66776</t>
+  </si>
+  <si>
+    <t>торговий агент в Україні</t>
+  </si>
+  <si>
+    <t>27/05/2024</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>repo.getmonero.org</t>
+  </si>
+  <si>
+    <t>https://tablo.com/genres/classics/discussions/8666</t>
+  </si>
+  <si>
+    <t>forum.i.ua</t>
+  </si>
+  <si>
+    <t>https://forum.i.ua/topic/18964</t>
+  </si>
+  <si>
+    <t>30/01/2024</t>
+  </si>
+  <si>
+    <t>chernihov.moy.su</t>
+  </si>
+  <si>
+    <t>https://chernihov.moy.su/forum/45-854-1</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/foreign_trade_consulting</t>
+  </si>
+  <si>
+    <t>Консультації ЗЕД: Експертне Керівництво із Зовнішньоекономічної Діяльності</t>
+  </si>
+  <si>
+    <t>консалтинг ЗЕД, ЗЕД послуги, експортно-імпортні консультації, митне консультування, міжнародна торгівля, експортні процедури, імпортні правила, ЗЕД експерт, зовнішньоекономічна діяльність</t>
+  </si>
+  <si>
+    <t>list.ly</t>
+  </si>
+  <si>
+    <t>https://list.ly/logical-transhope</t>
+  </si>
+  <si>
+    <t>velodnepr.dp.ua</t>
+  </si>
+  <si>
+    <t>https://velodnepr.dp.ua/forum/viewtopic.php?f=18&amp;t=31448</t>
+  </si>
+  <si>
+    <t>hashnode.com</t>
+  </si>
+  <si>
+    <t>https://hashnode.com/@JenniferClark</t>
+  </si>
+  <si>
+    <t>21.10.2023</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/multimodal_transportation</t>
+  </si>
+  <si>
+    <t>Мультимодальні Перевезення в Україні: Оптимізація Логістики для Вашого Бізнесу</t>
+  </si>
+  <si>
+    <t>мультимодальна логістика, комбіновані перевезення, перевезення вантажів через різні види транспорту, глобальні мультимодальні рішення, оптимізація вантажоперевезень, мультимодальні перевезення в Європі, мультимодальні перевезення вантажів, мультимодальні перевезення всередині країни, мультимодальна доставка, мультимодальний транспорт</t>
+  </si>
+  <si>
+    <t>https://www.deviantart.com/aposta-cassino/journal/Carrier-company-995008257</t>
+  </si>
+  <si>
+    <t>мультимодальні перевезення</t>
+  </si>
+  <si>
+    <t>https://www.deviantart.com/markovichcargo</t>
+  </si>
+  <si>
+    <t>замовити мультимодальні перевезення</t>
+  </si>
+  <si>
+    <t>snapped.mn.co</t>
+  </si>
+  <si>
+    <t>https://snapped.mn.co/members/22630413</t>
+  </si>
+  <si>
+    <t>fileua.forum.cool</t>
+  </si>
+  <si>
+    <t>https://fileua.forum.cool/viewtopic.php?id=5789</t>
+  </si>
+  <si>
+    <t>Мультимодальна доставка</t>
+  </si>
+  <si>
+    <t>19.10.2023</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/airfreight_costs</t>
+  </si>
+  <si>
+    <t>Вартість Авіаперевезення: Як розрахувати й оптимізувати Ваші витрати</t>
+  </si>
+  <si>
+    <t>вартість вантажоперевезення авіатранспортом, тарифи на авіаперевезення, ціни на авіадоставку, витрати на авіаперевезення, вартість авіатранспортування, бюджет для авіаперевезення, економія на авіадоставці, вартість авіаперевезення вантажів</t>
+  </si>
+  <si>
+    <t>http://forum.anime.org.ua/bbs/showthread.php?t=33797</t>
+  </si>
+  <si>
+    <t>ціни на авіадоставку</t>
+  </si>
+  <si>
+    <t>odessaflower.ukrbb.net</t>
+  </si>
+  <si>
+    <t>http://odessaflower.ukrbb.net/viewtopic.php?f=67&amp;t=23071&amp;p=139286</t>
+  </si>
+  <si>
+    <t>Авіаперевезення з Китаю</t>
+  </si>
+  <si>
+    <t>15.10.2023</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/cargo_delivery_from_Europe</t>
+  </si>
+  <si>
+    <t>Доставка вантажів з Європи: Ефективна Логістика для Вашого Бізнесу</t>
+  </si>
+  <si>
+    <t>міжнародна доставка з Європи, логістика вантажів з Європи, імпорт з Європи, експорт до Європи, вантажоперевезення в Європу, транспортування товарів з Європи, європейські поставки, перевезення вантажів через Європу</t>
+  </si>
+  <si>
+    <t>13.10.2023</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/port_forwarding</t>
+  </si>
+  <si>
+    <t>Портове Експедирування в Україні - Надійна Логістика Ваших Вантажів</t>
+  </si>
+  <si>
+    <t>морське експедирування, портові послуги, експедирування вантажів у порту, портова логістика, обробка вантажів у порту, морські термінали, портова інфраструктура, вантажі в порту, морські перевезення</t>
+  </si>
+  <si>
+    <t>500px.com</t>
+  </si>
+  <si>
+    <t>https://500px.com/photo/1080967280/mul%D1%8Ctimodal%D1%8Cnyh-perevozki-by-tara-waite</t>
+  </si>
+  <si>
+    <t>портове експедирування</t>
+  </si>
+  <si>
+    <t>evernote.com</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s339/sh/bbc2a091-53b7-fdab-a688-2a1ff2a4ef5b/OAGedar9W4CUcpzSCrfTMeENr9BIoBH72oWZO6Dopj2zNaMxSin4I8aZTw</t>
+  </si>
+  <si>
+    <t>знайти портове експедирування</t>
+  </si>
+  <si>
+    <t>disqus.com</t>
+  </si>
+  <si>
+    <t>https://disqus.com/home/discussion/itinua/c8c8ca3440a84fcb90059c31abae8ba6/newest/</t>
+  </si>
+  <si>
+    <t>Портове експедирування в Україні</t>
+  </si>
+  <si>
+    <t>kievisp.com</t>
+  </si>
+  <si>
+    <t>http://www.kievisp.com/forum/index.php?showtopic=105159</t>
+  </si>
+  <si>
+    <t>https://getrejoin.com/ua/question/morski-vantazhoperevezennya-1679457.html</t>
+  </si>
+  <si>
+    <t>shooter.org.ua</t>
+  </si>
+  <si>
+    <t>https://shooter.org.ua/viewtopic.php?f=2&amp;t=172711</t>
+  </si>
+  <si>
+    <t>експедирування вантажів у порту</t>
+  </si>
+  <si>
+    <t>4yo.us</t>
+  </si>
+  <si>
+    <t>https://www.4yo.us/Martinez</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/customs_brokerage_services_cost</t>
+  </si>
+  <si>
+    <t>Вартість Послуг Митного Брокера в Україні: Професійна Допомога та Оптимізація ЗЕД</t>
+  </si>
+  <si>
+    <t>послуги митного брокера, вартість митного брокера, митний брокер Київ, митний брокер Одеса, митний брокер Львів, послуги митного оформлення, вартість митних послуг, митне оформлення вантажів, митні брокери Україна</t>
+  </si>
+  <si>
+    <t>us.enrollbusiness.com</t>
+  </si>
+  <si>
+    <t>https://us.enrollbusiness.com/BusinessProfile/6721969/UALogisticsCompany</t>
+  </si>
+  <si>
+    <t>Вартість Послуг Митного Брокера</t>
+  </si>
+  <si>
+    <t>arma.at.ua</t>
+  </si>
+  <si>
+    <t>https://arma.at.ua/forum/29-13056-1</t>
+  </si>
+  <si>
+    <t>https://odessaforum.biz.ua/viewtopic.php?f=7&amp;t=5352</t>
+  </si>
+  <si>
+    <t>розцінки митних послуг</t>
+  </si>
+  <si>
+    <t>25/04/2024</t>
+  </si>
+  <si>
+    <t>pubhtml5.com</t>
+  </si>
+  <si>
+    <t>https://pubhtml5.com/homepage/ikixi/</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/customs_broker</t>
+  </si>
+  <si>
+    <t>Митний брокер: Професійні послуги в Києві, Одесі та Львові</t>
+  </si>
+  <si>
+    <t>митний брокер, послуги митного брокера, митне оформлення, митний брокер Київ, митний брокер Одеса, митний брокер Львів, митні послуги, міжнародна торгівля, імпорт та експорт, митне декларування, митні послуги, митні послуги</t>
+  </si>
+  <si>
+    <t>petsinform.com</t>
+  </si>
+  <si>
+    <t>http://www.petsinform.com/forum/viewtopic.php?f=31&amp;t=33761</t>
+  </si>
+  <si>
+    <t>митний брокер</t>
+  </si>
+  <si>
+    <t>forum.ginecologkiev.com.ua</t>
+  </si>
+  <si>
+    <t>https://forum.ginecologkiev.com.ua/viewtopic.php?f=49&amp;t=25236</t>
+  </si>
+  <si>
+    <t>mazdaclub.ua</t>
+  </si>
+  <si>
+    <t>http://www.mazdaclub.ua/forum/index.php?showtopic=121846</t>
+  </si>
+  <si>
+    <t>provenexpert.com</t>
+  </si>
+  <si>
+    <t>https://www.provenexpert.com/jameswilson/</t>
+  </si>
+  <si>
+    <t>aveo.com.ua</t>
+  </si>
+  <si>
+    <t>https://aveo.com.ua/smf/index.php?topic=183708.new</t>
+  </si>
+  <si>
+    <t>послуги митного брокер</t>
+  </si>
+  <si>
+    <t>deformation.pp.net.ua</t>
+  </si>
+  <si>
+    <t>http://deformation.pp.net.ua/forum/6-741-1</t>
+  </si>
+  <si>
+    <t>12.10.2023</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/fqas</t>
+  </si>
+  <si>
+    <t>Запитання, що часто ставляться (FAQs)</t>
+  </si>
+  <si>
+    <t>FAQ запитання та відповіді, Інформація для клієнтів, Пояснення послуг, Типові запитання, Посібник для користувачів, Часті запити, Детальні відповіді, Допомога та поради, Клієнтська підтримка</t>
+  </si>
+  <si>
+    <t>domestika.org</t>
+  </si>
+  <si>
+    <t>https://www.domestika.org/en/logisticsua</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/help</t>
+  </si>
+  <si>
+    <t>Допомога та Підтримка: Ваш Гід у Світі Доставки та Розмитнення Вантажів</t>
+  </si>
+  <si>
+    <t>служба підтримки, клієнтська підтримка, допомога клієнтам, поширені запитання, контакти служби підтримки, підтримка клієнтів, зворотний зв'язок, допомога в доставці вантажів, консультація клієнтів, технічна підтримка</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/cookies</t>
+  </si>
+  <si>
+    <t>Cookies</t>
+  </si>
+  <si>
+    <t>prosvadby.com</t>
+  </si>
+  <si>
+    <t>http://www.prosvadby.com/forum/viewtopic.php?f=10&amp;t=980950</t>
+  </si>
+  <si>
+    <t>Митне оформлення Cookies</t>
+  </si>
+  <si>
+    <t>05.10.2023</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/terms_conditions</t>
+  </si>
+  <si>
+    <t>Умови використання</t>
+  </si>
+  <si>
+    <t>умови використання, умови обслуговування, політика використання, угода про користування, правила користування, угода про послуги, правила користування сайтом, користувацька угода, умови забезпечення безпеки, правила безпеки, умови доставки, угода про розмитнення, правила обробки даних</t>
+  </si>
+  <si>
+    <t>https://www.quora.com/profile/Jenny-Taylor-535/%D0%A0%D0%BE%D0%BB%D1%8C-%D1%82%D0%B0-%D0%B2%D1%96%D0%B4%D0%BF%D0%BE%D0%B2%D1%96%D0%B4%D0%B0%D0%BB%D1%8C%D0%BD%D1%96%D1%81%D1%82%D1%8C-%D0%BC%D0%B8%D1%82%D0%BD%D0%BE%D0%B3%D0%BE-%D0%B1%D1%80%D0%BE%D0%BA%D0%B5%D1%80%D0%B0-%D0%B2-%D1%81%D1%83%D1%87%D0%B0%D1%81%D0%BD%D1%96%D0%B9-%D0%BB%D0%BE%D0%B3%D1%96%D1%81%D1%82%D0%B8%D1%86%D1%96</t>
+  </si>
+  <si>
+    <t>відповідальність митного брокера</t>
+  </si>
+  <si>
+    <t>https://aveo.com.ua/smf/index.php?topic=188947.0</t>
+  </si>
+  <si>
+    <t>forum.dneprcity.net</t>
+  </si>
+  <si>
+    <t>https://forum.dneprcity.net/showthread.php?t=332352</t>
+  </si>
+  <si>
+    <t>Умови використання послуг митного оформлення</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/privacy_policy</t>
+  </si>
+  <si>
+    <t>Політика конфіденційності</t>
+  </si>
+  <si>
+    <t>Конфіденційність даних, захист особистих даних, обробка персональних даних, політика конфіденційності сайту, згода на обробку даних, правила конфіденційності, GDPR, захист конфіденційності, захист конфіденційності, інформаційна безпека, забезпечення конфіденційності, політика конфіденційності клієнтів</t>
+  </si>
+  <si>
+    <t>freeboard.com.ua</t>
+  </si>
+  <si>
+    <t>https://www.freeboard.com.ua/forum/viewtopic.php?id=103759</t>
+  </si>
+  <si>
+    <t>Політика конфіденційності в перевезеннях</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/about_us</t>
+  </si>
+  <si>
+    <t>Про Нас: Транс-Хоуп, Ваш Надійний Партнер у Доставці та Розмитненні Вантажів</t>
+  </si>
+  <si>
+    <t>Про нас</t>
+  </si>
+  <si>
+    <t>bittogether.com</t>
+  </si>
+  <si>
+    <t>https://bittogether.com/index.php?topic=16672.0</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/customs_clearance</t>
+  </si>
+  <si>
+    <t>Професійне Митне Оформлення Київ, Одеса, Львів. Швидко і Надійно</t>
+  </si>
+  <si>
+    <t>pandora.ukrbb.net</t>
+  </si>
+  <si>
+    <t>http://pandora.ukrbb.net/viewtopic.php?f=2&amp;t=5495&amp;p=11433</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/container_delivery</t>
+  </si>
+  <si>
+    <t>Морські контейнерні перевезення: Надійність та Економія</t>
+  </si>
+  <si>
+    <t>морські контейнерні перевезення, морські перевезення, морська логістика, контейнерні перевезення, вантажоперевезення морем, міжнародні морські перевезення, контейнерні морські перевезення, морський транспорт, вантажоперевезення контейнерами, морська експедиція, морські лінії, морські перевезення товарів, морська доставка, морські вантажні перевезення, контейнерна логістика, морське транспортування, морські вантажні послуги</t>
+  </si>
+  <si>
+    <t>flickr.com</t>
+  </si>
+  <si>
+    <t>https://www.flickr.com/photos/127037282@N06/15234815915/in/dateposted/</t>
+  </si>
+  <si>
     <t>контейнерні перевезення з Китаю</t>
   </si>
   <si>
-    <t>agropravda.com</t>
-  </si>
-  <si>
-    <t>https://agropravda.com/forum/topic3936-dostavki-vantazhu.html</t>
-  </si>
-  <si>
-    <t>Портове експедирування в Україні</t>
-  </si>
-  <si>
-    <t>gorod.kr.ua</t>
-  </si>
-  <si>
-    <t>https://gorod.kr.ua/forum/showthread.php?t=113177</t>
-  </si>
-  <si>
-    <t>Митний брокер</t>
-  </si>
-  <si>
-    <t>17/03/2024</t>
-  </si>
-  <si>
-    <t>webwiki.com</t>
-  </si>
-  <si>
-    <t>https://www.webwiki.com/t-h-logistics.com</t>
-  </si>
-  <si>
-    <t>Tax reporting in Ukraine</t>
-  </si>
-  <si>
-    <t>pastebin.com</t>
-  </si>
-  <si>
-    <t>https://pastebin.com/u/PedroSilv</t>
-  </si>
-  <si>
-    <t>Starting a company in Ukraine</t>
-  </si>
-  <si>
-    <t>linktr.ee</t>
-  </si>
-  <si>
-    <t>https://linktr.ee/jameswilso</t>
-  </si>
-  <si>
-    <t>rent legal address in Ukraine</t>
-  </si>
-  <si>
-    <t>hanson.net</t>
-  </si>
-  <si>
-    <t>https://hanson.net/users/RicardoBarbosa</t>
+    <t>ukrom.in.ua</t>
+  </si>
+  <si>
+    <t>https://ukrom.in.ua/blogs/103146-morsk-konteinern-perevezennja-nad-inii-shljah-do-globalnogo-rinku.html</t>
+  </si>
+  <si>
+    <t>Переваги морських контейнерних перевезень</t>
+  </si>
+  <si>
+    <t>forum.santechnik.org.ua</t>
+  </si>
+  <si>
+    <t>http://forum.santechnik.org.ua/viewtopic.php?f=14&amp;t=3353</t>
+  </si>
+  <si>
+    <t>Морські контейнерні перевезення</t>
+  </si>
+  <si>
+    <t>gitlab.com</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/growth-hormone-supplement/moving-company/-/issues/1</t>
+  </si>
+  <si>
+    <t>знайти морські контейнерні перевезення</t>
+  </si>
+  <si>
+    <t>https://www.flickr.com/photos/142297319@N06/45781011651/</t>
+  </si>
+  <si>
+    <t>морські контейнерні перевезення</t>
+  </si>
+  <si>
+    <t>https://forum.dneprcity.net/showthread.php?t=307091&amp;highlight=%EB%EE%E3%E8%F1%F2%E8%EA%E0</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/truck_delivery</t>
+  </si>
+  <si>
+    <t>Авто Перевезення: Надійність та Ефективність у Транспортуванні Вашого вантажу</t>
+  </si>
+  <si>
+    <t>Автомобільні вантажоперевезення, Вантажні перевезення дорогою, Логістика автоперевезень, Вантажівки для перевезення вантажів, Автотранспортні послуги, Доставка вантажів автомобілем, Автодоставка вантажів, Транспортування товарів автотранспортом, Доставка вантажів країною, Дорожні перевезення, Автомобільні логістичні послуги, Перевезення товарів дорогою, Вантажоперевезення автомобілем, Автофургони для перевезення вантажів, Професійні авто перевезення, Професійні авто перевезення, Автофургони для перевезення вантажів</t>
+  </si>
+  <si>
+    <t>https://wakelet.com/wake/PdTdBFSGtyhBpkGrF_LgT</t>
+  </si>
+  <si>
+    <t>https://www.rolandus.org/forum/viewtopic.php?t=65815</t>
+  </si>
+  <si>
+    <t>forum.javabox.net</t>
+  </si>
+  <si>
+    <t>https://forum.javabox.net/viewtopic.php?f=8&amp;t=417015</t>
+  </si>
+  <si>
+    <t>http://www.prosvadby.com/forum/viewtopic.php?f=10&amp;t=981247</t>
+  </si>
+  <si>
+    <t>boryslav.do.am</t>
+  </si>
+  <si>
+    <t>https://boryslav.do.am/forum/33-17904-1</t>
+  </si>
+  <si>
+    <t>10/02/2024</t>
+  </si>
+  <si>
+    <t>shimko.rolka.me</t>
+  </si>
+  <si>
+    <t>https://shimko.rolka.me/viewtopic.php?id=556</t>
+  </si>
+  <si>
+    <t>авто доставка грузов</t>
+  </si>
+  <si>
+    <t>04.09.2023</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/air_delivery</t>
+  </si>
+  <si>
+    <t>Авіаперевезення: швидко, надійно та ефективно</t>
+  </si>
+  <si>
+    <t>Авіаперевезення, Вантажні авіаперевезення, Міжнародні авіаперевезення, Перевезення вантажів повітрям, Логістика авіаперевезень, Експрес-доставка авіа, Авіафрахт, Авіаперевезення вантажів, Авіалогістика, Авіаперевезення вантажів, Авіаперевезення з Китаю, Авіаперевезення до Європи, Авіаперевезення вантажів з Китаю, Авіаперевезення до Європи, Авіаперевезення небезпечних вантажів, Авіаперевезення небезпечних вантажів, Вантажна авіадоставка</t>
+  </si>
+  <si>
+    <t>pbase.com</t>
+  </si>
+  <si>
+    <t>https://pbase.com/charleneadkins/image/174990515</t>
+  </si>
+  <si>
+    <t>realtycomfort.kiev.ua</t>
+  </si>
+  <si>
+    <t>https://www.realtycomfort.kiev.ua/forum/discussion/161092/shvidk%D1%96sn%D1%96-perevezennya-vantazh%D1%96v</t>
+  </si>
+  <si>
+    <t>kvitka.ukrbb.net</t>
+  </si>
+  <si>
+    <t>http://kvitka.ukrbb.net/viewtopic.php?f=58&amp;t=23059</t>
+  </si>
+  <si>
+    <t>ukraineforum.com.ua</t>
+  </si>
+  <si>
+    <t>https://ukraineforum.com.ua/index.php?threads/%D0%90%D0%B2%D1%96%D0%B0%D0%BF%D0%B5%D1%80%D0%B5%D0%B2%D0%B5%D0%B7%D0%B5%D0%BD%D0%BD%D1%8F-%D0%B2%D0%B0%D0%BD%D1%82%D0%B0%D0%B6%D1%96%D0%B2.23202/</t>
+  </si>
+  <si>
+    <t>Вантажні авіаперевезення</t>
+  </si>
+  <si>
+    <t>biz.rusff.me</t>
+  </si>
+  <si>
+    <t>https://biz.rusff.me/viewtopic.php?id=13185</t>
+  </si>
+  <si>
+    <t>Користь авіаперевезень</t>
+  </si>
+  <si>
+    <t>gov.ukrbb.net</t>
+  </si>
+  <si>
+    <t>http://gov.ukrbb.net/viewtopic.php?f=3&amp;t=4091</t>
+  </si>
+  <si>
+    <t>Page Seo</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/service/sea_container_freight_rate</t>
+  </si>
+  <si>
+    <t>Вартість Перевезення Контейнера Морем: надійні та конкурентоспроможні Тарифи</t>
+  </si>
+  <si>
+    <t>ціна морського перевезення контейнерів, тарифи на морське перевезення, вартість вантажоперевезень морем, розцінки на перевезення морським контейнером, тарифи на контейнерні перевезення</t>
+  </si>
+  <si>
+    <t>doyoubuzz.com</t>
+  </si>
+  <si>
+    <t>https://www.doyoubuzz.com/logicaltrans-hope</t>
+  </si>
+  <si>
+    <t>forum.ua-vet.com</t>
+  </si>
+  <si>
+    <t>http://forum.ua-vet.com/viewtopic.php?f=13&amp;t=66218</t>
+  </si>
+  <si>
+    <t>розцінки на перевезення морським контейнером</t>
+  </si>
+  <si>
+    <t>https://pbase.com/coincollector/root</t>
+  </si>
+  <si>
+    <t>kolba.com.ua</t>
+  </si>
+  <si>
+    <t>https://kolba.com.ua/index.php?topic=137406.new</t>
+  </si>
+  <si>
+    <t>вартість перевезення морем</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/service/container_freight_rate</t>
+  </si>
+  <si>
+    <t>Фрахт контейнера: Точні ціни та гнучкі умови для вантажоперевезень</t>
+  </si>
+  <si>
+    <t>вартість фрахту морських контейнерів, розцінки на контейнерний фрахт, тарифи на вантажоперевезення контейнерами, ціни на морські перевезення, фрахтові тарифи</t>
+  </si>
+  <si>
+    <t>b.cari.com.my</t>
+  </si>
+  <si>
+    <t>https://b.cari.com.my/home.php?mod=space&amp;uid=2591062&amp;do=blog&amp;quickforward=1&amp;id=511542</t>
+  </si>
+  <si>
+    <t>фрахт контейнера</t>
+  </si>
+  <si>
+    <t>https://kolba.com.ua/index.php?topic=139095.0</t>
+  </si>
+  <si>
+    <t>forum.mamusi.org.ua</t>
+  </si>
+  <si>
+    <t>https://forum.mamusi.org.ua/viewtopic.php?f=226&amp;t=14183</t>
+  </si>
+  <si>
+    <t>ціни на морські перевезення</t>
+  </si>
+  <si>
+    <t>odessamama.net</t>
+  </si>
+  <si>
+    <t>https://odessamama.net/forum.php?mod=viewthread&amp;tid=284944&amp;extra=</t>
+  </si>
+  <si>
+    <t>Фрахт контейнера</t>
+  </si>
+  <si>
+    <t>worklife.rolka.me</t>
+  </si>
+  <si>
+    <t>https://worklife.rolka.me/viewtopic.php?id=1073</t>
+  </si>
+  <si>
+    <t>Переваги фрахту контейнера</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/service/intermodal_transportation</t>
+  </si>
+  <si>
+    <t>Інтермодальні Перевезення: Ефективність і Надійність у Глобальній Логістиці</t>
+  </si>
+  <si>
+    <t>інтермодальні вантажоперевезення, мультимодальні перевезення, комбіновані перевезення, перевезення вантажів різними видами транспорту</t>
+  </si>
+  <si>
+    <t>laundrynation.com</t>
+  </si>
+  <si>
+    <t>https://www.laundrynation.com/community/profile/kelah141/</t>
   </si>
   <si>
     <t>інтермодальні перевезення</t>
   </si>
   <si>
-    <t>leetcode.com</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/ThiagoFernandes/</t>
-  </si>
-  <si>
-    <t>послуги митного брокер</t>
-  </si>
-  <si>
-    <t>issuu.com</t>
-  </si>
-  <si>
-    <t>https://issuu.com/t-h-logistics.com</t>
-  </si>
-  <si>
-    <t>Авіаперевезення з Китаю</t>
-  </si>
-  <si>
-    <t>wakelet.com</t>
-  </si>
-  <si>
-    <t>https://wakelet.com/@JamesWilson71358</t>
-  </si>
-  <si>
-    <t>Переваги фрахту контейнера</t>
-  </si>
-  <si>
-    <t>taplink.cc</t>
-  </si>
-  <si>
-    <t>https://taplink.cc/avidaylor</t>
-  </si>
-  <si>
-    <t>морской фрахт контеййнера</t>
-  </si>
-  <si>
-    <t>26/02/2024</t>
-  </si>
-  <si>
-    <t>odessaforum.biz.ua</t>
-  </si>
-  <si>
-    <t>https://odessaforum.biz.ua/viewtopic.php?f=4&amp;t=4878</t>
-  </si>
-  <si>
-    <t>airfreight costs</t>
-  </si>
-  <si>
-    <t>acm.lviv.ua</t>
-  </si>
-  <si>
-    <t>http://acm.lviv.ua/fusion/forum/viewthread.php?forum_id=85&amp;thread_id=6845</t>
-  </si>
-  <si>
-    <t>ferdinand.com.ua</t>
-  </si>
-  <si>
-    <t>https://ferdinand.com.ua/forum/topics/profesijne-mitne-oformlennja-z-trans-hope-u-kijevi.12723/</t>
-  </si>
-  <si>
-    <t>морские контейнерные перевозки</t>
-  </si>
-  <si>
-    <t>dom.zeleniymis.com.ua</t>
-  </si>
-  <si>
-    <t>https://dom.zeleniymis.com.ua/topic/2357-%D1%83%D0%B2%D0%B5%D1%80%D0%B5%D0%BD%D0%BD%D0%BE%D0%B5-%D0%BF%D0%B0%D1%80%D1%82%D0%BD%D0%B5%D1%80%D1%81%D1%82%D0%B2%D0%BE-%D0%B2-%D1%82%D0%B0%D0%BC%D0%BE%D0%B6%D0%B5%D0%BD%D0%BD%D1%8B%D1%85-%D1%83%D1%81%D0%BB%D1%83%D0%B3%D0%B0%D1%85-%D1%81-trans-hope-%D0%BE%D1%82%D0%B7%D1%8B%D0%B2-%D0%BE-%D0%BA%D0%B0%D1%87%D0%B5%D1%81%D1%82%D0%B2%D0%B5%D0%BD%D0%BD%D0%BE%D0%B9-%D0%BB%D0%BE%D0%B3%D0%B8%D1%81%D1%82%D0%B8%D0%BA%D0%B5-%D0%B2-%D0%BA%D0%B8%D0%B5%D0%B2%D0%B5/</t>
-  </si>
-  <si>
-    <t>Таможня, полезные материалы</t>
-  </si>
-  <si>
-    <t>https://agropravda.com/forum/post11323.html</t>
-  </si>
-  <si>
-    <t>Документы для экспорта товаров</t>
-  </si>
-  <si>
-    <t>eno.one</t>
-  </si>
-  <si>
-    <t>https://eno.one/dominique.borcy/forums?t=5376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Таможенные режимы в Украине </t>
-  </si>
-  <si>
-    <t>pokupki.bestforums.org</t>
-  </si>
-  <si>
-    <t>http://pokupki.bestforums.org/viewtopic.php?f=12&amp;t=14840</t>
-  </si>
-  <si>
-    <t>письмо китайскому  поставщику</t>
-  </si>
-  <si>
-    <t>20/01/2024</t>
-  </si>
-  <si>
-    <t>goldkeys.forum.cool</t>
-  </si>
-  <si>
-    <t>https://goldkeys.forum.cool/viewtopic.php?id=1382</t>
-  </si>
-  <si>
-    <t>лицензия таможенного брокера</t>
-  </si>
-  <si>
-    <t>10/01/2024</t>
-  </si>
-  <si>
-    <t>mistik.rolka.me</t>
-  </si>
-  <si>
-    <t>https://mistik.rolka.me/viewtopic.php?id=1028</t>
-  </si>
-  <si>
-    <t>експедирування вантажів у порту</t>
-  </si>
-  <si>
-    <t>aidablago.rolka.me</t>
-  </si>
-  <si>
-    <t>https://aidablago.rolka.me/viewtopic.php?id=1257</t>
+    <t>bizol.ua</t>
+  </si>
+  <si>
+    <t>http://www.bizol.ua/phpBB3/viewtopic.php?f=9&amp;t=2650</t>
+  </si>
+  <si>
+    <t>перевезення вантажів Інтермодальні</t>
+  </si>
+  <si>
+    <t>furnipro.info</t>
+  </si>
+  <si>
+    <t>https://furnipro.info/forum/2-28216-1</t>
+  </si>
+  <si>
+    <t>Перевезення інтермодальні</t>
+  </si>
+  <si>
+    <t>mamachki.ucoz.lv</t>
+  </si>
+  <si>
+    <t>http://mamachki.ucoz.lv/forum/5-6140-1</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/service/customs_broker_services_price</t>
+  </si>
+  <si>
+    <t>Ціни на Послуги Митного Брокера: Прозорість та Ефективність</t>
+  </si>
+  <si>
+    <t>ціна на митні послуги, вартість брокерських послуг, тарифи на митне оформлення, розцінки митного брокера, цінова політика митних послуг, плата за брокерські послуги, митне оформлення ціна, вартість послуг митного брокера</t>
+  </si>
+  <si>
+    <t>forum.familyclub.in.ua</t>
+  </si>
+  <si>
+    <t>http://forum.familyclub.in.ua/showthread.php?t=21333</t>
+  </si>
+  <si>
+    <t>розцінки митного брокера</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>mixcloud.com</t>
+  </si>
+  <si>
+    <t>https://www.mixcloud.com/thlogistics/</t>
+  </si>
+  <si>
+    <t>https://forum.dneprcity.net/showthread.php?p=639969</t>
+  </si>
+  <si>
+    <t>ціна митного брокера</t>
+  </si>
+  <si>
+    <t>02.09.2023</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/service/customs_broker_kyiv</t>
+  </si>
+  <si>
+    <t>Митний брокер Київ: Ефективна Митна Підтримка для Вашого Бізнесу</t>
+  </si>
+  <si>
+    <t>експорт та імпорт вантажів, митне консультування, брокерські послуги для міжнародної торгівлі, митні процедури, митні консультації, митний консультант, митні послуги Київ, митні збори, митне оформлення товарів, митні консультанти, митні послуги Київ</t>
+  </si>
+  <si>
+    <t>https://issuu.com/t-h-logistics</t>
+  </si>
+  <si>
+    <t>Митний Брокер Київ</t>
+  </si>
+  <si>
+    <t>zolochiv.catsboard.com</t>
+  </si>
+  <si>
+    <t>https://zolochiv.catsboard.com/t1394-topic</t>
+  </si>
+  <si>
+    <t>брокерські послуги Київ</t>
+  </si>
+  <si>
+    <t>https://www.furaffinity.net/journal/10819515/</t>
+  </si>
+  <si>
+    <t>cryptomonnaies.me</t>
+  </si>
+  <si>
+    <t>https://cryptomonnaies.me/user/thlogistics</t>
+  </si>
+  <si>
+    <t>https://forum.i.ua/topic/18450</t>
+  </si>
+  <si>
+    <t>Київ митний брокер</t>
+  </si>
+  <si>
+    <t>lenka.ruhelp.com</t>
+  </si>
+  <si>
+    <t>https://lenka.ruhelp.com/viewtopic.php?id=1884</t>
+  </si>
+  <si>
+    <t>Митні брокери київа</t>
+  </si>
+  <si>
+    <t>Accordion</t>
+  </si>
+  <si>
+    <t>18.03.2024</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/info/sections_purchase_sale_agreement</t>
+  </si>
+  <si>
+    <t>Розділи договору купівлі-продажу ЗЕД</t>
+  </si>
+  <si>
+    <t>договір купівлі-продажу, розділи, умови поставки, ціна товару, платежі, ризики, виконання контракту, захист інтересів</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/info/procedure_filling_customs_declaration</t>
+  </si>
+  <si>
+    <t>Порядок заповнення митної декларації - Україна</t>
+  </si>
+  <si>
+    <t>митна декларація, митні формальності, імпорт, експорт, митний контроль, митне оформлення, митні процедури, документи, митні правила</t>
+  </si>
+  <si>
+    <t>https://ferdinand.com.ua/forum/topics/mitna-deklaracija.14563/</t>
+  </si>
+  <si>
+    <t>bisound.com</t>
+  </si>
+  <si>
+    <t>http://www.bisound.com/forum/showthread.php?t=362280</t>
+  </si>
+  <si>
+    <t>заповнення митної декларації</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/info/customs_control</t>
+  </si>
+  <si>
+    <t>Митний контроль: Правила, Процедури, Значення - Важливий етап Імпорту та Експорту</t>
+  </si>
+  <si>
+    <t>митні формальності, митна перевірка, імпортний контроль, експортний контроль, митні процедури, митні правила, митне законодавство, митний режим, митне законодавство, регулювання митної діяльності</t>
+  </si>
+  <si>
+    <t>seaman.com.ua</t>
+  </si>
+  <si>
+    <t>https://www.seaman.com.ua/forum/index.php?threads/vse-pro-mitnij-kontrol.59254/</t>
+  </si>
+  <si>
+    <t>13.03.2024</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/info/customs_broker_license</t>
+  </si>
+  <si>
+    <t>Ліцензія митного брокера</t>
+  </si>
+  <si>
+    <t>ліцензія, митний брокер, отримання, умови, регулювання, законодавство, митні процедури, бізнес, експорт, імпорт, ліцензія, митний брокер</t>
+  </si>
+  <si>
+    <t>whodoyou.com</t>
+  </si>
+  <si>
+    <t>https://www.whodoyou.com/biz/1902714/licensesbrokerage-ny-us</t>
+  </si>
+  <si>
+    <t>ліцензії на здійснення митно-брокерської діяльності</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/info/customs_regimes_in_ukraine</t>
+  </si>
+  <si>
+    <t>Митні режими в Україні</t>
+  </si>
+  <si>
+    <t>митні режими, Україна, митне оформлення, тимчасове ввезення, експорт, імпорт, митне законодавство, митні процедури, митні правила</t>
+  </si>
+  <si>
+    <t>journals.hnpu.edu.ua</t>
+  </si>
+  <si>
+    <t>http://journals.hnpu.edu.ua/index.php/literature/comment/view/4159/294/16412</t>
+  </si>
+  <si>
+    <t>21.12.2023</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/info/customs_accreditation</t>
+  </si>
+  <si>
+    <t>Акредитація на митниці онлайн: перші кроки для успішного ведення міжнародного бізнесу</t>
+  </si>
+  <si>
+    <t>акредитація митниця, онлайн акредитація, процедура акредитації, митні процедури, документи для митниці, митні послуги, документи для митниці</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/info/certificate_of_origin_EUR.1</t>
+  </si>
+  <si>
+    <t>Сертифікат походження EUR.1 (Евро 1 Euro 1)</t>
+  </si>
+  <si>
+    <t>сертифікат походження, EUR.1, міжнародні торговельні угоди, преференційне походження, мито, торговельні пільги, експортні документи, митні процедури, торгівля міжнародними партнерами, митне оформлення, митні процедури, сертифікат походження, EUR.1</t>
+  </si>
+  <si>
+    <t>yellow.place</t>
+  </si>
+  <si>
+    <t>https://yellow.place/en/%D1%81%D0%B5%D1%80%D1%82%D0%B8%D1%84%D1%96%D0%BA%D0%B0%D1%82-%D0%BF%D0%BE%D1%85%D0%BE%D0%B4%D0%B6%D0%B5%D0%BD%D0%BD%D1%8F-eur-1-kiev%C3%AB-kosovo</t>
+  </si>
+  <si>
+    <t>kharkov-balka.com</t>
+  </si>
+  <si>
+    <t>https://kharkov-balka.com/showthread.php?t=107821</t>
+  </si>
+  <si>
+    <t>Сертифікат походження EUR 1</t>
+  </si>
+  <si>
+    <t>https://snapped.mn.co/posts/sertif%D1%96kat-pohodzhennya-eur1-kluchovii-%D1%96nstrument-u-sv%D1%96t%D1%96-m%D1%96zhnarodnoyi-torg%D1%96vl%D1%96</t>
+  </si>
+  <si>
+    <t>forum.sportmashina.com</t>
+  </si>
+  <si>
+    <t>https://forum.sportmashina.com/index.php?threads/maksimalnoe-udovletvorenie-s-trans-hope-otzyv-o-professionalnom-obespechenii-sertifikata-poxodzhenn.5057/</t>
+  </si>
+  <si>
+    <t>Сертифікат походження EUR1</t>
+  </si>
+  <si>
+    <t>16.12.2023</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/info/certificate_of_origin_base</t>
+  </si>
+  <si>
+    <t>Сертифікат походження, основи щодо визначення країни походження</t>
+  </si>
+  <si>
+    <t>сертифікат, походження товарів, міжнародна торгівля, документація, експорт, визнання, тарифні преференції, торговельні угоди, експортер, митниця</t>
+  </si>
+  <si>
+    <t>semenivka.com.ua</t>
+  </si>
+  <si>
+    <t>https://semenivka.com.ua/%D1%84%D0%BE%D1%80%D1%83%D0%BC/%D1%80%D1%96%D0%B7%D0%BD%D0%B5/44513-%D1%81%D0%B5%D1%80%D1%82%D0%B8%D1%84%D1%96%D0%BA%D0%B0%D1%82-%D0%BF%D0%BE%D1%85%D0%BE%D0%B4%D0%B6%D0%B5%D0%BD%D0%BD%D1%8F-%D1%82%D0%BE%D0%B2%D0%B0%D1%80%D1%83</t>
+  </si>
+  <si>
+    <t>сертифікат походження товарів</t>
+  </si>
+  <si>
+    <t>https://forum.javabox.net/viewtopic.php?f=8&amp;t=390483</t>
+  </si>
+  <si>
+    <t>https://forum.sportmashina.com/index.php?threads/maksimalnoe-udovletvorenie-s-trans-hope-otzyv-o-professionalizme-v-oblasti-sertifikatu-poxodzhennja.5056/</t>
+  </si>
+  <si>
+    <t>Сертифікат походження</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/info/example_of_foreign_economic_contract</t>
+  </si>
+  <si>
+    <t>Зовнішньоекономічний Договір купівлі-продажу, зразок: Розкрийте Ваші Світові Можливості</t>
+  </si>
+  <si>
+    <t>міжнародні договори, торговельні контракти, експортно-імпортні угоди, світова торгівля, міжнародна комерція</t>
+  </si>
+  <si>
+    <t>offcourse.co</t>
+  </si>
+  <si>
+    <t>https://offcourse.co/users/profile/ethanfoster</t>
+  </si>
+  <si>
+    <t>https://sketchfab.com/thlogistics</t>
+  </si>
+  <si>
+    <t>https://www.seaman.com.ua/forum/index.php?threads/optimizujte-svij-zovnishnij-biznes-z-trans-xoup-mitni-poslugi.31981/</t>
+  </si>
+  <si>
+    <t>Зовнішньоекономічний Договір зразок</t>
+  </si>
+  <si>
+    <t>15.12.2023</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/info/customs_clearance_package_cost</t>
+  </si>
+  <si>
+    <t>Пакет Документів для підтвердження Митної вартості товарів. Максимізуйте Прозорість вашого бізнесу з Транс-Хоуп.</t>
+  </si>
+  <si>
+    <t>формальності ціноутворення на кордоні, митні сертифікати вартості товарів, документи для міжнародного митного оформлення, затвердження вартості під час ввезення, митні процедури і вартість, інвойс і пакувальні листи для митниці, сертифікати походження для митниці</t>
+  </si>
+  <si>
+    <t>https://www.4yo.us/blogs/107720/%D0%9E-%D0%BF%D1%96%D0%B4%D1%82%D0%B2%D0%B5%D1%80%D0%B4%D0%B6%D0%B5%D0%BD%D0%BD%D1%96-%D0%BC%D0%B8%D1%82%D0%BD%D0%BE%D1%97-%D0%B2%D0%B0%D1%80%D1%82%D0%BE%D1%81%D1%82%D1%96-%D0%9A%D0%BB%D1%8E%D1%87%D0%BE%D0%B2%D0%B8%D0%B9-%D0%B0%D1%81%D0%BF%D0%B5%D0%BA%D1%82-%D0%BC%D1%96%D0%B6%D0%BD%D0%B0%D1%80%D0%BE%D0%B4%D0%BD%D0%BE%D1%97-%D1%82%D0%BE%D1%80%D0%B3%D1%96%D0%B2%D0%BB%D1%96</t>
+  </si>
+  <si>
+    <t>підтвердження митної вартості</t>
+  </si>
+  <si>
+    <t>redpah.com</t>
+  </si>
+  <si>
+    <t>https://redpah.com/profile/381950/ryanmartinez</t>
+  </si>
+  <si>
+    <t>peatix.com</t>
+  </si>
+  <si>
+    <t>https://peatix.com/user/20786641/view</t>
+  </si>
+  <si>
+    <t>poboltaem.foroactivo.com</t>
+  </si>
+  <si>
+    <t>https://poboltaem.foroactivo.com/t3135-topic#8153</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/info/customs_clearance_package_export</t>
+  </si>
+  <si>
+    <t>Пакет документів для експорту товарів</t>
+  </si>
+  <si>
+    <t>експортна документація, формалізація експорту, документи для ввезення та вивезення, митна документація, експортні процедури, експортні форми, міжнародна торговельна документація, папери для глобальної торгівлі, експортні ліцензії, транспортні документи для експорту, документи для міжнародних перевезень, зовнішньоторговельна документація, митні форми для експорту.</t>
+  </si>
+  <si>
+    <t>https://www.evernote.com/shard/s463/client/snv?isnewsnv=true&amp;noteGuid=73482212-b82b-bcab-a32d-c36f787bc837&amp;noteKey=WTrOv0f7Np9yepmPeVoHmfFZuBiOTy3BcEV4cfwPbSNzjtB_Jv8uEY6jLA&amp;sn=https%3A%2F%2Fwww.evernote.com%2Fshard%2Fs463%2Fsh%2F73482212-b82b-bcab-a32d-c36f787bc837%2FWTrOv0f7Np9yepmPeVoHmfFZuBiOTy3BcEV4cfwPbSNzjtB_Jv8uEY6jLA&amp;title=%25D0%2594%25D0%25BE%25D0%25BA%25D1%2583%25D0%25BC%25D0%25B5%25D0%25BD%25D1%2582%25D0%25B8%2B%25D0%25B4%25D0%25BB%25D1%258F%2B%25D0%2595%25D0%25BA%25D1%2581%25D0%25BF%25D0%25BE%25D1%2580%25D1%2582%25D1%2583%2B%25D0%25A2%25D0%25BE%25D0%25B2%25D0%25B0%25D1%2580%25D1%2596%25D0%25B2</t>
+  </si>
+  <si>
+    <t>Документи для експорту товарів</t>
+  </si>
+  <si>
+    <t>http://www.bisound.com/forum/showthread.php?p=647699</t>
+  </si>
+  <si>
+    <t>документи експорт</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/info/customs_clearance_package_import</t>
+  </si>
+  <si>
+    <t>Пакет документів для імпорту товарів</t>
+  </si>
+  <si>
+    <t>імпортна документація, документи для ввезення товарів, митна документація, імпортні процедури, імпортні форми, міжнародна торговельна документація, імпортні ліцензії, транспортні документи для імпорту, документи для міжнародних перевезень, зовнішньоторговельна документація</t>
+  </si>
+  <si>
+    <t>https://www.mixcloud.com/thlogistics/%D0%B4%D0%BE%D0%BA%D1%83%D0%BC%D0%B5%D0%BD%D1%82%D0%B8-%D0%B4%D0%BB%D1%8F-%D1%96%D0%BC%D0%BF%D0%BE%D1%80%D1%82%D1%83-%D1%82%D0%BE%D0%B2%D0%B0%D1%80%D1%96%D0%B2/</t>
+  </si>
+  <si>
+    <t>vevioz.com</t>
+  </si>
+  <si>
+    <t>https://www.vevioz.com/read-blog/102382</t>
+  </si>
+  <si>
+    <t>http://odessaflower.ukrbb.net/viewtopic.php?f=43&amp;t=27327</t>
+  </si>
+  <si>
+    <t>документи при імпорті товарів</t>
+  </si>
+  <si>
+    <t>14.12.2023</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/uk/info/customs_useful</t>
+  </si>
+  <si>
+    <t>Митне оформлення: Ключова інформація та Експертні Поради</t>
+  </si>
+  <si>
+    <t>Митниця корисне</t>
+  </si>
+  <si>
+    <t>globalcatalog.com</t>
+  </si>
+  <si>
+    <t>https://globalcatalog.com/logisticsuaservices.ua</t>
+  </si>
+  <si>
+    <t>https://odessamama.net/forum.php?mod=viewthread&amp;tid=288848</t>
   </si>
   <si>
     <t>Митне оформлення в Україні</t>
   </si>
   <si>
-    <t>high.tforums.org</t>
-  </si>
-  <si>
-    <t>http://high.tforums.org/viewtopic.php?f=11&amp;t=2947&amp;p=6597</t>
-  </si>
-  <si>
-    <t>Cookies registration of a legal entity in Ukraine</t>
-  </si>
-  <si>
-    <t>30/12/2023</t>
-  </si>
-  <si>
-    <t>ternopilcars.pp.net.ua</t>
-  </si>
-  <si>
-    <t>http://ternopilcars.pp.net.ua/forum/19-2683-1</t>
-  </si>
-  <si>
-    <t>страхование грузов</t>
-  </si>
-  <si>
-    <t>20/12/2023</t>
-  </si>
-  <si>
-    <t>http://forum.osvita.od.ua/viewtopic.php?f=1&amp;t=11033&amp;p=87414</t>
-  </si>
-  <si>
-    <t>Растаможка</t>
-  </si>
-  <si>
-    <t>familyportal.forumrom.com</t>
-  </si>
-  <si>
-    <t>https://familyportal.forumrom.com/viewtopic.php?id=15633</t>
-  </si>
-  <si>
-    <t>консультации ВЭД</t>
-  </si>
-  <si>
-    <t>setka.pp.net.ua</t>
-  </si>
-  <si>
-    <t>http://setka.pp.net.ua/forum/50-1861-1</t>
-  </si>
-  <si>
-    <t>портовая логистика в Одессе</t>
-  </si>
-  <si>
-    <t>10/12/2023</t>
-  </si>
-  <si>
-    <t>superjackson.ukrbb.net</t>
-  </si>
-  <si>
-    <t>http://superjackson.ukrbb.net/viewtopic.php?f=28&amp;t=5902&amp;p=31088</t>
-  </si>
-  <si>
-    <t>Rent legal address in Ukraine</t>
-  </si>
-  <si>
-    <t>03.11.2024</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/test</t>
-  </si>
-  <si>
-    <t>15.08.2024</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/business_in_ukraine</t>
-  </si>
-  <si>
-    <t>Послуги ЗЕД, доставки та розмитнення вантажів в Україні в містах Київ, Львів, Одеса</t>
-  </si>
-  <si>
-    <t>торговий посередник, зовнішньоторговельний агент, експортний консультант, імпортний брокер, ЗЕД консультації, світова торгівля, міжнародний бізнес, торгівля з Україною, зовнішньоекономічна діяльність</t>
-  </si>
-  <si>
-    <t>14.08.2024</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/usefull</t>
-  </si>
-  <si>
-    <t>Корисні матеріали з митного оформлення та доставки вантажів: поради та інструкції</t>
-  </si>
-  <si>
-    <t>митне оформлення вантажів, інструкції з доставки вантажів, логістика та митне оформлення, успішна доставка вантажів, як доставити вантаж через митницю, логістика та митне оформлення</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/customs</t>
-  </si>
-  <si>
-    <t>Митний брокер і митне оформлення в Києві, Одесі, Львові</t>
-  </si>
-  <si>
-    <t>митне оформлення Київ, послуги митного оформлення Львів, митний брокер Одеса, розрахунок митних платежів, супровід вантажів, митні документи, митні послуги, митні документи</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/sea</t>
-  </si>
-  <si>
-    <t>Морські контейнерні перевезення і доставка вантажів зі США та Китаю в Україну</t>
-  </si>
-  <si>
-    <t>доставка вантажів зі США в Україну, морські контейнерні перевезення, доставка з Китаю в Україну, контейнерні перевезення Україна, морська доставка з Китаю, міжнародні морські перевезення</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/air</t>
-  </si>
-  <si>
-    <t>Авіа доставка та авіаперевезення вантажів в Україну: швидко і надійно</t>
-  </si>
-  <si>
-    <t>авіаперевезення вантажів Україна, авіа доставка в Україну, міжнародна авіадоставка, транспортування вантажів літаком, авіа логістика Україна, Експрес-доставка авіа, Авіафрахт, Авіафрахт, Авіаперевезення вантажів, Авіа логістика, Авіаперевезення вантажів, Авіаперевезення з Китаю, Авіаперевезення до Європи, Авіаперевезення вантажів, Авіаперевезення небезпечних вантажів, Авіаперевезення небезпечних вантажів</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/truck</t>
-  </si>
-  <si>
-    <t>Автоперевезення і доставка вантажів з Європи: швидкі та безпечні рішення</t>
-  </si>
-  <si>
-    <t>авто перевезення з Європи, доставка вантажів авто транспортом, міжнародна авто доставка, транспортування товарів з Європи, авто логістика Європа, доставка вантажів автотранспортом</t>
-  </si>
-  <si>
-    <t>25.10.2023</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/cost_of_opening_a_legal_entity_in_ukraine</t>
-  </si>
-  <si>
-    <t>Вартість відкриття юридичної особи в Україні: детальний огляд і розрахунки</t>
-  </si>
-  <si>
-    <t>Створення фірми в Україні, реєстрація юридичної особи, витрати на відкриття компанії, вартість реєстрації бізнесу, витрати на юридичну особу, бюджет для реєстрації фірми, вартість реєстрації бізнесу</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/hr_search_in_ukraine</t>
-  </si>
-  <si>
-    <t>Ефективний Пошук Персоналу в Україні: Професійні HR-рішення</t>
-  </si>
-  <si>
-    <t>підбір персоналу, рекрутинг в Україні, HR-послуги, кадрове агентство, працевлаштування в Україні, управління персоналом, пошук фахівців, кадровий консалтинг, HR-консультації, персональні ресурси України</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/tax_reporting_in_ukraine</t>
-  </si>
-  <si>
-    <t>Податкова Звітність в Україні: Детальний огляд і Правила Підготовки</t>
-  </si>
-  <si>
-    <t>податкова звітність, податкові декларації, податкові зобов'язання, податкові ставки, податкові норми, податкове законодавство, бухгалтерія та податки, податкові зміни, податкові обов'язки, податкове адміністрування</t>
-  </si>
-  <si>
-    <t>24.10.2023</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/bank_account_in_ukraine</t>
-  </si>
-  <si>
-    <t>Відкриття та ведення банківського рахунку для юридичних осіб в Україні: Повне керівництво</t>
-  </si>
-  <si>
-    <t>бізнес-рахунок, корпоративний рахунок, банківські послуги для компаній, банківське обслуговування юридичних осіб, фінансова діяльність організацій, рахунок у банку України, відкриття рахунку для підприємства, банківські послуги для фірм</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/taxation_forms_in_ukraine</t>
-  </si>
-  <si>
-    <t>Форми оподаткування в Україні: Як обрати правильний податковий режим для вашого бізнесу</t>
-  </si>
-  <si>
-    <t>податкові режими, податкова система, податкові зобов'язання, податкова ставка, податкові пільги, сплата податків, податкова оптимізація, податковий режим для бізнесу, податковий облік, податкова політика, податкова звітність, податкові зобов'язання</t>
-  </si>
-  <si>
-    <t>23.10.2023</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/legal_address_in_ukraine</t>
-  </si>
-  <si>
-    <t>Юридична адреса в Україні: важливий елемент для Вашого бізнесу</t>
-  </si>
-  <si>
-    <t>адреса реєстрації в Україні, реєстрація юридичної адреси, податкова адреса, офісний простір, юридична реєстрація, вибір місця розташування, репутація компанії, податкові зобов'язання</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/main_forms_of_ownership_in_ukraine</t>
-  </si>
-  <si>
-    <t>Форми власності в Україні: все, що вам потрібно знати</t>
-  </si>
-  <si>
-    <t>власність в Україні, реєстрація власності, правила власності, форми власності в бізнесі, володіння нерухомістю, власність і податки, види власності</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/opening_a_company_in_ukraine</t>
-  </si>
-  <si>
-    <t>Відкриття Фірми в Україні: Крок за Кроком Керівництво та Поради</t>
-  </si>
-  <si>
-    <t>реєстрація фірми, бізнес в Україні, стартап в Україні, підприємництво в Україні, заснувати компанію, податкове законодавство, правила реєстрації, документи для бізнесу, стартап в Україні</t>
-  </si>
-  <si>
-    <t>tapatalk.com</t>
-  </si>
-  <si>
-    <t>https://www.tapatalk.com/groups/ukraineforum/-t2106.html</t>
-  </si>
-  <si>
-    <t>интермодальная перевозка</t>
-  </si>
-  <si>
-    <t>forum.ostroyke.com.ua</t>
-  </si>
-  <si>
-    <t>https://forum.ostroyke.com.ua/threads/%D0%92%D1%81%D0%B5-%D0%BF%D1%80%D0%BE-%D0%B1%D1%96%D0%B7%D0%BD%D0%B5%D1%81.22596/</t>
-  </si>
-  <si>
-    <t>dibiz.com</t>
-  </si>
-  <si>
-    <t>https://www.dibiz.com/filippvaslyaev</t>
-  </si>
-  <si>
-    <t>доставка грузов из Европы в Украину</t>
-  </si>
-  <si>
-    <t>22.10.2023</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/trade_agent_in_ukraine</t>
-  </si>
-  <si>
-    <t>Торговий Агент в Україні: Ефективна Підтримка вашого ЗЕД Бізнесу</t>
-  </si>
-  <si>
-    <t>rolandus.org</t>
-  </si>
-  <si>
-    <t>https://www.rolandus.org/forum/viewtopic.php?t=66776</t>
-  </si>
-  <si>
-    <t>27/05/2024</t>
-  </si>
-  <si>
-    <t>Post</t>
-  </si>
-  <si>
-    <t>repo.getmonero.org</t>
-  </si>
-  <si>
-    <t>https://tablo.com/genres/classics/discussions/8666</t>
-  </si>
-  <si>
-    <t>Консолидация грузов</t>
-  </si>
-  <si>
-    <t>forum.i.ua</t>
-  </si>
-  <si>
-    <t>https://forum.i.ua/topic/18964</t>
-  </si>
-  <si>
-    <t>delivery of goods from China to Ukraine</t>
-  </si>
-  <si>
-    <t>30/01/2024</t>
-  </si>
-  <si>
-    <t>chernihov.moy.su</t>
-  </si>
-  <si>
-    <t>https://chernihov.moy.su/forum/45-854-1</t>
-  </si>
-  <si>
-    <t>Delivery to Ukraine</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/foreign_trade_consulting</t>
-  </si>
-  <si>
-    <t>Консультації ЗЕД: Експертне Керівництво із Зовнішньоекономічної Діяльності</t>
-  </si>
-  <si>
-    <t>консалтинг ЗЕД, ЗЕД послуги, експортно-імпортні консультації, митне консультування, міжнародна торгівля, експортні процедури, імпортні правила, ЗЕД експерт, зовнішньоекономічна діяльність</t>
-  </si>
-  <si>
-    <t>list.ly</t>
-  </si>
-  <si>
-    <t>https://list.ly/logical-transhope</t>
-  </si>
-  <si>
-    <t>velodnepr.dp.ua</t>
-  </si>
-  <si>
-    <t>https://velodnepr.dp.ua/forum/viewtopic.php?f=18&amp;t=31448</t>
-  </si>
-  <si>
-    <t>hashnode.com</t>
-  </si>
-  <si>
-    <t>https://hashnode.com/@JenniferClark</t>
-  </si>
-  <si>
-    <t>Cargo delivery</t>
-  </si>
-  <si>
-    <t>21.10.2023</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/multimodal_transportation</t>
-  </si>
-  <si>
-    <t>Мультимодальні Перевезення в Україні: Оптимізація Логістики для Вашого Бізнесу</t>
-  </si>
-  <si>
-    <t>мультимодальна логістика, комбіновані перевезення, перевезення вантажів через різні види транспорту, глобальні мультимодальні рішення, оптимізація вантажоперевезень, мультимодальні перевезення в Європі, мультимодальні перевезення вантажів, мультимодальні перевезення всередині країни, мультимодальна доставка, мультимодальний транспорт</t>
-  </si>
-  <si>
-    <t>https://www.deviantart.com/aposta-cassino/journal/Carrier-company-995008257</t>
-  </si>
-  <si>
-    <t>https://www.deviantart.com/markovichcargo</t>
-  </si>
-  <si>
-    <t>snapped.mn.co</t>
-  </si>
-  <si>
-    <t>https://snapped.mn.co/members/22630413</t>
-  </si>
-  <si>
-    <t>Customs clearance Ukraine</t>
-  </si>
-  <si>
-    <t>fileua.forum.cool</t>
-  </si>
-  <si>
-    <t>https://fileua.forum.cool/viewtopic.php?id=5789</t>
-  </si>
-  <si>
-    <t>Контракт импорт товаров образец</t>
-  </si>
-  <si>
-    <t>19.10.2023</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/airfreight_costs</t>
-  </si>
-  <si>
-    <t>Вартість Авіаперевезення: Як розрахувати й оптимізувати Ваші витрати</t>
-  </si>
-  <si>
-    <t>вартість вантажоперевезення авіатранспортом, тарифи на авіаперевезення, ціни на авіадоставку, витрати на авіаперевезення, вартість авіатранспортування, бюджет для авіаперевезення, економія на авіадоставці, вартість авіаперевезення вантажів</t>
-  </si>
-  <si>
-    <t>http://forum.anime.org.ua/bbs/showthread.php?t=33797</t>
-  </si>
-  <si>
-    <t>cost of transportation by sea</t>
-  </si>
-  <si>
-    <t>odessaflower.ukrbb.net</t>
-  </si>
-  <si>
-    <t>http://odessaflower.ukrbb.net/viewtopic.php?f=67&amp;t=23071&amp;p=139286</t>
-  </si>
-  <si>
-    <t>Регистрация Фирмы в Украине</t>
-  </si>
-  <si>
-    <t>15.10.2023</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/cargo_delivery_from_Europe</t>
-  </si>
-  <si>
-    <t>Доставка вантажів з Європи: Ефективна Логістика для Вашого Бізнесу</t>
-  </si>
-  <si>
-    <t>міжнародна доставка з Європи, логістика вантажів з Європи, імпорт з Європи, експорт до Європи, вантажоперевезення в Європу, транспортування товарів з Європи, європейські поставки, перевезення вантажів через Європу</t>
-  </si>
-  <si>
-    <t>13.10.2023</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/port_forwarding</t>
-  </si>
-  <si>
-    <t>Портове Експедирування в Україні - Надійна Логістика Ваших Вантажів</t>
-  </si>
-  <si>
-    <t>морське експедирування, портові послуги, експедирування вантажів у порту, портова логістика, обробка вантажів у порту, морські термінали, портова інфраструктура, вантажі в порту, морські перевезення</t>
-  </si>
-  <si>
-    <t>500px.com</t>
-  </si>
-  <si>
-    <t>https://500px.com/photo/1080967280/mul%D1%8Ctimodal%D1%8Cnyh-perevozki-by-tara-waite</t>
-  </si>
-  <si>
-    <t>evernote.com</t>
-  </si>
-  <si>
-    <t>https://www.evernote.com/shard/s339/sh/bbc2a091-53b7-fdab-a688-2a1ff2a4ef5b/OAGedar9W4CUcpzSCrfTMeENr9BIoBH72oWZO6Dopj2zNaMxSin4I8aZTw</t>
-  </si>
-  <si>
-    <t>disqus.com</t>
-  </si>
-  <si>
-    <t>https://disqus.com/home/discussion/itinua/c8c8ca3440a84fcb90059c31abae8ba6/newest/</t>
-  </si>
-  <si>
-    <t>kievisp.com</t>
-  </si>
-  <si>
-    <t>http://www.kievisp.com/forum/index.php?showtopic=105159</t>
-  </si>
-  <si>
-    <t>https://getrejoin.com/ua/question/morski-vantazhoperevezennya-1679457.html</t>
-  </si>
-  <si>
-    <t>shooter.org.ua</t>
-  </si>
-  <si>
-    <t>https://shooter.org.ua/viewtopic.php?f=2&amp;t=172711</t>
-  </si>
-  <si>
-    <t>Intermodal transportation</t>
-  </si>
-  <si>
-    <t>4yo.us</t>
-  </si>
-  <si>
-    <t>https://www.4yo.us/Martinez</t>
-  </si>
-  <si>
-    <t>Auto Transportation</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/customs_brokerage_services_cost</t>
-  </si>
-  <si>
-    <t>Вартість Послуг Митного Брокера в Україні: Професійна Допомога та Оптимізація ЗЕД</t>
-  </si>
-  <si>
-    <t>послуги митного брокера, вартість митного брокера, митний брокер Київ, митний брокер Одеса, митний брокер Львів, послуги митного оформлення, вартість митних послуг, митне оформлення вантажів, митні брокери Україна</t>
-  </si>
-  <si>
-    <t>us.enrollbusiness.com</t>
-  </si>
-  <si>
-    <t>https://us.enrollbusiness.com/BusinessProfile/6721969/UALogisticsCompany</t>
-  </si>
-  <si>
-    <t>arma.at.ua</t>
-  </si>
-  <si>
-    <t>https://arma.at.ua/forum/29-13056-1</t>
-  </si>
-  <si>
-    <t>https://odessaforum.biz.ua/viewtopic.php?f=7&amp;t=5352</t>
-  </si>
-  <si>
-    <t>25/04/2024</t>
-  </si>
-  <si>
-    <t>pubhtml5.com</t>
-  </si>
-  <si>
-    <t>https://pubhtml5.com/homepage/ikixi/</t>
-  </si>
-  <si>
-    <t>авиа доставка</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/customs_broker</t>
-  </si>
-  <si>
-    <t>Митний брокер: Професійні послуги в Києві, Одесі та Львові</t>
-  </si>
-  <si>
-    <t>митний брокер, послуги митного брокера, митне оформлення, митний брокер Київ, митний брокер Одеса, митний брокер Львів, митні послуги, міжнародна торгівля, імпорт та експорт, митне декларування, митні послуги, митні послуги</t>
-  </si>
-  <si>
-    <t>petsinform.com</t>
-  </si>
-  <si>
-    <t>http://www.petsinform.com/forum/viewtopic.php?f=31&amp;t=33761</t>
-  </si>
-  <si>
-    <t>forum.ginecologkiev.com.ua</t>
-  </si>
-  <si>
-    <t>https://forum.ginecologkiev.com.ua/viewtopic.php?f=49&amp;t=25236</t>
-  </si>
-  <si>
-    <t>mazdaclub.ua</t>
-  </si>
-  <si>
-    <t>http://www.mazdaclub.ua/forum/index.php?showtopic=121846</t>
-  </si>
-  <si>
-    <t>Cargo delivery from Europe to Ukraine</t>
-  </si>
-  <si>
-    <t>provenexpert.com</t>
-  </si>
-  <si>
-    <t>https://www.provenexpert.com/jameswilson/</t>
-  </si>
-  <si>
-    <t>растаможка грузов</t>
-  </si>
-  <si>
-    <t>aveo.com.ua</t>
-  </si>
-  <si>
-    <t>https://aveo.com.ua/smf/index.php?topic=183708.new</t>
-  </si>
-  <si>
-    <t>Политика Конфиденциальности при доставке грущов</t>
-  </si>
-  <si>
-    <t>deformation.pp.net.ua</t>
-  </si>
-  <si>
-    <t>http://deformation.pp.net.ua/forum/6-741-1</t>
-  </si>
-  <si>
-    <t>Сертификат происхождения EUR 1 образец</t>
-  </si>
-  <si>
-    <t>12.10.2023</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/fqas</t>
-  </si>
-  <si>
-    <t>Запитання, що часто ставляться (FAQs)</t>
-  </si>
-  <si>
-    <t>FAQ запитання та відповіді, Інформація для клієнтів, Пояснення послуг, Типові запитання, Посібник для користувачів, Часті запити, Детальні відповіді, Допомога та поради, Клієнтська підтримка</t>
-  </si>
-  <si>
-    <t>domestika.org</t>
-  </si>
-  <si>
-    <t>https://www.domestika.org/en/logisticsua</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/help</t>
-  </si>
-  <si>
-    <t>Допомога та Підтримка: Ваш Гід у Світі Доставки та Розмитнення Вантажів</t>
-  </si>
-  <si>
-    <t>служба підтримки, клієнтська підтримка, допомога клієнтам, поширені запитання, контакти служби підтримки, підтримка клієнтів, зворотний зв'язок, допомога в доставці вантажів, консультація клієнтів, технічна підтримка</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/cookies</t>
-  </si>
-  <si>
-    <t>Cookies</t>
-  </si>
-  <si>
-    <t>prosvadby.com</t>
-  </si>
-  <si>
-    <t>http://www.prosvadby.com/forum/viewtopic.php?f=10&amp;t=980950</t>
-  </si>
-  <si>
-    <t>05.10.2023</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/terms_conditions</t>
-  </si>
-  <si>
-    <t>Умови використання</t>
-  </si>
-  <si>
-    <t>умови використання, умови обслуговування, політика використання, угода про користування, правила користування, угода про послуги, правила користування сайтом, користувацька угода, умови забезпечення безпеки, правила безпеки, умови доставки, угода про розмитнення, правила обробки даних</t>
-  </si>
-  <si>
-    <t>https://www.quora.com/profile/Jenny-Taylor-535/%D0%A0%D0%BE%D0%BB%D1%8C-%D1%82%D0%B0-%D0%B2%D1%96%D0%B4%D0%BF%D0%BE%D0%B2%D1%96%D0%B4%D0%B0%D0%BB%D1%8C%D0%BD%D1%96%D1%81%D1%82%D1%8C-%D0%BC%D0%B8%D1%82%D0%BD%D0%BE%D0%B3%D0%BE-%D0%B1%D1%80%D0%BE%D0%BA%D0%B5%D1%80%D0%B0-%D0%B2-%D1%81%D1%83%D1%87%D0%B0%D1%81%D0%BD%D1%96%D0%B9-%D0%BB%D0%BE%D0%B3%D1%96%D1%81%D1%82%D0%B8%D1%86%D1%96</t>
-  </si>
-  <si>
-    <t>https://aveo.com.ua/smf/index.php?topic=188947.0</t>
-  </si>
-  <si>
-    <t>Forms of taxation in Ukraine</t>
-  </si>
-  <si>
-    <t>forum.dneprcity.net</t>
-  </si>
-  <si>
-    <t>https://forum.dneprcity.net/showthread.php?t=332352</t>
-  </si>
-  <si>
-    <t>Консультації ЗЕД</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/privacy_policy</t>
-  </si>
-  <si>
-    <t>Політика конфіденційності</t>
-  </si>
-  <si>
-    <t>Конфіденційність даних, захист особистих даних, обробка персональних даних, політика конфіденційності сайту, згода на обробку даних, правила конфіденційності, GDPR, захист конфіденційності, захист конфіденційності, інформаційна безпека, забезпечення конфіденційності, політика конфіденційності клієнтів</t>
-  </si>
-  <si>
-    <t>freeboard.com.ua</t>
-  </si>
-  <si>
-    <t>https://www.freeboard.com.ua/forum/viewtopic.php?id=103759</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/about_us</t>
-  </si>
-  <si>
-    <t>Про Нас: Транс-Хоуп, Ваш Надійний Партнер у Доставці та Розмитненні Вантажів</t>
-  </si>
-  <si>
-    <t>Про нас</t>
-  </si>
-  <si>
-    <t>bittogether.com</t>
-  </si>
-  <si>
-    <t>https://bittogether.com/index.php?topic=16672.0</t>
-  </si>
-  <si>
-    <t>Customs broker Kiev</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/customs_clearance</t>
-  </si>
-  <si>
-    <t>Професійне Митне Оформлення Київ, Одеса, Львів. Швидко і Надійно</t>
-  </si>
-  <si>
-    <t>pandora.ukrbb.net</t>
-  </si>
-  <si>
-    <t>http://pandora.ukrbb.net/viewtopic.php?f=2&amp;t=5495&amp;p=11433</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/container_delivery</t>
-  </si>
-  <si>
-    <t>Морські контейнерні перевезення: Надійність та Економія</t>
-  </si>
-  <si>
-    <t>морські контейнерні перевезення, морські перевезення, морська логістика, контейнерні перевезення, вантажоперевезення морем, міжнародні морські перевезення, контейнерні морські перевезення, морський транспорт, вантажоперевезення контейнерами, морська експедиція, морські лінії, морські перевезення товарів, морська доставка, морські вантажні перевезення, контейнерна логістика, морське транспортування, морські вантажні послуги</t>
-  </si>
-  <si>
-    <t>flickr.com</t>
-  </si>
-  <si>
-    <t>https://www.flickr.com/photos/127037282@N06/15234815915/in/dateposted/</t>
-  </si>
-  <si>
-    <t>ukrom.in.ua</t>
-  </si>
-  <si>
-    <t>https://ukrom.in.ua/blogs/103146-morsk-konteinern-perevezennja-nad-inii-shljah-do-globalnogo-rinku.html</t>
-  </si>
-  <si>
-    <t>forum.santechnik.org.ua</t>
-  </si>
-  <si>
-    <t>http://forum.santechnik.org.ua/viewtopic.php?f=14&amp;t=3353</t>
-  </si>
-  <si>
-    <t>gitlab.com</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/growth-hormone-supplement/moving-company/-/issues/1</t>
-  </si>
-  <si>
-    <t>https://www.flickr.com/photos/142297319@N06/45781011651/</t>
-  </si>
-  <si>
-    <t>https://forum.dneprcity.net/showthread.php?t=307091&amp;highlight=%EB%EE%E3%E8%F1%F2%E8%EA%E0</t>
-  </si>
-  <si>
-    <t>Услуги от компании Транс-Хоуп</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/truck_delivery</t>
-  </si>
-  <si>
-    <t>Авто Перевезення: Надійність та Ефективність у Транспортуванні Вашого вантажу</t>
-  </si>
-  <si>
-    <t>Автомобільні вантажоперевезення, Вантажні перевезення дорогою, Логістика автоперевезень, Вантажівки для перевезення вантажів, Автотранспортні послуги, Доставка вантажів автомобілем, Автодоставка вантажів, Транспортування товарів автотранспортом, Доставка вантажів країною, Дорожні перевезення, Автомобільні логістичні послуги, Перевезення товарів дорогою, Вантажоперевезення автомобілем, Автофургони для перевезення вантажів, Професійні авто перевезення, Професійні авто перевезення, Автофургони для перевезення вантажів</t>
-  </si>
-  <si>
-    <t>https://wakelet.com/wake/PdTdBFSGtyhBpkGrF_LgT</t>
-  </si>
-  <si>
-    <t>https://www.rolandus.org/forum/viewtopic.php?t=65815</t>
-  </si>
-  <si>
-    <t>Документы для импорта товаров</t>
-  </si>
-  <si>
-    <t>forum.javabox.net</t>
-  </si>
-  <si>
-    <t>https://forum.javabox.net/viewtopic.php?f=8&amp;t=417015</t>
-  </si>
-  <si>
-    <t>http://www.prosvadby.com/forum/viewtopic.php?f=10&amp;t=981247</t>
-  </si>
-  <si>
-    <t>boryslav.do.am</t>
-  </si>
-  <si>
-    <t>https://boryslav.do.am/forum/33-17904-1</t>
-  </si>
-  <si>
-    <t>10/02/2024</t>
-  </si>
-  <si>
-    <t>shimko.rolka.me</t>
-  </si>
-  <si>
-    <t>https://shimko.rolka.me/viewtopic.php?id=556</t>
-  </si>
-  <si>
-    <t>брокерські послуги Київ</t>
-  </si>
-  <si>
-    <t>04.09.2023</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/air_delivery</t>
-  </si>
-  <si>
-    <t>Авіаперевезення: швидко, надійно та ефективно</t>
-  </si>
-  <si>
-    <t>Авіаперевезення, Вантажні авіаперевезення, Міжнародні авіаперевезення, Перевезення вантажів повітрям, Логістика авіаперевезень, Експрес-доставка авіа, Авіафрахт, Авіаперевезення вантажів, Авіалогістика, Авіаперевезення вантажів, Авіаперевезення з Китаю, Авіаперевезення до Європи, Авіаперевезення вантажів з Китаю, Авіаперевезення до Європи, Авіаперевезення небезпечних вантажів, Авіаперевезення небезпечних вантажів, Вантажна авіадоставка</t>
-  </si>
-  <si>
-    <t>pbase.com</t>
-  </si>
-  <si>
-    <t>https://pbase.com/charleneadkins/image/174990515</t>
-  </si>
-  <si>
-    <t>realtycomfort.kiev.ua</t>
-  </si>
-  <si>
-    <t>https://www.realtycomfort.kiev.ua/forum/discussion/161092/shvidk%D1%96sn%D1%96-perevezennya-vantazh%D1%96v</t>
-  </si>
-  <si>
-    <t>Стоимость авиаперевозки</t>
-  </si>
-  <si>
-    <t>kvitka.ukrbb.net</t>
-  </si>
-  <si>
-    <t>http://kvitka.ukrbb.net/viewtopic.php?f=58&amp;t=23059</t>
-  </si>
-  <si>
-    <t>ukraineforum.com.ua</t>
-  </si>
-  <si>
-    <t>https://ukraineforum.com.ua/index.php?threads/%D0%90%D0%B2%D1%96%D0%B0%D0%BF%D0%B5%D1%80%D0%B5%D0%B2%D0%B5%D0%B7%D0%B5%D0%BD%D0%BD%D1%8F-%D0%B2%D0%B0%D0%BD%D1%82%D0%B0%D0%B6%D1%96%D0%B2.23202/</t>
-  </si>
-  <si>
-    <t>Послуга імпортера</t>
-  </si>
-  <si>
-    <t>biz.rusff.me</t>
-  </si>
-  <si>
-    <t>https://biz.rusff.me/viewtopic.php?id=13185</t>
-  </si>
-  <si>
-    <t>Cargo delivery in Ukraine</t>
-  </si>
-  <si>
-    <t>gov.ukrbb.net</t>
-  </si>
-  <si>
-    <t>http://gov.ukrbb.net/viewtopic.php?f=3&amp;t=4091</t>
-  </si>
-  <si>
-    <t>Авто перевозки из Европы</t>
-  </si>
-  <si>
-    <t>Page Seo</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/sea_container_freight_rate</t>
-  </si>
-  <si>
-    <t>Вартість Перевезення Контейнера Морем: надійні та конкурентоспроможні Тарифи</t>
-  </si>
-  <si>
-    <t>ціна морського перевезення контейнерів, тарифи на морське перевезення, вартість вантажоперевезень морем, розцінки на перевезення морським контейнером, тарифи на контейнерні перевезення</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/container_freight_rate</t>
-  </si>
-  <si>
-    <t>Фрахт контейнера: Точні ціни та гнучкі умови для вантажоперевезень</t>
-  </si>
-  <si>
-    <t>вартість фрахту морських контейнерів, розцінки на контейнерний фрахт, тарифи на вантажоперевезення контейнерами, ціни на морські перевезення, фрахтові тарифи</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/intermodal_transportation</t>
-  </si>
-  <si>
-    <t>Інтермодальні Перевезення: Ефективність і Надійність у Глобальній Логістиці</t>
-  </si>
-  <si>
-    <t>інтермодальні вантажоперевезення, мультимодальні перевезення, комбіновані перевезення, перевезення вантажів різними видами транспорту</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/customs_broker_services_price</t>
-  </si>
-  <si>
-    <t>Ціни на Послуги Митного Брокера: Прозорість та Ефективність</t>
-  </si>
-  <si>
-    <t>ціна на митні послуги, вартість брокерських послуг, тарифи на митне оформлення, розцінки митного брокера, цінова політика митних послуг, плата за брокерські послуги, митне оформлення ціна, вартість послуг митного брокера</t>
-  </si>
-  <si>
-    <t>02.09.2023</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/customs_broker_kyiv</t>
-  </si>
-  <si>
-    <t>Митний брокер Київ: Ефективна Митна Підтримка для Вашого Бізнесу</t>
-  </si>
-  <si>
-    <t>експорт та імпорт вантажів, митне консультування, брокерські послуги для міжнародної торгівлі, митні процедури, митні консультації, митний консультант, митні послуги Київ, митні збори, митне оформлення товарів, митні консультанти, митні послуги Київ</t>
-  </si>
-  <si>
-    <t>Accordion</t>
-  </si>
-  <si>
-    <t>18.03.2024</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/info/sections_purchase_sale_agreement</t>
-  </si>
-  <si>
-    <t>Розділи договору купівлі-продажу ЗЕД</t>
-  </si>
-  <si>
-    <t>договір купівлі-продажу, розділи, умови поставки, ціна товару, платежі, ризики, виконання контракту, захист інтересів</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/info/procedure_filling_customs_declaration</t>
-  </si>
-  <si>
-    <t>Порядок заповнення митної декларації - Україна</t>
-  </si>
-  <si>
-    <t>митна декларація, митні формальності, імпорт, експорт, митний контроль, митне оформлення, митні процедури, документи, митні правила</t>
-  </si>
-  <si>
-    <t>https://ferdinand.com.ua/forum/topics/mitna-deklaracija.14563/</t>
-  </si>
-  <si>
-    <t>bisound.com</t>
-  </si>
-  <si>
-    <t>http://www.bisound.com/forum/showthread.php?t=362280</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/info/customs_control</t>
-  </si>
-  <si>
-    <t>Митний контроль: Правила, Процедури, Значення - Важливий етап Імпорту та Експорту</t>
-  </si>
-  <si>
-    <t>митні формальності, митна перевірка, імпортний контроль, експортний контроль, митні процедури, митні правила, митне законодавство, митний режим, митне законодавство, регулювання митної діяльності</t>
-  </si>
-  <si>
-    <t>seaman.com.ua</t>
-  </si>
-  <si>
-    <t>https://www.seaman.com.ua/forum/index.php?threads/vse-pro-mitnij-kontrol.59254/</t>
-  </si>
-  <si>
-    <t>Container freight cost</t>
-  </si>
-  <si>
-    <t>13.03.2024</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/info/customs_broker_license</t>
-  </si>
-  <si>
-    <t>Ліцензія митного брокера</t>
-  </si>
-  <si>
-    <t>ліцензія, митний брокер, отримання, умови, регулювання, законодавство, митні процедури, бізнес, експорт, імпорт, ліцензія, митний брокер</t>
-  </si>
-  <si>
-    <t>whodoyou.com</t>
-  </si>
-  <si>
-    <t>https://www.whodoyou.com/biz/1902714/licensesbrokerage-ny-us</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/info/customs_regimes_in_ukraine</t>
-  </si>
-  <si>
-    <t>Митні режими в Україні</t>
-  </si>
-  <si>
-    <t>митні режими, Україна, митне оформлення, тимчасове ввезення, експорт, імпорт, митне законодавство, митні процедури, митні правила</t>
-  </si>
-  <si>
-    <t>journals.hnpu.edu.ua</t>
-  </si>
-  <si>
-    <t>http://journals.hnpu.edu.ua/index.php/literature/comment/view/4159/294/16412</t>
-  </si>
-  <si>
-    <t>21.12.2023</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/info/customs_accreditation</t>
-  </si>
-  <si>
-    <t>Акредитація на митниці онлайн: перші кроки для успішного ведення міжнародного бізнесу</t>
-  </si>
-  <si>
-    <t>акредитація митниця, онлайн акредитація, процедура акредитації, митні процедури, документи для митниці, митні послуги, документи для митниці</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/info/certificate_of_origin_EUR.1</t>
-  </si>
-  <si>
-    <t>Сертифікат походження EUR.1 (Евро 1 Euro 1)</t>
-  </si>
-  <si>
-    <t>сертифікат походження, EUR.1, міжнародні торговельні угоди, преференційне походження, мито, торговельні пільги, експортні документи, митні процедури, торгівля міжнародними партнерами, митне оформлення, митні процедури, сертифікат походження, EUR.1</t>
-  </si>
-  <si>
-    <t>yellow.place</t>
-  </si>
-  <si>
-    <t>https://yellow.place/en/%D1%81%D0%B5%D1%80%D1%82%D0%B8%D1%84%D1%96%D0%BA%D0%B0%D1%82-%D0%BF%D0%BE%D1%85%D0%BE%D0%B4%D0%B6%D0%B5%D0%BD%D0%BD%D1%8F-eur-1-kiev%C3%AB-kosovo</t>
-  </si>
-  <si>
-    <t>kharkov-balka.com</t>
-  </si>
-  <si>
-    <t>https://kharkov-balka.com/showthread.php?t=107821</t>
-  </si>
-  <si>
-    <t>https://snapped.mn.co/posts/sertif%D1%96kat-pohodzhennya-eur1-kluchovii-%D1%96nstrument-u-sv%D1%96t%D1%96-m%D1%96zhnarodnoyi-torg%D1%96vl%D1%96</t>
-  </si>
-  <si>
-    <t>авто доставка грузов</t>
-  </si>
-  <si>
-    <t>forum.sportmashina.com</t>
-  </si>
-  <si>
-    <t>https://forum.sportmashina.com/index.php?threads/maksimalnoe-udovletvorenie-s-trans-hope-otzyv-o-professionalnom-obespechenii-sertifikata-poxodzhenn.5057/</t>
-  </si>
-  <si>
-    <t>Консультации ВЭД</t>
-  </si>
-  <si>
-    <t>16.12.2023</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/info/certificate_of_origin_base</t>
-  </si>
-  <si>
-    <t>Сертифікат походження, основи щодо визначення країни походження</t>
-  </si>
-  <si>
-    <t>сертифікат, походження товарів, міжнародна торгівля, документація, експорт, визнання, тарифні преференції, торговельні угоди, експортер, митниця</t>
-  </si>
-  <si>
-    <t>semenivka.com.ua</t>
-  </si>
-  <si>
-    <t>https://semenivka.com.ua/%D1%84%D0%BE%D1%80%D1%83%D0%BC/%D1%80%D1%96%D0%B7%D0%BD%D0%B5/44513-%D1%81%D0%B5%D1%80%D1%82%D0%B8%D1%84%D1%96%D0%BA%D0%B0%D1%82-%D0%BF%D0%BE%D1%85%D0%BE%D0%B4%D0%B6%D0%B5%D0%BD%D0%BD%D1%8F-%D1%82%D0%BE%D0%B2%D0%B0%D1%80%D1%83</t>
-  </si>
-  <si>
-    <t>Авиа перевозки грузов</t>
-  </si>
-  <si>
-    <t>https://forum.javabox.net/viewtopic.php?f=8&amp;t=390483</t>
-  </si>
-  <si>
-    <t>таможенные брокеры Киева</t>
-  </si>
-  <si>
-    <t>https://forum.sportmashina.com/index.php?threads/maksimalnoe-udovletvorenie-s-trans-hope-otzyv-o-professionalizme-v-oblasti-sertifikatu-poxodzhennja.5056/</t>
-  </si>
-  <si>
-    <t>Доставка грузов из Европы</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/info/example_of_foreign_economic_contract</t>
-  </si>
-  <si>
-    <t>Зовнішньоекономічний Договір купівлі-продажу, зразок: Розкрийте Ваші Світові Можливості</t>
-  </si>
-  <si>
-    <t>міжнародні договори, торговельні контракти, експортно-імпортні угоди, світова торгівля, міжнародна комерція</t>
-  </si>
-  <si>
-    <t>offcourse.co</t>
-  </si>
-  <si>
-    <t>https://offcourse.co/users/profile/ethanfoster</t>
-  </si>
-  <si>
-    <t>Митний брокер Київ</t>
-  </si>
-  <si>
-    <t>15/03/2024</t>
-  </si>
-  <si>
-    <t>https://sketchfab.com/thlogistics</t>
-  </si>
-  <si>
-    <t>підтвердження митної вартості</t>
-  </si>
-  <si>
-    <t>https://www.seaman.com.ua/forum/index.php?threads/optimizujte-svij-zovnishnij-biznes-z-trans-xoup-mitni-poslugi.31981/</t>
-  </si>
-  <si>
-    <t>Морские контейнерные перевозки</t>
-  </si>
-  <si>
-    <t>15.12.2023</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/info/customs_clearance_package_cost</t>
-  </si>
-  <si>
-    <t>Пакет Документів для підтвердження Митної вартості товарів. Максимізуйте Прозорість вашого бізнесу з Транс-Хоуп.</t>
-  </si>
-  <si>
-    <t>формальності ціноутворення на кордоні, митні сертифікати вартості товарів, документи для міжнародного митного оформлення, затвердження вартості під час ввезення, митні процедури і вартість, інвойс і пакувальні листи для митниці, сертифікати походження для митниці</t>
-  </si>
-  <si>
-    <t>https://www.4yo.us/blogs/107720/%D0%9E-%D0%BF%D1%96%D0%B4%D1%82%D0%B2%D0%B5%D1%80%D0%B4%D0%B6%D0%B5%D0%BD%D0%BD%D1%96-%D0%BC%D0%B8%D1%82%D0%BD%D0%BE%D1%97-%D0%B2%D0%B0%D1%80%D1%82%D0%BE%D1%81%D1%82%D1%96-%D0%9A%D0%BB%D1%8E%D1%87%D0%BE%D0%B2%D0%B8%D0%B9-%D0%B0%D1%81%D0%BF%D0%B5%D0%BA%D1%82-%D0%BC%D1%96%D0%B6%D0%BD%D0%B0%D1%80%D0%BE%D0%B4%D0%BD%D0%BE%D1%97-%D1%82%D0%BE%D1%80%D0%B3%D1%96%D0%B2%D0%BB%D1%96</t>
-  </si>
-  <si>
-    <t>How get legal address in Ukraine</t>
-  </si>
-  <si>
-    <t>redpah.com</t>
-  </si>
-  <si>
-    <t>https://redpah.com/profile/381950/ryanmartinez</t>
-  </si>
-  <si>
-    <t>Консолідація вантажів</t>
-  </si>
-  <si>
-    <t>peatix.com</t>
-  </si>
-  <si>
-    <t>https://peatix.com/user/20786641/view</t>
-  </si>
-  <si>
-    <t>контейнерные перевозки</t>
-  </si>
-  <si>
-    <t>poboltaem.foroactivo.com</t>
-  </si>
-  <si>
-    <t>https://poboltaem.foroactivo.com/t3135-topic#8153</t>
-  </si>
-  <si>
-    <t>Пакет документов при импорте товаров</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/info/customs_clearance_package_export</t>
-  </si>
-  <si>
-    <t>Пакет документів для експорту товарів</t>
-  </si>
-  <si>
-    <t>експортна документація, формалізація експорту, документи для ввезення та вивезення, митна документація, експортні процедури, експортні форми, міжнародна торговельна документація, папери для глобальної торгівлі, експортні ліцензії, транспортні документи для експорту, документи для міжнародних перевезень, зовнішньоторговельна документація, митні форми для експорту.</t>
-  </si>
-  <si>
-    <t>https://www.evernote.com/shard/s463/client/snv?isnewsnv=true&amp;noteGuid=73482212-b82b-bcab-a32d-c36f787bc837&amp;noteKey=WTrOv0f7Np9yepmPeVoHmfFZuBiOTy3BcEV4cfwPbSNzjtB_Jv8uEY6jLA&amp;sn=https%3A%2F%2Fwww.evernote.com%2Fshard%2Fs463%2Fsh%2F73482212-b82b-bcab-a32d-c36f787bc837%2FWTrOv0f7Np9yepmPeVoHmfFZuBiOTy3BcEV4cfwPbSNzjtB_Jv8uEY6jLA&amp;title=%25D0%2594%25D0%25BE%25D0%25BA%25D1%2583%25D0%25BC%25D0%25B5%25D0%25BD%25D1%2582%25D0%25B8%2B%25D0%25B4%25D0%25BB%25D1%258F%2B%25D0%2595%25D0%25BA%25D1%2581%25D0%25BF%25D0%25BE%25D1%2580%25D1%2582%25D1%2583%2B%25D0%25A2%25D0%25BE%25D0%25B2%25D0%25B0%25D1%2580%25D1%2596%25D0%25B2</t>
-  </si>
-  <si>
-    <t>http://www.bisound.com/forum/showthread.php?p=647699</t>
-  </si>
-  <si>
-    <t>подбор таможенного кода</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/info/customs_clearance_package_import</t>
-  </si>
-  <si>
-    <t>Пакет документів для імпорту товарів</t>
-  </si>
-  <si>
-    <t>імпортна документація, документи для ввезення товарів, митна документація, імпортні процедури, імпортні форми, міжнародна торговельна документація, імпортні ліцензії, транспортні документи для імпорту, документи для міжнародних перевезень, зовнішньоторговельна документація</t>
-  </si>
-  <si>
-    <t>mixcloud.com</t>
-  </si>
-  <si>
-    <t>https://www.mixcloud.com/thlogistics/%D0%B4%D0%BE%D0%BA%D1%83%D0%BC%D0%B5%D0%BD%D1%82%D0%B8-%D0%B4%D0%BB%D1%8F-%D1%96%D0%BC%D0%BF%D0%BE%D1%80%D1%82%D1%83-%D1%82%D0%BE%D0%B2%D0%B0%D1%80%D1%96%D0%B2/</t>
-  </si>
-  <si>
-    <t>Авто перевезення</t>
-  </si>
-  <si>
-    <t>vevioz.com</t>
-  </si>
-  <si>
-    <t>https://www.vevioz.com/read-blog/102382</t>
-  </si>
-  <si>
-    <t>услуга таможенного брокера</t>
-  </si>
-  <si>
-    <t>http://odessaflower.ukrbb.net/viewtopic.php?f=43&amp;t=27327</t>
-  </si>
-  <si>
-    <t>способы доставки контейнеров</t>
-  </si>
-  <si>
-    <t>14.12.2023</t>
-  </si>
-  <si>
-    <t>https://t-h-logistics.com/uk/info/customs_useful</t>
-  </si>
-  <si>
-    <t>Митне оформлення: Ключова інформація та Експертні Поради</t>
-  </si>
-  <si>
-    <t>Митниця корисне</t>
-  </si>
-  <si>
-    <t>globalcatalog.com</t>
-  </si>
-  <si>
-    <t>https://globalcatalog.com/logisticsuaservices.ua</t>
-  </si>
-  <si>
-    <t>odessamama.net</t>
-  </si>
-  <si>
-    <t>https://odessamama.net/forum.php?mod=viewthread&amp;tid=288848</t>
-  </si>
-  <si>
-    <t>air delivery to Kiev</t>
-  </si>
-  <si>
     <t>Blog</t>
   </si>
   <si>
@@ -1669,12 +1795,18 @@
     <t>https://about.me/logistics.company</t>
   </si>
   <si>
+    <t>доставка контейнерів з Китаю</t>
+  </si>
+  <si>
     <t>forum.fxeuroclub.com</t>
   </si>
   <si>
     <t>http://forum.fxeuroclub.com/viewtopic.php?p=274387&amp;amp;sid=3c0c94cb66fb19ea0fb2296eabfd4999</t>
   </si>
   <si>
+    <t>https://t-h-logistics.com/ua/blog/methods-of-transportation-containers-from-china-to-ukraine</t>
+  </si>
+  <si>
     <t>03.06.2024</t>
   </si>
   <si>
@@ -1711,6 +1843,9 @@
     <t>https://kievgid.org/kievskiy-forum/%d0%bf%d0%b5%d1%81%d0%be%d1%87%d0%bd%d0%b8%d1%86%d0%b0-group1/%d0%b4%d0%bb%d1%8f-%d0%bd%d0%be%d0%b2%d0%b8%d1%87%d0%ba%d0%be%d0%b2-forum1/%d0%b7%d0%b0%d0%bf%d0%b8%d1%82-%d0%ba%d0%b8%d1%82%d0%b0%d0%b9%d1%81%d1%8c%d0%ba%d0%be%d0%bc%d1%83-%d0%bf%d0%be%d1%81%d1%82%d0%b0%d1%87%d0%b0%d0%bb%d1%8c%d0%bd%d0%b8%d0%ba%d1%83-thread14310.0/</t>
   </si>
   <si>
+    <t>https://t-h-logistics.com/ua/blog/how-to-write-an-inquiry-to-a-chinese-supplier</t>
+  </si>
+  <si>
     <t>15.05.2024</t>
   </si>
   <si>
@@ -1733,6 +1868,9 @@
   </si>
   <si>
     <t>https://www.vladmines.dn.ua/forum/index.php/topic,39344.0.html</t>
+  </si>
+  <si>
+    <t>https://t-h-logistics.com/ua/blog/searching-for-suppliers-in-china</t>
   </si>
   <si>
     <t>News</t>
@@ -2190,7 +2328,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K188"/>
+  <dimension ref="A1:K205"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="11" width="20" customWidth="1"/>
@@ -2330,7 +2468,7 @@
         <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
         <v>22</v>
@@ -2353,19 +2491,19 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
         <v>22</v>
@@ -2388,19 +2526,19 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
         <v>22</v>
@@ -2423,19 +2561,19 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
         <v>22</v>
@@ -2458,19 +2596,19 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
         <v>22</v>
@@ -2493,19 +2631,19 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="K9" t="s">
         <v>22</v>
@@ -2528,19 +2666,19 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
         <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s">
         <v>22</v>
@@ -2563,19 +2701,19 @@
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K11" t="s">
         <v>22</v>
@@ -2601,16 +2739,16 @@
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="K12" t="s">
         <v>22</v>
@@ -2636,16 +2774,16 @@
         <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="K13" t="s">
         <v>22</v>
@@ -2674,13 +2812,13 @@
         <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="K14" t="s">
         <v>22</v>
@@ -2706,16 +2844,16 @@
         <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H15" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="K15" t="s">
         <v>22</v>
@@ -2741,16 +2879,16 @@
         <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I16" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="K16" t="s">
         <v>22</v>
@@ -2770,22 +2908,22 @@
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="J17" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K17" t="s">
         <v>22</v>
@@ -2805,22 +2943,22 @@
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="K18" t="s">
         <v>22</v>
@@ -2840,22 +2978,22 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G19" t="s">
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="J19" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="K19" t="s">
         <v>22</v>
@@ -2875,22 +3013,22 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s">
         <v>22</v>
@@ -2910,22 +3048,22 @@
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s">
         <v>22</v>
@@ -2945,22 +3083,22 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G22" t="s">
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="J22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K22" t="s">
         <v>22</v>
@@ -2980,22 +3118,22 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="I23" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K23" t="s">
         <v>22</v>
@@ -3015,7 +3153,7 @@
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
@@ -3024,13 +3162,13 @@
         <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="I24" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s">
         <v>22</v>
@@ -3050,22 +3188,22 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="I25" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="J25" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="K25" t="s">
         <v>22</v>
@@ -3085,22 +3223,22 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H26" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="I26" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J26" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="K26" t="s">
         <v>22</v>
@@ -3120,22 +3258,22 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="I27" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="J27" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="K27" t="s">
         <v>22</v>
@@ -3155,22 +3293,22 @@
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G28" t="s">
         <v>23</v>
       </c>
       <c r="H28" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="I28" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="J28" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="K28" t="s">
         <v>22</v>
@@ -3190,22 +3328,22 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G29" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="H29" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="I29" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="J29" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="K29" t="s">
         <v>22</v>
@@ -3225,22 +3363,22 @@
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H30" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="I30" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="J30" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="K30" t="s">
         <v>22</v>
@@ -3260,22 +3398,22 @@
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H31" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="I31" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="J31" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="K31" t="s">
         <v>22</v>
@@ -3295,22 +3433,22 @@
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H32" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="I32" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="J32" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="K32" t="s">
         <v>22</v>
@@ -3330,22 +3468,22 @@
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H33" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="I33" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="J33" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="K33" t="s">
         <v>22</v>
@@ -3365,22 +3503,22 @@
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H34" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="I34" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J34" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="K34" t="s">
         <v>22</v>
@@ -3400,22 +3538,22 @@
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H35" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="I35" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J35" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="K35" t="s">
         <v>22</v>
@@ -3435,22 +3573,22 @@
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H36" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I36" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="J36" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="K36" t="s">
         <v>22</v>
@@ -3470,22 +3608,22 @@
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H37" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="I37" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="J37" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="K37" t="s">
         <v>22</v>
@@ -3505,22 +3643,22 @@
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F38" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H38" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I38" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="J38" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="K38" t="s">
         <v>22</v>
@@ -3540,22 +3678,22 @@
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H39" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I39" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="J39" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s">
         <v>22</v>
@@ -3575,22 +3713,22 @@
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H40" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I40" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J40" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K40" t="s">
         <v>22</v>
@@ -3610,22 +3748,22 @@
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H41" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="I41" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="J41" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K41" t="s">
         <v>22</v>
@@ -3645,22 +3783,22 @@
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H42" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I42" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="J42" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="K42" t="s">
         <v>22</v>
@@ -3680,22 +3818,22 @@
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H43" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I43" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J43" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="K43" t="s">
         <v>22</v>
@@ -3715,22 +3853,22 @@
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F44" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H44" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I44" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J44" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K44" t="s">
         <v>22</v>
@@ -3750,22 +3888,22 @@
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H45" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I45" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J45" t="s">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="K45" t="s">
         <v>22</v>
@@ -3785,22 +3923,22 @@
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F46" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I46" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K46" t="s">
         <v>22</v>
@@ -3820,22 +3958,22 @@
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F47" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H47" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I47" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J47" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="K47" t="s">
         <v>22</v>
@@ -3858,10 +3996,10 @@
         <v>144</v>
       </c>
       <c r="F48" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H48" t="s">
         <v>145</v>
@@ -3870,7 +4008,7 @@
         <v>146</v>
       </c>
       <c r="J48" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="K48" t="s">
         <v>22</v>
@@ -3890,22 +4028,22 @@
         <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F49" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G49" t="s">
         <v>18</v>
       </c>
       <c r="H49" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="I49" t="s">
+        <v>148</v>
+      </c>
+      <c r="J49" t="s">
         <v>149</v>
-      </c>
-      <c r="J49" t="s">
-        <v>150</v>
       </c>
       <c r="K49" t="s">
         <v>22</v>
@@ -3925,22 +4063,22 @@
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F50" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H50" t="s">
+        <v>150</v>
+      </c>
+      <c r="I50" t="s">
         <v>151</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>152</v>
-      </c>
-      <c r="J50" t="s">
-        <v>153</v>
       </c>
       <c r="K50" t="s">
         <v>22</v>
@@ -3960,22 +4098,22 @@
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F51" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H51" t="s">
+        <v>153</v>
+      </c>
+      <c r="I51" t="s">
         <v>154</v>
       </c>
-      <c r="I51" t="s">
-        <v>155</v>
-      </c>
       <c r="J51" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="K51" t="s">
         <v>22</v>
@@ -3995,22 +4133,22 @@
         <v>12</v>
       </c>
       <c r="E52" t="s">
+        <v>155</v>
+      </c>
+      <c r="F52" t="s">
+        <v>66</v>
+      </c>
+      <c r="G52" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" t="s">
+        <v>156</v>
+      </c>
+      <c r="I52" t="s">
         <v>157</v>
       </c>
-      <c r="F52" t="s">
-        <v>54</v>
-      </c>
-      <c r="G52" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" t="s">
-        <v>158</v>
-      </c>
-      <c r="I52" t="s">
-        <v>159</v>
-      </c>
       <c r="J52" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="K52" t="s">
         <v>22</v>
@@ -4018,10 +4156,10 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
@@ -4047,16 +4185,16 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" t="s">
         <v>163</v>
-      </c>
-      <c r="B54" t="s">
-        <v>164</v>
-      </c>
-      <c r="C54" t="s">
-        <v>165</v>
-      </c>
-      <c r="D54" t="s">
-        <v>166</v>
       </c>
       <c r="E54" t="s">
         <v>12</v>
@@ -4082,16 +4220,16 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" t="s">
         <v>167</v>
-      </c>
-      <c r="B55" t="s">
-        <v>168</v>
-      </c>
-      <c r="C55" t="s">
-        <v>169</v>
-      </c>
-      <c r="D55" t="s">
-        <v>170</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
@@ -4117,16 +4255,16 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C56" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D56" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E56" t="s">
         <v>12</v>
@@ -4152,16 +4290,16 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B57" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C57" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E57" t="s">
         <v>12</v>
@@ -4187,16 +4325,16 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B58" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C58" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D58" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
@@ -4222,16 +4360,16 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B59" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C59" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D59" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
@@ -4257,16 +4395,16 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>180</v>
+      </c>
+      <c r="B60" t="s">
+        <v>181</v>
+      </c>
+      <c r="C60" t="s">
+        <v>182</v>
+      </c>
+      <c r="D60" t="s">
         <v>183</v>
-      </c>
-      <c r="B60" t="s">
-        <v>184</v>
-      </c>
-      <c r="C60" t="s">
-        <v>185</v>
-      </c>
-      <c r="D60" t="s">
-        <v>186</v>
       </c>
       <c r="E60" t="s">
         <v>12</v>
@@ -4292,16 +4430,16 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B61" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C61" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D61" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E61" t="s">
         <v>12</v>
@@ -4327,16 +4465,16 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B62" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C62" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D62" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
@@ -4362,16 +4500,16 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>190</v>
+      </c>
+      <c r="B63" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" t="s">
         <v>193</v>
-      </c>
-      <c r="B63" t="s">
-        <v>194</v>
-      </c>
-      <c r="C63" t="s">
-        <v>195</v>
-      </c>
-      <c r="D63" t="s">
-        <v>196</v>
       </c>
       <c r="E63" t="s">
         <v>12</v>
@@ -4397,16 +4535,16 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B64" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C64" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D64" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
@@ -4432,16 +4570,16 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>197</v>
+      </c>
+      <c r="B65" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65" t="s">
+        <v>199</v>
+      </c>
+      <c r="D65" t="s">
         <v>200</v>
-      </c>
-      <c r="B65" t="s">
-        <v>201</v>
-      </c>
-      <c r="C65" t="s">
-        <v>202</v>
-      </c>
-      <c r="D65" t="s">
-        <v>203</v>
       </c>
       <c r="E65" t="s">
         <v>12</v>
@@ -4467,16 +4605,16 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B66" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C66" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D66" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
@@ -4502,34 +4640,34 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B67" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C67" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D67" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E67" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="F67" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G67" t="s">
         <v>23</v>
       </c>
       <c r="H67" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I67" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J67" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K67" t="s">
         <v>22</v>
@@ -4549,22 +4687,22 @@
         <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="F68" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H68" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I68" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J68" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="K68" t="s">
         <v>22</v>
@@ -4584,22 +4722,22 @@
         <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H69" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I69" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J69" t="s">
-        <v>217</v>
+        <v>22</v>
       </c>
       <c r="K69" t="s">
         <v>22</v>
@@ -4607,34 +4745,34 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B70" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C70" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D70" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E70" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F70" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G70" t="s">
         <v>23</v>
       </c>
       <c r="H70" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I70" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J70" t="s">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="K70" t="s">
         <v>22</v>
@@ -4654,22 +4792,22 @@
         <v>12</v>
       </c>
       <c r="E71" t="s">
+        <v>220</v>
+      </c>
+      <c r="F71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G71" t="s">
+        <v>28</v>
+      </c>
+      <c r="H71" t="s">
+        <v>222</v>
+      </c>
+      <c r="I71" t="s">
         <v>223</v>
       </c>
-      <c r="F71" t="s">
-        <v>224</v>
-      </c>
-      <c r="G71" t="s">
-        <v>27</v>
-      </c>
-      <c r="H71" t="s">
-        <v>225</v>
-      </c>
-      <c r="I71" t="s">
-        <v>226</v>
-      </c>
       <c r="J71" t="s">
-        <v>227</v>
+        <v>22</v>
       </c>
       <c r="K71" t="s">
         <v>22</v>
@@ -4689,22 +4827,22 @@
         <v>12</v>
       </c>
       <c r="E72" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="F72" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G72" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="H72" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I72" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J72" t="s">
-        <v>230</v>
+        <v>22</v>
       </c>
       <c r="K72" t="s">
         <v>22</v>
@@ -4724,22 +4862,22 @@
         <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F73" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H73" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I73" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J73" t="s">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="K73" t="s">
         <v>22</v>
@@ -4747,34 +4885,34 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B74" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C74" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D74" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E74" t="s">
         <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H74" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I74" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="J74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K74" t="s">
         <v>22</v>
@@ -4794,22 +4932,22 @@
         <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F75" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H75" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="I75" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="J75" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="K75" t="s">
         <v>22</v>
@@ -4829,22 +4967,22 @@
         <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F76" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G76" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="H76" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="I76" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J76" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="K76" t="s">
         <v>22</v>
@@ -4852,16 +4990,16 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B77" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C77" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D77" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E77" t="s">
         <v>16</v>
@@ -4876,10 +5014,10 @@
         <v>19</v>
       </c>
       <c r="I77" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="J77" t="s">
-        <v>21</v>
+        <v>243</v>
       </c>
       <c r="K77" t="s">
         <v>22</v>
@@ -4911,10 +5049,10 @@
         <v>19</v>
       </c>
       <c r="I78" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="J78" t="s">
-        <v>21</v>
+        <v>245</v>
       </c>
       <c r="K78" t="s">
         <v>22</v>
@@ -4934,22 +5072,22 @@
         <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F79" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H79" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="I79" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="J79" t="s">
-        <v>253</v>
+        <v>22</v>
       </c>
       <c r="K79" t="s">
         <v>22</v>
@@ -4969,22 +5107,22 @@
         <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F80" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H80" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I80" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="J80" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="K80" t="s">
         <v>22</v>
@@ -4992,34 +5130,34 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B81" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C81" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D81" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E81" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F81" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G81" t="s">
         <v>18</v>
       </c>
       <c r="H81" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="I81" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="J81" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K81" t="s">
         <v>22</v>
@@ -5039,22 +5177,22 @@
         <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F82" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H82" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="I82" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J82" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K82" t="s">
         <v>22</v>
@@ -5062,16 +5200,16 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B83" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C83" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D83" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E83" t="s">
         <v>12</v>
@@ -5097,16 +5235,16 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B84" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C84" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D84" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E84" t="s">
         <v>16</v>
@@ -5115,16 +5253,16 @@
         <v>17</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H84" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="I84" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="J84" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="K84" t="s">
         <v>22</v>
@@ -5150,16 +5288,16 @@
         <v>17</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H85" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I85" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="J85" t="s">
-        <v>21</v>
+        <v>273</v>
       </c>
       <c r="K85" t="s">
         <v>22</v>
@@ -5185,16 +5323,16 @@
         <v>17</v>
       </c>
       <c r="G86" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="H86" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I86" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J86" t="s">
-        <v>21</v>
+        <v>276</v>
       </c>
       <c r="K86" t="s">
         <v>22</v>
@@ -5214,22 +5352,22 @@
         <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F87" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H87" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I87" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J87" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="K87" t="s">
         <v>22</v>
@@ -5249,22 +5387,22 @@
         <v>12</v>
       </c>
       <c r="E88" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F88" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G88" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H88" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I88" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J88" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="K88" t="s">
         <v>22</v>
@@ -5284,22 +5422,22 @@
         <v>12</v>
       </c>
       <c r="E89" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="F89" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H89" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I89" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J89" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K89" t="s">
         <v>22</v>
@@ -5319,22 +5457,22 @@
         <v>12</v>
       </c>
       <c r="E90" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F90" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H90" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I90" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J90" t="s">
-        <v>288</v>
+        <v>22</v>
       </c>
       <c r="K90" t="s">
         <v>22</v>
@@ -5342,34 +5480,34 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B91" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C91" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D91" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E91" t="s">
         <v>16</v>
       </c>
       <c r="F91" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H91" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I91" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="J91" t="s">
-        <v>21</v>
+        <v>290</v>
       </c>
       <c r="K91" t="s">
         <v>22</v>
@@ -5389,22 +5527,22 @@
         <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F92" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H92" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I92" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J92" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K92" t="s">
         <v>22</v>
@@ -5424,22 +5562,22 @@
         <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="F93" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H93" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="I93" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J93" t="s">
-        <v>94</v>
+        <v>294</v>
       </c>
       <c r="K93" t="s">
         <v>22</v>
@@ -5459,22 +5597,22 @@
         <v>12</v>
       </c>
       <c r="E94" t="s">
+        <v>295</v>
+      </c>
+      <c r="F94" t="s">
+        <v>27</v>
+      </c>
+      <c r="G94" t="s">
+        <v>28</v>
+      </c>
+      <c r="H94" t="s">
+        <v>296</v>
+      </c>
+      <c r="I94" t="s">
         <v>297</v>
       </c>
-      <c r="F94" t="s">
-        <v>26</v>
-      </c>
-      <c r="G94" t="s">
-        <v>27</v>
-      </c>
-      <c r="H94" t="s">
-        <v>298</v>
-      </c>
-      <c r="I94" t="s">
-        <v>299</v>
-      </c>
       <c r="J94" t="s">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="K94" t="s">
         <v>22</v>
@@ -5482,34 +5620,34 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B95" t="s">
+        <v>298</v>
+      </c>
+      <c r="C95" t="s">
+        <v>299</v>
+      </c>
+      <c r="D95" t="s">
+        <v>300</v>
+      </c>
+      <c r="E95" t="s">
+        <v>65</v>
+      </c>
+      <c r="F95" t="s">
+        <v>66</v>
+      </c>
+      <c r="G95" t="s">
+        <v>28</v>
+      </c>
+      <c r="H95" t="s">
         <v>301</v>
       </c>
-      <c r="C95" t="s">
+      <c r="I95" t="s">
         <v>302</v>
       </c>
-      <c r="D95" t="s">
+      <c r="J95" t="s">
         <v>303</v>
-      </c>
-      <c r="E95" t="s">
-        <v>53</v>
-      </c>
-      <c r="F95" t="s">
-        <v>54</v>
-      </c>
-      <c r="G95" t="s">
-        <v>27</v>
-      </c>
-      <c r="H95" t="s">
-        <v>304</v>
-      </c>
-      <c r="I95" t="s">
-        <v>305</v>
-      </c>
-      <c r="J95" t="s">
-        <v>21</v>
       </c>
       <c r="K95" t="s">
         <v>22</v>
@@ -5529,22 +5667,22 @@
         <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F96" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H96" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I96" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J96" t="s">
-        <v>21</v>
+        <v>303</v>
       </c>
       <c r="K96" t="s">
         <v>22</v>
@@ -5564,22 +5702,22 @@
         <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="F97" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H97" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I97" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J97" t="s">
-        <v>310</v>
+        <v>22</v>
       </c>
       <c r="K97" t="s">
         <v>22</v>
@@ -5599,22 +5737,22 @@
         <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F98" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H98" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I98" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="J98" t="s">
-        <v>313</v>
+        <v>22</v>
       </c>
       <c r="K98" t="s">
         <v>22</v>
@@ -5634,22 +5772,22 @@
         <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F99" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H99" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I99" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J99" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K99" t="s">
         <v>22</v>
@@ -5669,22 +5807,22 @@
         <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F100" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H100" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I100" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J100" t="s">
-        <v>319</v>
+        <v>22</v>
       </c>
       <c r="K100" t="s">
         <v>22</v>
@@ -5692,34 +5830,34 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B101" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C101" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D101" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E101" t="s">
         <v>16</v>
       </c>
       <c r="F101" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H101" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I101" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J101" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K101" t="s">
         <v>22</v>
@@ -5727,16 +5865,16 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B102" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C102" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D102" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E102" t="s">
         <v>12</v>
@@ -5762,34 +5900,34 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B103" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C103" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D103" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E103" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F103" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H103" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I103" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="J103" t="s">
-        <v>21</v>
+        <v>328</v>
       </c>
       <c r="K103" t="s">
         <v>22</v>
@@ -5797,16 +5935,16 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B104" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C104" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D104" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E104" t="s">
         <v>16</v>
@@ -5821,10 +5959,10 @@
         <v>24</v>
       </c>
       <c r="I104" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J104" t="s">
-        <v>21</v>
+        <v>334</v>
       </c>
       <c r="K104" t="s">
         <v>22</v>
@@ -5844,22 +5982,22 @@
         <v>12</v>
       </c>
       <c r="E105" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F105" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H105" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I105" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J105" t="s">
-        <v>339</v>
+        <v>22</v>
       </c>
       <c r="K105" t="s">
         <v>22</v>
@@ -5879,22 +6017,22 @@
         <v>12</v>
       </c>
       <c r="E106" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F106" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H106" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I106" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J106" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K106" t="s">
         <v>22</v>
@@ -5902,34 +6040,34 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B107" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C107" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D107" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E107" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F107" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G107" t="s">
         <v>18</v>
       </c>
       <c r="H107" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I107" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="J107" t="s">
-        <v>97</v>
+        <v>344</v>
       </c>
       <c r="K107" t="s">
         <v>22</v>
@@ -5937,34 +6075,34 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B108" t="s">
+        <v>345</v>
+      </c>
+      <c r="C108" t="s">
+        <v>346</v>
+      </c>
+      <c r="D108" t="s">
+        <v>347</v>
+      </c>
+      <c r="E108" t="s">
+        <v>89</v>
+      </c>
+      <c r="F108" t="s">
+        <v>66</v>
+      </c>
+      <c r="G108" t="s">
+        <v>41</v>
+      </c>
+      <c r="H108" t="s">
         <v>348</v>
       </c>
-      <c r="C108" t="s">
+      <c r="I108" t="s">
         <v>349</v>
       </c>
-      <c r="D108" t="s">
-        <v>350</v>
-      </c>
-      <c r="E108" t="s">
-        <v>72</v>
-      </c>
-      <c r="F108" t="s">
-        <v>54</v>
-      </c>
-      <c r="G108" t="s">
-        <v>36</v>
-      </c>
-      <c r="H108" t="s">
-        <v>351</v>
-      </c>
-      <c r="I108" t="s">
-        <v>352</v>
-      </c>
       <c r="J108" t="s">
-        <v>353</v>
+        <v>22</v>
       </c>
       <c r="K108" t="s">
         <v>22</v>
@@ -5972,34 +6110,34 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B109" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C109" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D109" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E109" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F109" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H109" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="I109" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J109" t="s">
-        <v>339</v>
+        <v>22</v>
       </c>
       <c r="K109" t="s">
         <v>22</v>
@@ -6007,16 +6145,16 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B110" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C110" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D110" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E110" t="s">
         <v>16</v>
@@ -6028,13 +6166,13 @@
         <v>23</v>
       </c>
       <c r="H110" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I110" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="J110" t="s">
-        <v>21</v>
+        <v>359</v>
       </c>
       <c r="K110" t="s">
         <v>22</v>
@@ -6060,16 +6198,16 @@
         <v>17</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H111" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="I111" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J111" t="s">
-        <v>21</v>
+        <v>362</v>
       </c>
       <c r="K111" t="s">
         <v>22</v>
@@ -6089,22 +6227,22 @@
         <v>12</v>
       </c>
       <c r="E112" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F112" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H112" t="s">
+        <v>363</v>
+      </c>
+      <c r="I112" t="s">
+        <v>364</v>
+      </c>
+      <c r="J112" t="s">
         <v>365</v>
-      </c>
-      <c r="I112" t="s">
-        <v>366</v>
-      </c>
-      <c r="J112" t="s">
-        <v>21</v>
       </c>
       <c r="K112" t="s">
         <v>22</v>
@@ -6124,22 +6262,22 @@
         <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F113" t="s">
         <v>17</v>
       </c>
       <c r="G113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H113" t="s">
+        <v>366</v>
+      </c>
+      <c r="I113" t="s">
         <v>367</v>
       </c>
-      <c r="I113" t="s">
+      <c r="J113" t="s">
         <v>368</v>
-      </c>
-      <c r="J113" t="s">
-        <v>21</v>
       </c>
       <c r="K113" t="s">
         <v>22</v>
@@ -6159,7 +6297,7 @@
         <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F114" t="s">
         <v>17</v>
@@ -6168,13 +6306,13 @@
         <v>23</v>
       </c>
       <c r="H114" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I114" t="s">
         <v>369</v>
       </c>
       <c r="J114" t="s">
-        <v>21</v>
+        <v>370</v>
       </c>
       <c r="K114" t="s">
         <v>22</v>
@@ -6194,22 +6332,22 @@
         <v>12</v>
       </c>
       <c r="E115" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F115" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H115" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I115" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J115" t="s">
-        <v>371</v>
+        <v>22</v>
       </c>
       <c r="K115" t="s">
         <v>22</v>
@@ -6217,7 +6355,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B116" t="s">
         <v>372</v>
@@ -6235,16 +6373,16 @@
         <v>17</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H116" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="I116" t="s">
         <v>375</v>
       </c>
       <c r="J116" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K116" t="s">
         <v>22</v>
@@ -6264,22 +6402,22 @@
         <v>12</v>
       </c>
       <c r="E117" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F117" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G117" t="s">
         <v>23</v>
       </c>
       <c r="H117" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I117" t="s">
         <v>376</v>
       </c>
       <c r="J117" t="s">
-        <v>377</v>
+        <v>22</v>
       </c>
       <c r="K117" t="s">
         <v>22</v>
@@ -6299,22 +6437,22 @@
         <v>12</v>
       </c>
       <c r="E118" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F118" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G118" t="s">
         <v>23</v>
       </c>
       <c r="H118" t="s">
+        <v>377</v>
+      </c>
+      <c r="I118" t="s">
         <v>378</v>
       </c>
-      <c r="I118" t="s">
-        <v>379</v>
-      </c>
       <c r="J118" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K118" t="s">
         <v>22</v>
@@ -6334,22 +6472,22 @@
         <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F119" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H119" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I119" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J119" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K119" t="s">
         <v>22</v>
@@ -6369,22 +6507,22 @@
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F120" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H120" t="s">
+        <v>380</v>
+      </c>
+      <c r="I120" t="s">
         <v>381</v>
       </c>
-      <c r="I120" t="s">
-        <v>382</v>
-      </c>
       <c r="J120" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="K120" t="s">
         <v>22</v>
@@ -6404,22 +6542,22 @@
         <v>12</v>
       </c>
       <c r="E121" t="s">
+        <v>382</v>
+      </c>
+      <c r="F121" t="s">
+        <v>66</v>
+      </c>
+      <c r="G121" t="s">
+        <v>28</v>
+      </c>
+      <c r="H121" t="s">
         <v>383</v>
       </c>
-      <c r="F121" t="s">
-        <v>54</v>
-      </c>
-      <c r="G121" t="s">
-        <v>27</v>
-      </c>
-      <c r="H121" t="s">
+      <c r="I121" t="s">
         <v>384</v>
       </c>
-      <c r="I121" t="s">
+      <c r="J121" t="s">
         <v>385</v>
-      </c>
-      <c r="J121" t="s">
-        <v>386</v>
       </c>
       <c r="K121" t="s">
         <v>22</v>
@@ -6427,16 +6565,16 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>386</v>
+      </c>
+      <c r="B122" t="s">
         <v>387</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>388</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>389</v>
-      </c>
-      <c r="D122" t="s">
-        <v>390</v>
       </c>
       <c r="E122" t="s">
         <v>16</v>
@@ -6445,16 +6583,16 @@
         <v>17</v>
       </c>
       <c r="G122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H122" t="s">
+        <v>390</v>
+      </c>
+      <c r="I122" t="s">
         <v>391</v>
       </c>
-      <c r="I122" t="s">
-        <v>392</v>
-      </c>
       <c r="J122" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="K122" t="s">
         <v>22</v>
@@ -6474,22 +6612,22 @@
         <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F123" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G123" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H123" t="s">
+        <v>392</v>
+      </c>
+      <c r="I123" t="s">
         <v>393</v>
       </c>
-      <c r="I123" t="s">
-        <v>394</v>
-      </c>
       <c r="J123" t="s">
-        <v>395</v>
+        <v>22</v>
       </c>
       <c r="K123" t="s">
         <v>22</v>
@@ -6509,22 +6647,22 @@
         <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F124" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H124" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I124" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J124" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="K124" t="s">
         <v>22</v>
@@ -6544,22 +6682,22 @@
         <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F125" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G125" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H125" t="s">
+        <v>396</v>
+      </c>
+      <c r="I125" t="s">
+        <v>397</v>
+      </c>
+      <c r="J125" t="s">
         <v>398</v>
-      </c>
-      <c r="I125" t="s">
-        <v>399</v>
-      </c>
-      <c r="J125" t="s">
-        <v>400</v>
       </c>
       <c r="K125" t="s">
         <v>22</v>
@@ -6579,22 +6717,22 @@
         <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F126" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G126" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="H126" t="s">
+        <v>399</v>
+      </c>
+      <c r="I126" t="s">
+        <v>400</v>
+      </c>
+      <c r="J126" t="s">
         <v>401</v>
-      </c>
-      <c r="I126" t="s">
-        <v>402</v>
-      </c>
-      <c r="J126" t="s">
-        <v>403</v>
       </c>
       <c r="K126" t="s">
         <v>22</v>
@@ -6614,22 +6752,22 @@
         <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F127" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H127" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I127" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J127" t="s">
-        <v>406</v>
+        <v>22</v>
       </c>
       <c r="K127" t="s">
         <v>22</v>
@@ -6672,7 +6810,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B129" t="s">
         <v>12</v>
@@ -6707,177 +6845,177 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B130" t="s">
+        <v>405</v>
+      </c>
+      <c r="C130" t="s">
+        <v>406</v>
+      </c>
+      <c r="D130" t="s">
+        <v>407</v>
+      </c>
+      <c r="E130" t="s">
+        <v>16</v>
+      </c>
+      <c r="F130" t="s">
+        <v>27</v>
+      </c>
+      <c r="G130" t="s">
+        <v>28</v>
+      </c>
+      <c r="H130" t="s">
         <v>408</v>
       </c>
-      <c r="C130" t="s">
+      <c r="I130" t="s">
         <v>409</v>
       </c>
-      <c r="D130" t="s">
-        <v>410</v>
-      </c>
-      <c r="E130" t="s">
-        <v>12</v>
-      </c>
-      <c r="F130" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
-      <c r="H130" t="s">
-        <v>12</v>
-      </c>
-      <c r="I130" t="s">
-        <v>12</v>
-      </c>
       <c r="J130" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K130" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" t="s">
+        <v>65</v>
+      </c>
+      <c r="F131" t="s">
+        <v>66</v>
+      </c>
+      <c r="G131" t="s">
+        <v>41</v>
+      </c>
+      <c r="H131" t="s">
+        <v>410</v>
+      </c>
+      <c r="I131" t="s">
         <v>411</v>
       </c>
-      <c r="C131" t="s">
+      <c r="J131" t="s">
         <v>412</v>
       </c>
-      <c r="D131" t="s">
-        <v>413</v>
-      </c>
-      <c r="E131" t="s">
-        <v>12</v>
-      </c>
-      <c r="F131" t="s">
-        <v>12</v>
-      </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
-      <c r="H131" t="s">
-        <v>12</v>
-      </c>
-      <c r="I131" t="s">
-        <v>12</v>
-      </c>
-      <c r="J131" t="s">
-        <v>12</v>
-      </c>
       <c r="K131" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>414</v>
+        <v>12</v>
       </c>
       <c r="C132" t="s">
-        <v>415</v>
+        <v>12</v>
       </c>
       <c r="D132" t="s">
-        <v>416</v>
+        <v>12</v>
       </c>
       <c r="E132" t="s">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="G132" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H132" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I132" t="s">
-        <v>12</v>
+        <v>413</v>
       </c>
       <c r="J132" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K132" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>417</v>
+        <v>12</v>
       </c>
       <c r="C133" t="s">
-        <v>418</v>
+        <v>12</v>
       </c>
       <c r="D133" t="s">
-        <v>419</v>
+        <v>12</v>
       </c>
       <c r="E133" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G133" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="H133" t="s">
-        <v>12</v>
+        <v>414</v>
       </c>
       <c r="I133" t="s">
-        <v>12</v>
+        <v>415</v>
       </c>
       <c r="J133" t="s">
-        <v>12</v>
+        <v>416</v>
       </c>
       <c r="K133" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>238</v>
+      </c>
+      <c r="B134" t="s">
+        <v>417</v>
+      </c>
+      <c r="C134" t="s">
+        <v>418</v>
+      </c>
+      <c r="D134" t="s">
+        <v>419</v>
+      </c>
+      <c r="E134" t="s">
+        <v>16</v>
+      </c>
+      <c r="F134" t="s">
+        <v>17</v>
+      </c>
+      <c r="G134" t="s">
+        <v>28</v>
+      </c>
+      <c r="H134" t="s">
         <v>420</v>
       </c>
-      <c r="B134" t="s">
+      <c r="I134" t="s">
         <v>421</v>
       </c>
-      <c r="C134" t="s">
+      <c r="J134" t="s">
         <v>422</v>
       </c>
-      <c r="D134" t="s">
-        <v>423</v>
-      </c>
-      <c r="E134" t="s">
-        <v>12</v>
-      </c>
-      <c r="F134" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
-      <c r="H134" t="s">
-        <v>12</v>
-      </c>
-      <c r="I134" t="s">
-        <v>12</v>
-      </c>
-      <c r="J134" t="s">
-        <v>12</v>
-      </c>
       <c r="K134" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -6894,127 +7032,127 @@
         <v>12</v>
       </c>
       <c r="E135" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="F135" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G135" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="H135" t="s">
-        <v>12</v>
+        <v>414</v>
       </c>
       <c r="I135" t="s">
-        <v>12</v>
+        <v>423</v>
       </c>
       <c r="J135" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K135" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" t="s">
+        <v>89</v>
+      </c>
+      <c r="F136" t="s">
+        <v>66</v>
+      </c>
+      <c r="G136" t="s">
+        <v>28</v>
+      </c>
+      <c r="H136" t="s">
         <v>424</v>
       </c>
-      <c r="B136" t="s">
-        <v>12</v>
-      </c>
-      <c r="C136" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" t="s">
-        <v>12</v>
-      </c>
-      <c r="E136" t="s">
-        <v>12</v>
-      </c>
-      <c r="F136" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
-      <c r="H136" t="s">
-        <v>12</v>
-      </c>
       <c r="I136" t="s">
-        <v>12</v>
+        <v>425</v>
       </c>
       <c r="J136" t="s">
-        <v>12</v>
+        <v>426</v>
       </c>
       <c r="K136" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>425</v>
+        <v>12</v>
       </c>
       <c r="B137" t="s">
-        <v>426</v>
+        <v>12</v>
       </c>
       <c r="C137" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" t="s">
+        <v>116</v>
+      </c>
+      <c r="F137" t="s">
+        <v>66</v>
+      </c>
+      <c r="G137" t="s">
+        <v>18</v>
+      </c>
+      <c r="H137" t="s">
         <v>427</v>
       </c>
-      <c r="D137" t="s">
+      <c r="I137" t="s">
         <v>428</v>
       </c>
-      <c r="E137" t="s">
-        <v>12</v>
-      </c>
-      <c r="F137" t="s">
-        <v>12</v>
-      </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
-      <c r="H137" t="s">
-        <v>12</v>
-      </c>
-      <c r="I137" t="s">
-        <v>12</v>
-      </c>
       <c r="J137" t="s">
-        <v>12</v>
+        <v>429</v>
       </c>
       <c r="K137" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>425</v>
+        <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>429</v>
+        <v>12</v>
       </c>
       <c r="C138" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" t="s">
+        <v>144</v>
+      </c>
+      <c r="F138" t="s">
+        <v>66</v>
+      </c>
+      <c r="G138" t="s">
+        <v>28</v>
+      </c>
+      <c r="H138" t="s">
         <v>430</v>
       </c>
-      <c r="D138" t="s">
+      <c r="I138" t="s">
         <v>431</v>
       </c>
-      <c r="E138" t="s">
-        <v>53</v>
-      </c>
-      <c r="F138" t="s">
-        <v>54</v>
-      </c>
-      <c r="G138" t="s">
-        <v>36</v>
-      </c>
-      <c r="H138" t="s">
-        <v>116</v>
-      </c>
-      <c r="I138" t="s">
+      <c r="J138" t="s">
         <v>432</v>
-      </c>
-      <c r="J138" t="s">
-        <v>285</v>
       </c>
       <c r="K138" t="s">
         <v>22</v>
@@ -7022,34 +7160,34 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>433</v>
       </c>
       <c r="C139" t="s">
-        <v>12</v>
+        <v>434</v>
       </c>
       <c r="D139" t="s">
-        <v>12</v>
+        <v>435</v>
       </c>
       <c r="E139" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="F139" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="G139" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H139" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="I139" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="J139" t="s">
-        <v>21</v>
+        <v>438</v>
       </c>
       <c r="K139" t="s">
         <v>22</v>
@@ -7057,34 +7195,34 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>425</v>
+        <v>12</v>
       </c>
       <c r="B140" t="s">
-        <v>435</v>
+        <v>12</v>
       </c>
       <c r="C140" t="s">
-        <v>436</v>
+        <v>12</v>
       </c>
       <c r="D140" t="s">
-        <v>437</v>
+        <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="F140" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G140" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H140" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I140" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="J140" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K140" t="s">
         <v>22</v>
@@ -7092,34 +7230,34 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>441</v>
+        <v>12</v>
       </c>
       <c r="B141" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" t="s">
+        <v>116</v>
+      </c>
+      <c r="F141" t="s">
+        <v>66</v>
+      </c>
+      <c r="G141" t="s">
+        <v>28</v>
+      </c>
+      <c r="H141" t="s">
         <v>442</v>
       </c>
-      <c r="C141" t="s">
+      <c r="I141" t="s">
         <v>443</v>
       </c>
-      <c r="D141" t="s">
+      <c r="J141" t="s">
         <v>444</v>
-      </c>
-      <c r="E141" t="s">
-        <v>16</v>
-      </c>
-      <c r="F141" t="s">
-        <v>26</v>
-      </c>
-      <c r="G141" t="s">
-        <v>27</v>
-      </c>
-      <c r="H141" t="s">
-        <v>445</v>
-      </c>
-      <c r="I141" t="s">
-        <v>446</v>
-      </c>
-      <c r="J141" t="s">
-        <v>21</v>
       </c>
       <c r="K141" t="s">
         <v>22</v>
@@ -7127,34 +7265,34 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>441</v>
+        <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>447</v>
+        <v>12</v>
       </c>
       <c r="C142" t="s">
-        <v>448</v>
+        <v>12</v>
       </c>
       <c r="D142" t="s">
-        <v>449</v>
+        <v>12</v>
       </c>
       <c r="E142" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="F142" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="G142" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H142" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="I142" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="J142" t="s">
-        <v>21</v>
+        <v>438</v>
       </c>
       <c r="K142" t="s">
         <v>22</v>
@@ -7162,69 +7300,69 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>251</v>
+      </c>
+      <c r="B143" t="s">
+        <v>447</v>
+      </c>
+      <c r="C143" t="s">
+        <v>448</v>
+      </c>
+      <c r="D143" t="s">
+        <v>449</v>
+      </c>
+      <c r="E143" t="s">
+        <v>89</v>
+      </c>
+      <c r="F143" t="s">
+        <v>66</v>
+      </c>
+      <c r="G143" t="s">
+        <v>23</v>
+      </c>
+      <c r="H143" t="s">
+        <v>450</v>
+      </c>
+      <c r="I143" t="s">
+        <v>451</v>
+      </c>
+      <c r="J143" t="s">
         <v>452</v>
       </c>
-      <c r="B143" t="s">
-        <v>453</v>
-      </c>
-      <c r="C143" t="s">
-        <v>454</v>
-      </c>
-      <c r="D143" t="s">
-        <v>455</v>
-      </c>
-      <c r="E143" t="s">
-        <v>12</v>
-      </c>
-      <c r="F143" t="s">
-        <v>12</v>
-      </c>
-      <c r="G143" t="s">
-        <v>12</v>
-      </c>
-      <c r="H143" t="s">
-        <v>12</v>
-      </c>
-      <c r="I143" t="s">
-        <v>12</v>
-      </c>
-      <c r="J143" t="s">
-        <v>12</v>
-      </c>
       <c r="K143" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>452</v>
+        <v>12</v>
       </c>
       <c r="B144" t="s">
-        <v>456</v>
+        <v>12</v>
       </c>
       <c r="C144" t="s">
-        <v>457</v>
+        <v>12</v>
       </c>
       <c r="D144" t="s">
-        <v>458</v>
+        <v>12</v>
       </c>
       <c r="E144" t="s">
-        <v>16</v>
+        <v>453</v>
       </c>
       <c r="F144" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G144" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="H144" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="I144" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="J144" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K144" t="s">
         <v>22</v>
@@ -7244,22 +7382,22 @@
         <v>12</v>
       </c>
       <c r="E145" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="F145" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G145" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H145" t="s">
-        <v>461</v>
+        <v>336</v>
       </c>
       <c r="I145" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="J145" t="s">
-        <v>21</v>
+        <v>457</v>
       </c>
       <c r="K145" t="s">
         <v>22</v>
@@ -7267,34 +7405,34 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>12</v>
+        <v>458</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>459</v>
       </c>
       <c r="C146" t="s">
-        <v>12</v>
+        <v>460</v>
       </c>
       <c r="D146" t="s">
-        <v>12</v>
+        <v>461</v>
       </c>
       <c r="E146" t="s">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="F146" t="s">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H146" t="s">
-        <v>251</v>
+        <v>110</v>
       </c>
       <c r="I146" t="s">
+        <v>462</v>
+      </c>
+      <c r="J146" t="s">
         <v>463</v>
-      </c>
-      <c r="J146" t="s">
-        <v>464</v>
       </c>
       <c r="K146" t="s">
         <v>22</v>
@@ -7314,22 +7452,22 @@
         <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="F147" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G147" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H147" t="s">
+        <v>464</v>
+      </c>
+      <c r="I147" t="s">
         <v>465</v>
       </c>
-      <c r="I147" t="s">
+      <c r="J147" t="s">
         <v>466</v>
-      </c>
-      <c r="J147" t="s">
-        <v>467</v>
       </c>
       <c r="K147" t="s">
         <v>22</v>
@@ -7337,34 +7475,34 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>468</v>
+        <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>469</v>
+        <v>12</v>
       </c>
       <c r="C148" t="s">
-        <v>470</v>
+        <v>12</v>
       </c>
       <c r="D148" t="s">
-        <v>471</v>
+        <v>12</v>
       </c>
       <c r="E148" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="F148" t="s">
-        <v>54</v>
+        <v>221</v>
       </c>
       <c r="G148" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="H148" t="s">
-        <v>472</v>
+        <v>100</v>
       </c>
       <c r="I148" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="J148" t="s">
-        <v>474</v>
+        <v>22</v>
       </c>
       <c r="K148" t="s">
         <v>22</v>
@@ -7384,22 +7522,22 @@
         <v>12</v>
       </c>
       <c r="E149" t="s">
-        <v>53</v>
+        <v>453</v>
       </c>
       <c r="F149" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="G149" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H149" t="s">
-        <v>378</v>
+        <v>468</v>
       </c>
       <c r="I149" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J149" t="s">
-        <v>476</v>
+        <v>22</v>
       </c>
       <c r="K149" t="s">
         <v>22</v>
@@ -7419,22 +7557,22 @@
         <v>12</v>
       </c>
       <c r="E150" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F150" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G150" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H150" t="s">
-        <v>465</v>
+        <v>224</v>
       </c>
       <c r="I150" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="J150" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="K150" t="s">
         <v>22</v>
@@ -7442,34 +7580,34 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>468</v>
+        <v>12</v>
       </c>
       <c r="B151" t="s">
-        <v>479</v>
+        <v>12</v>
       </c>
       <c r="C151" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="D151" t="s">
-        <v>481</v>
+        <v>12</v>
       </c>
       <c r="E151" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="F151" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="G151" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H151" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="I151" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="J151" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="K151" t="s">
         <v>22</v>
@@ -7489,30 +7627,30 @@
         <v>12</v>
       </c>
       <c r="E152" t="s">
-        <v>485</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G152" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H152" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I152" t="s">
-        <v>486</v>
+        <v>12</v>
       </c>
       <c r="J152" t="s">
-        <v>487</v>
+        <v>12</v>
       </c>
       <c r="K152" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>12</v>
+        <v>475</v>
       </c>
       <c r="B153" t="s">
         <v>12</v>
@@ -7524,92 +7662,92 @@
         <v>12</v>
       </c>
       <c r="E153" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G153" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H153" t="s">
-        <v>438</v>
+        <v>12</v>
       </c>
       <c r="I153" t="s">
-        <v>488</v>
+        <v>12</v>
       </c>
       <c r="J153" t="s">
-        <v>489</v>
+        <v>12</v>
       </c>
       <c r="K153" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="B154" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="C154" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="D154" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="E154" t="s">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="G154" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H154" t="s">
-        <v>286</v>
+        <v>12</v>
       </c>
       <c r="I154" t="s">
-        <v>494</v>
+        <v>12</v>
       </c>
       <c r="J154" t="s">
-        <v>495</v>
+        <v>12</v>
       </c>
       <c r="K154" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>12</v>
+        <v>476</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>480</v>
       </c>
       <c r="C155" t="s">
-        <v>12</v>
+        <v>481</v>
       </c>
       <c r="D155" t="s">
-        <v>12</v>
+        <v>482</v>
       </c>
       <c r="E155" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F155" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="G155" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="H155" t="s">
-        <v>496</v>
+        <v>121</v>
       </c>
       <c r="I155" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="J155" t="s">
-        <v>498</v>
+        <v>22</v>
       </c>
       <c r="K155" t="s">
         <v>22</v>
@@ -7629,22 +7767,22 @@
         <v>12</v>
       </c>
       <c r="E156" t="s">
+        <v>65</v>
+      </c>
+      <c r="F156" t="s">
+        <v>66</v>
+      </c>
+      <c r="G156" t="s">
+        <v>23</v>
+      </c>
+      <c r="H156" t="s">
+        <v>484</v>
+      </c>
+      <c r="I156" t="s">
         <v>485</v>
       </c>
-      <c r="F156" t="s">
-        <v>26</v>
-      </c>
-      <c r="G156" t="s">
-        <v>27</v>
-      </c>
-      <c r="H156" t="s">
-        <v>499</v>
-      </c>
-      <c r="I156" t="s">
-        <v>500</v>
-      </c>
       <c r="J156" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="K156" t="s">
         <v>22</v>
@@ -7652,34 +7790,34 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>12</v>
+        <v>476</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>487</v>
       </c>
       <c r="C157" t="s">
-        <v>12</v>
+        <v>488</v>
       </c>
       <c r="D157" t="s">
-        <v>12</v>
+        <v>489</v>
       </c>
       <c r="E157" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="F157" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G157" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H157" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="I157" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="J157" t="s">
-        <v>504</v>
+        <v>22</v>
       </c>
       <c r="K157" t="s">
         <v>22</v>
@@ -7687,34 +7825,34 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B158" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="C158" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="D158" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="E158" t="s">
         <v>16</v>
       </c>
       <c r="F158" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G158" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H158" t="s">
-        <v>276</v>
+        <v>496</v>
       </c>
       <c r="I158" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="J158" t="s">
-        <v>21</v>
+        <v>498</v>
       </c>
       <c r="K158" t="s">
         <v>22</v>
@@ -7722,34 +7860,34 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>12</v>
+        <v>492</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>499</v>
       </c>
       <c r="C159" t="s">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="D159" t="s">
-        <v>12</v>
+        <v>501</v>
       </c>
       <c r="E159" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="F159" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="G159" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H159" t="s">
-        <v>433</v>
+        <v>502</v>
       </c>
       <c r="I159" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="J159" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="K159" t="s">
         <v>22</v>
@@ -7757,69 +7895,69 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="B160" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C160" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D160" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="E160" t="s">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="G160" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H160" t="s">
-        <v>514</v>
+        <v>12</v>
       </c>
       <c r="I160" t="s">
-        <v>515</v>
+        <v>12</v>
       </c>
       <c r="J160" t="s">
-        <v>516</v>
+        <v>12</v>
       </c>
       <c r="K160" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>12</v>
+        <v>504</v>
       </c>
       <c r="B161" t="s">
-        <v>12</v>
+        <v>508</v>
       </c>
       <c r="C161" t="s">
-        <v>12</v>
+        <v>509</v>
       </c>
       <c r="D161" t="s">
-        <v>12</v>
+        <v>510</v>
       </c>
       <c r="E161" t="s">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="F161" t="s">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H161" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="I161" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="J161" t="s">
-        <v>519</v>
+        <v>22</v>
       </c>
       <c r="K161" t="s">
         <v>22</v>
@@ -7839,22 +7977,22 @@
         <v>12</v>
       </c>
       <c r="E162" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="F162" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G162" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H162" t="s">
-        <v>263</v>
+        <v>513</v>
       </c>
       <c r="I162" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="J162" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="K162" t="s">
         <v>22</v>
@@ -7862,34 +8000,34 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>522</v>
+        <v>12</v>
       </c>
       <c r="B163" t="s">
-        <v>523</v>
+        <v>12</v>
       </c>
       <c r="C163" t="s">
-        <v>524</v>
+        <v>12</v>
       </c>
       <c r="D163" t="s">
-        <v>525</v>
+        <v>12</v>
       </c>
       <c r="E163" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="F163" t="s">
-        <v>26</v>
+        <v>221</v>
       </c>
       <c r="G163" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="H163" t="s">
-        <v>526</v>
+        <v>246</v>
       </c>
       <c r="I163" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="J163" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K163" t="s">
         <v>22</v>
@@ -7909,22 +8047,22 @@
         <v>12</v>
       </c>
       <c r="E164" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="F164" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G164" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H164" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="I164" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="J164" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="K164" t="s">
         <v>22</v>
@@ -7932,42 +8070,42 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>12</v>
+        <v>520</v>
       </c>
       <c r="B165" t="s">
-        <v>12</v>
+        <v>521</v>
       </c>
       <c r="C165" t="s">
-        <v>12</v>
+        <v>522</v>
       </c>
       <c r="D165" t="s">
-        <v>12</v>
+        <v>523</v>
       </c>
       <c r="E165" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F165" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G165" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="H165" t="s">
-        <v>12</v>
+        <v>524</v>
       </c>
       <c r="I165" t="s">
-        <v>12</v>
+        <v>525</v>
       </c>
       <c r="J165" t="s">
-        <v>12</v>
+        <v>526</v>
       </c>
       <c r="K165" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>531</v>
+        <v>12</v>
       </c>
       <c r="B166" t="s">
         <v>12</v>
@@ -7979,197 +8117,197 @@
         <v>12</v>
       </c>
       <c r="E166" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F166" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G166" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H166" t="s">
-        <v>12</v>
+        <v>377</v>
       </c>
       <c r="I166" t="s">
-        <v>12</v>
+        <v>527</v>
       </c>
       <c r="J166" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K166" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="B167" t="s">
-        <v>532</v>
+        <v>12</v>
       </c>
       <c r="C167" t="s">
-        <v>533</v>
+        <v>12</v>
       </c>
       <c r="D167" t="s">
-        <v>534</v>
+        <v>12</v>
       </c>
       <c r="E167" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="F167" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G167" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H167" t="s">
-        <v>12</v>
+        <v>517</v>
       </c>
       <c r="I167" t="s">
-        <v>12</v>
+        <v>528</v>
       </c>
       <c r="J167" t="s">
-        <v>12</v>
+        <v>529</v>
       </c>
       <c r="K167" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="B168" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C168" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D168" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E168" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="F168" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G168" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H168" t="s">
-        <v>12</v>
+        <v>533</v>
       </c>
       <c r="I168" t="s">
-        <v>12</v>
+        <v>534</v>
       </c>
       <c r="J168" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K168" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" t="s">
+        <v>12</v>
+      </c>
+      <c r="E169" t="s">
+        <v>453</v>
+      </c>
+      <c r="F169" t="s">
+        <v>27</v>
+      </c>
+      <c r="G169" t="s">
+        <v>23</v>
+      </c>
+      <c r="H169" t="s">
+        <v>45</v>
+      </c>
+      <c r="I169" t="s">
         <v>535</v>
       </c>
-      <c r="B169" t="s">
-        <v>539</v>
-      </c>
-      <c r="C169" t="s">
-        <v>540</v>
-      </c>
-      <c r="D169" t="s">
-        <v>541</v>
-      </c>
-      <c r="E169" t="s">
-        <v>12</v>
-      </c>
-      <c r="F169" t="s">
-        <v>12</v>
-      </c>
-      <c r="G169" t="s">
-        <v>12</v>
-      </c>
-      <c r="H169" t="s">
-        <v>12</v>
-      </c>
-      <c r="I169" t="s">
-        <v>12</v>
-      </c>
       <c r="J169" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K169" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>542</v>
+        <v>12</v>
       </c>
       <c r="B170" t="s">
-        <v>543</v>
+        <v>12</v>
       </c>
       <c r="C170" t="s">
-        <v>544</v>
+        <v>12</v>
       </c>
       <c r="D170" t="s">
-        <v>545</v>
+        <v>12</v>
       </c>
       <c r="E170" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="F170" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G170" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H170" t="s">
-        <v>12</v>
+        <v>490</v>
       </c>
       <c r="I170" t="s">
-        <v>12</v>
+        <v>536</v>
       </c>
       <c r="J170" t="s">
-        <v>12</v>
+        <v>537</v>
       </c>
       <c r="K170" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B171" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C171" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D171" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="E171" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="F171" t="s">
-        <v>26</v>
+        <v>221</v>
       </c>
       <c r="G171" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="H171" t="s">
-        <v>550</v>
+        <v>283</v>
       </c>
       <c r="I171" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="J171" t="s">
-        <v>21</v>
+        <v>543</v>
       </c>
       <c r="K171" t="s">
         <v>22</v>
@@ -8189,22 +8327,22 @@
         <v>12</v>
       </c>
       <c r="E172" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="F172" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="G172" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H172" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="I172" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="J172" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K172" t="s">
         <v>22</v>
@@ -8212,69 +8350,69 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>554</v>
+        <v>12</v>
       </c>
       <c r="B173" t="s">
-        <v>555</v>
+        <v>12</v>
       </c>
       <c r="C173" t="s">
-        <v>556</v>
+        <v>12</v>
       </c>
       <c r="D173" t="s">
-        <v>557</v>
+        <v>12</v>
       </c>
       <c r="E173" t="s">
-        <v>12</v>
+        <v>453</v>
       </c>
       <c r="F173" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G173" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H173" t="s">
-        <v>12</v>
+        <v>546</v>
       </c>
       <c r="I173" t="s">
-        <v>12</v>
+        <v>547</v>
       </c>
       <c r="J173" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K173" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>558</v>
+        <v>12</v>
       </c>
       <c r="B174" t="s">
-        <v>559</v>
+        <v>12</v>
       </c>
       <c r="C174" t="s">
-        <v>560</v>
+        <v>12</v>
       </c>
       <c r="D174" t="s">
-        <v>561</v>
+        <v>12</v>
       </c>
       <c r="E174" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="F174" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="G174" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H174" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="I174" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="J174" t="s">
-        <v>21</v>
+        <v>543</v>
       </c>
       <c r="K174" t="s">
         <v>22</v>
@@ -8282,34 +8420,34 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>12</v>
+        <v>538</v>
       </c>
       <c r="B175" t="s">
-        <v>12</v>
+        <v>550</v>
       </c>
       <c r="C175" t="s">
-        <v>12</v>
+        <v>551</v>
       </c>
       <c r="D175" t="s">
-        <v>12</v>
+        <v>552</v>
       </c>
       <c r="E175" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="F175" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="G175" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="H175" t="s">
-        <v>564</v>
+        <v>271</v>
       </c>
       <c r="I175" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="J175" t="s">
-        <v>21</v>
+        <v>554</v>
       </c>
       <c r="K175" t="s">
         <v>22</v>
@@ -8317,34 +8455,34 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>566</v>
+        <v>12</v>
       </c>
       <c r="B176" t="s">
-        <v>567</v>
+        <v>12</v>
       </c>
       <c r="C176" t="s">
-        <v>568</v>
+        <v>12</v>
       </c>
       <c r="D176" t="s">
-        <v>569</v>
+        <v>12</v>
       </c>
       <c r="E176" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="F176" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="G176" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H176" t="s">
-        <v>570</v>
+        <v>484</v>
       </c>
       <c r="I176" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="J176" t="s">
-        <v>21</v>
+        <v>556</v>
       </c>
       <c r="K176" t="s">
         <v>22</v>
@@ -8352,34 +8490,34 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>12</v>
+        <v>538</v>
       </c>
       <c r="B177" t="s">
-        <v>12</v>
+        <v>557</v>
       </c>
       <c r="C177" t="s">
-        <v>12</v>
+        <v>558</v>
       </c>
       <c r="D177" t="s">
-        <v>12</v>
+        <v>559</v>
       </c>
       <c r="E177" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="F177" t="s">
-        <v>54</v>
+        <v>221</v>
       </c>
       <c r="G177" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="H177" t="s">
-        <v>572</v>
+        <v>454</v>
       </c>
       <c r="I177" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="J177" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K177" t="s">
         <v>22</v>
@@ -8399,30 +8537,30 @@
         <v>12</v>
       </c>
       <c r="E178" t="s">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="F178" t="s">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="G178" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="H178" t="s">
-        <v>12</v>
+        <v>561</v>
       </c>
       <c r="I178" t="s">
-        <v>12</v>
+        <v>562</v>
       </c>
       <c r="J178" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K178" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>574</v>
+        <v>12</v>
       </c>
       <c r="B179" t="s">
         <v>12</v>
@@ -8434,109 +8572,109 @@
         <v>12</v>
       </c>
       <c r="E179" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="F179" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G179" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="H179" t="s">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="I179" t="s">
-        <v>12</v>
+        <v>563</v>
       </c>
       <c r="J179" t="s">
-        <v>12</v>
+        <v>564</v>
       </c>
       <c r="K179" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="B180" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="C180" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="D180" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="E180" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F180" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G180" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H180" t="s">
-        <v>12</v>
+        <v>569</v>
       </c>
       <c r="I180" t="s">
-        <v>12</v>
+        <v>570</v>
       </c>
       <c r="J180" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K180" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>575</v>
+        <v>12</v>
       </c>
       <c r="B181" t="s">
-        <v>579</v>
+        <v>12</v>
       </c>
       <c r="C181" t="s">
-        <v>580</v>
+        <v>12</v>
       </c>
       <c r="D181" t="s">
-        <v>581</v>
+        <v>12</v>
       </c>
       <c r="E181" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="F181" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G181" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H181" t="s">
-        <v>12</v>
+        <v>427</v>
       </c>
       <c r="I181" t="s">
-        <v>12</v>
+        <v>571</v>
       </c>
       <c r="J181" t="s">
-        <v>12</v>
+        <v>572</v>
       </c>
       <c r="K181" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>575</v>
+        <v>12</v>
       </c>
       <c r="B182" t="s">
-        <v>582</v>
+        <v>12</v>
       </c>
       <c r="C182" t="s">
-        <v>583</v>
+        <v>12</v>
       </c>
       <c r="D182" t="s">
-        <v>584</v>
+        <v>12</v>
       </c>
       <c r="E182" t="s">
         <v>12</v>
@@ -8562,16 +8700,16 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="B183" t="s">
-        <v>586</v>
+        <v>12</v>
       </c>
       <c r="C183" t="s">
-        <v>587</v>
+        <v>12</v>
       </c>
       <c r="D183" t="s">
-        <v>588</v>
+        <v>12</v>
       </c>
       <c r="E183" t="s">
         <v>12</v>
@@ -8597,16 +8735,16 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>585</v>
+        <v>158</v>
       </c>
       <c r="B184" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="C184" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="D184" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="E184" t="s">
         <v>12</v>
@@ -8632,16 +8770,16 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B185" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="C185" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="D185" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="E185" t="s">
         <v>12</v>
@@ -8667,16 +8805,16 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B186" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="C186" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="D186" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="E186" t="s">
         <v>12</v>
@@ -8702,16 +8840,16 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>584</v>
+      </c>
+      <c r="B187" t="s">
         <v>585</v>
       </c>
-      <c r="B187" t="s">
-        <v>598</v>
-      </c>
       <c r="C187" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="D187" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="E187" t="s">
         <v>12</v>
@@ -8737,36 +8875,631 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>12</v>
+        <v>588</v>
       </c>
       <c r="B188" t="s">
-        <v>12</v>
+        <v>589</v>
       </c>
       <c r="C188" t="s">
-        <v>12</v>
+        <v>590</v>
       </c>
       <c r="D188" t="s">
-        <v>12</v>
+        <v>591</v>
       </c>
       <c r="E188" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F188" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G188" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H188" t="s">
-        <v>12</v>
+        <v>592</v>
       </c>
       <c r="I188" t="s">
-        <v>12</v>
+        <v>593</v>
       </c>
       <c r="J188" t="s">
-        <v>12</v>
+        <v>594</v>
       </c>
       <c r="K188" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>12</v>
+      </c>
+      <c r="B189" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189" t="s">
+        <v>65</v>
+      </c>
+      <c r="F189" t="s">
+        <v>66</v>
+      </c>
+      <c r="G189" t="s">
+        <v>28</v>
+      </c>
+      <c r="H189" t="s">
+        <v>595</v>
+      </c>
+      <c r="I189" t="s">
+        <v>596</v>
+      </c>
+      <c r="J189" t="s">
+        <v>597</v>
+      </c>
+      <c r="K189" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>598</v>
+      </c>
+      <c r="B190" t="s">
+        <v>599</v>
+      </c>
+      <c r="C190" t="s">
+        <v>600</v>
+      </c>
+      <c r="D190" t="s">
+        <v>601</v>
+      </c>
+      <c r="E190" t="s">
+        <v>12</v>
+      </c>
+      <c r="F190" t="s">
+        <v>12</v>
+      </c>
+      <c r="G190" t="s">
+        <v>12</v>
+      </c>
+      <c r="H190" t="s">
+        <v>12</v>
+      </c>
+      <c r="I190" t="s">
+        <v>12</v>
+      </c>
+      <c r="J190" t="s">
+        <v>12</v>
+      </c>
+      <c r="K190" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>602</v>
+      </c>
+      <c r="B191" t="s">
+        <v>603</v>
+      </c>
+      <c r="C191" t="s">
+        <v>604</v>
+      </c>
+      <c r="D191" t="s">
+        <v>605</v>
+      </c>
+      <c r="E191" t="s">
+        <v>16</v>
+      </c>
+      <c r="F191" t="s">
+        <v>27</v>
+      </c>
+      <c r="G191" t="s">
+        <v>28</v>
+      </c>
+      <c r="H191" t="s">
+        <v>606</v>
+      </c>
+      <c r="I191" t="s">
+        <v>607</v>
+      </c>
+      <c r="J191" t="s">
+        <v>22</v>
+      </c>
+      <c r="K191" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>12</v>
+      </c>
+      <c r="B192" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" t="s">
+        <v>12</v>
+      </c>
+      <c r="E192" t="s">
+        <v>65</v>
+      </c>
+      <c r="F192" t="s">
+        <v>66</v>
+      </c>
+      <c r="G192" t="s">
+        <v>28</v>
+      </c>
+      <c r="H192" t="s">
+        <v>608</v>
+      </c>
+      <c r="I192" t="s">
+        <v>609</v>
+      </c>
+      <c r="J192" t="s">
+        <v>610</v>
+      </c>
+      <c r="K192" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>611</v>
+      </c>
+      <c r="B193" t="s">
+        <v>612</v>
+      </c>
+      <c r="C193" t="s">
+        <v>613</v>
+      </c>
+      <c r="D193" t="s">
+        <v>614</v>
+      </c>
+      <c r="E193" t="s">
+        <v>16</v>
+      </c>
+      <c r="F193" t="s">
+        <v>27</v>
+      </c>
+      <c r="G193" t="s">
+        <v>28</v>
+      </c>
+      <c r="H193" t="s">
+        <v>615</v>
+      </c>
+      <c r="I193" t="s">
+        <v>616</v>
+      </c>
+      <c r="J193" t="s">
+        <v>613</v>
+      </c>
+      <c r="K193" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>12</v>
+      </c>
+      <c r="B194" t="s">
+        <v>12</v>
+      </c>
+      <c r="C194" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" t="s">
+        <v>12</v>
+      </c>
+      <c r="E194" t="s">
+        <v>65</v>
+      </c>
+      <c r="F194" t="s">
+        <v>66</v>
+      </c>
+      <c r="G194" t="s">
+        <v>28</v>
+      </c>
+      <c r="H194" t="s">
+        <v>617</v>
+      </c>
+      <c r="I194" t="s">
+        <v>618</v>
+      </c>
+      <c r="J194" t="s">
+        <v>619</v>
+      </c>
+      <c r="K194" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>12</v>
+      </c>
+      <c r="B195" t="s">
+        <v>12</v>
+      </c>
+      <c r="C195" t="s">
+        <v>12</v>
+      </c>
+      <c r="D195" t="s">
+        <v>12</v>
+      </c>
+      <c r="E195" t="s">
+        <v>12</v>
+      </c>
+      <c r="F195" t="s">
+        <v>12</v>
+      </c>
+      <c r="G195" t="s">
+        <v>12</v>
+      </c>
+      <c r="H195" t="s">
+        <v>12</v>
+      </c>
+      <c r="I195" t="s">
+        <v>12</v>
+      </c>
+      <c r="J195" t="s">
+        <v>12</v>
+      </c>
+      <c r="K195" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>620</v>
+      </c>
+      <c r="B196" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" t="s">
+        <v>12</v>
+      </c>
+      <c r="E196" t="s">
+        <v>12</v>
+      </c>
+      <c r="F196" t="s">
+        <v>12</v>
+      </c>
+      <c r="G196" t="s">
+        <v>12</v>
+      </c>
+      <c r="H196" t="s">
+        <v>12</v>
+      </c>
+      <c r="I196" t="s">
+        <v>12</v>
+      </c>
+      <c r="J196" t="s">
+        <v>12</v>
+      </c>
+      <c r="K196" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>621</v>
+      </c>
+      <c r="B197" t="s">
+        <v>622</v>
+      </c>
+      <c r="C197" t="s">
+        <v>623</v>
+      </c>
+      <c r="D197" t="s">
+        <v>624</v>
+      </c>
+      <c r="E197" t="s">
+        <v>12</v>
+      </c>
+      <c r="F197" t="s">
+        <v>12</v>
+      </c>
+      <c r="G197" t="s">
+        <v>12</v>
+      </c>
+      <c r="H197" t="s">
+        <v>12</v>
+      </c>
+      <c r="I197" t="s">
+        <v>12</v>
+      </c>
+      <c r="J197" t="s">
+        <v>12</v>
+      </c>
+      <c r="K197" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>621</v>
+      </c>
+      <c r="B198" t="s">
+        <v>625</v>
+      </c>
+      <c r="C198" t="s">
+        <v>626</v>
+      </c>
+      <c r="D198" t="s">
+        <v>627</v>
+      </c>
+      <c r="E198" t="s">
+        <v>12</v>
+      </c>
+      <c r="F198" t="s">
+        <v>12</v>
+      </c>
+      <c r="G198" t="s">
+        <v>12</v>
+      </c>
+      <c r="H198" t="s">
+        <v>12</v>
+      </c>
+      <c r="I198" t="s">
+        <v>12</v>
+      </c>
+      <c r="J198" t="s">
+        <v>12</v>
+      </c>
+      <c r="K198" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>621</v>
+      </c>
+      <c r="B199" t="s">
+        <v>628</v>
+      </c>
+      <c r="C199" t="s">
+        <v>629</v>
+      </c>
+      <c r="D199" t="s">
+        <v>630</v>
+      </c>
+      <c r="E199" t="s">
+        <v>12</v>
+      </c>
+      <c r="F199" t="s">
+        <v>12</v>
+      </c>
+      <c r="G199" t="s">
+        <v>12</v>
+      </c>
+      <c r="H199" t="s">
+        <v>12</v>
+      </c>
+      <c r="I199" t="s">
+        <v>12</v>
+      </c>
+      <c r="J199" t="s">
+        <v>12</v>
+      </c>
+      <c r="K199" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>631</v>
+      </c>
+      <c r="B200" t="s">
+        <v>632</v>
+      </c>
+      <c r="C200" t="s">
+        <v>633</v>
+      </c>
+      <c r="D200" t="s">
+        <v>634</v>
+      </c>
+      <c r="E200" t="s">
+        <v>12</v>
+      </c>
+      <c r="F200" t="s">
+        <v>12</v>
+      </c>
+      <c r="G200" t="s">
+        <v>12</v>
+      </c>
+      <c r="H200" t="s">
+        <v>12</v>
+      </c>
+      <c r="I200" t="s">
+        <v>12</v>
+      </c>
+      <c r="J200" t="s">
+        <v>12</v>
+      </c>
+      <c r="K200" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>631</v>
+      </c>
+      <c r="B201" t="s">
+        <v>635</v>
+      </c>
+      <c r="C201" t="s">
+        <v>636</v>
+      </c>
+      <c r="D201" t="s">
+        <v>637</v>
+      </c>
+      <c r="E201" t="s">
+        <v>12</v>
+      </c>
+      <c r="F201" t="s">
+        <v>12</v>
+      </c>
+      <c r="G201" t="s">
+        <v>12</v>
+      </c>
+      <c r="H201" t="s">
+        <v>12</v>
+      </c>
+      <c r="I201" t="s">
+        <v>12</v>
+      </c>
+      <c r="J201" t="s">
+        <v>12</v>
+      </c>
+      <c r="K201" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>631</v>
+      </c>
+      <c r="B202" t="s">
+        <v>638</v>
+      </c>
+      <c r="C202" t="s">
+        <v>639</v>
+      </c>
+      <c r="D202" t="s">
+        <v>640</v>
+      </c>
+      <c r="E202" t="s">
+        <v>12</v>
+      </c>
+      <c r="F202" t="s">
+        <v>12</v>
+      </c>
+      <c r="G202" t="s">
+        <v>12</v>
+      </c>
+      <c r="H202" t="s">
+        <v>12</v>
+      </c>
+      <c r="I202" t="s">
+        <v>12</v>
+      </c>
+      <c r="J202" t="s">
+        <v>12</v>
+      </c>
+      <c r="K202" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>631</v>
+      </c>
+      <c r="B203" t="s">
+        <v>641</v>
+      </c>
+      <c r="C203" t="s">
+        <v>642</v>
+      </c>
+      <c r="D203" t="s">
+        <v>643</v>
+      </c>
+      <c r="E203" t="s">
+        <v>12</v>
+      </c>
+      <c r="F203" t="s">
+        <v>12</v>
+      </c>
+      <c r="G203" t="s">
+        <v>12</v>
+      </c>
+      <c r="H203" t="s">
+        <v>12</v>
+      </c>
+      <c r="I203" t="s">
+        <v>12</v>
+      </c>
+      <c r="J203" t="s">
+        <v>12</v>
+      </c>
+      <c r="K203" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>631</v>
+      </c>
+      <c r="B204" t="s">
+        <v>644</v>
+      </c>
+      <c r="C204" t="s">
+        <v>645</v>
+      </c>
+      <c r="D204" t="s">
+        <v>646</v>
+      </c>
+      <c r="E204" t="s">
+        <v>12</v>
+      </c>
+      <c r="F204" t="s">
+        <v>12</v>
+      </c>
+      <c r="G204" t="s">
+        <v>12</v>
+      </c>
+      <c r="H204" t="s">
+        <v>12</v>
+      </c>
+      <c r="I204" t="s">
+        <v>12</v>
+      </c>
+      <c r="J204" t="s">
+        <v>12</v>
+      </c>
+      <c r="K204" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>12</v>
+      </c>
+      <c r="B205" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" t="s">
+        <v>12</v>
+      </c>
+      <c r="E205" t="s">
+        <v>12</v>
+      </c>
+      <c r="F205" t="s">
+        <v>12</v>
+      </c>
+      <c r="G205" t="s">
+        <v>12</v>
+      </c>
+      <c r="H205" t="s">
+        <v>12</v>
+      </c>
+      <c r="I205" t="s">
+        <v>12</v>
+      </c>
+      <c r="J205" t="s">
+        <v>12</v>
+      </c>
+      <c r="K205" t="s">
         <v>12</v>
       </c>
     </row>
